--- a/legendre_out/DATA/a1/a0/a1_a0Fit.xlsx
+++ b/legendre_out/DATA/a1/a0/a1_a0Fit.xlsx
@@ -395,4442 +395,4442 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>2.584572591452128e-05</v>
+        <v>23878214613495.54</v>
       </c>
       <c r="C2" t="n">
-        <v>5.817596912403627e-07</v>
+        <v>537476327290.1189</v>
       </c>
       <c r="D2" t="n">
-        <v>240.186428037547</v>
+        <v>234.5452383667615</v>
       </c>
       <c r="E2" t="n">
-        <v>5.121758191612501e-49</v>
+        <v>8.201968353613475e-48</v>
       </c>
       <c r="F2" t="n">
-        <v>40.03107133959116</v>
+        <v>39.09087306112691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>2.377588586293063e-05</v>
+        <v>22522492569658.71</v>
       </c>
       <c r="C3" t="n">
-        <v>5.835051656259298e-07</v>
+        <v>555090050321.965</v>
       </c>
       <c r="D3" t="n">
-        <v>237.4992473188287</v>
+        <v>232.225901347991</v>
       </c>
       <c r="E3" t="n">
-        <v>1.919739584147799e-48</v>
+        <v>2.564470803695308e-47</v>
       </c>
       <c r="F3" t="n">
-        <v>39.58320788647144</v>
+        <v>38.70431689133183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>2.355472719221388e-05</v>
+        <v>21528888262837.16</v>
       </c>
       <c r="C4" t="n">
-        <v>5.784371864687283e-07</v>
+        <v>539822422947.577</v>
       </c>
       <c r="D4" t="n">
-        <v>165.8937259350338</v>
+        <v>183.9360046746581</v>
       </c>
       <c r="E4" t="n">
-        <v>3.339455745978834e-33</v>
+        <v>4.948702209103996e-37</v>
       </c>
       <c r="F4" t="n">
-        <v>27.64895432250563</v>
+        <v>30.65600077910968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>2.159870754350777e-05</v>
+        <v>20490156520119.84</v>
       </c>
       <c r="C5" t="n">
-        <v>5.622055457120431e-07</v>
+        <v>531472198210.5817</v>
       </c>
       <c r="D5" t="n">
-        <v>184.7256340814378</v>
+        <v>174.306238545723</v>
       </c>
       <c r="E5" t="n">
-        <v>3.362837996589892e-37</v>
+        <v>5.48760035126905e-35</v>
       </c>
       <c r="F5" t="n">
-        <v>30.78760568023963</v>
+        <v>29.0510397576205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>2.215302633412223e-05</v>
+        <v>20613644365559.39</v>
       </c>
       <c r="C6" t="n">
-        <v>6.096767763635113e-07</v>
+        <v>566797441869.3779</v>
       </c>
       <c r="D6" t="n">
-        <v>147.9622574531226</v>
+        <v>152.0427579697761</v>
       </c>
       <c r="E6" t="n">
-        <v>2.086196540452721e-29</v>
+        <v>2.86154372728438e-30</v>
       </c>
       <c r="F6" t="n">
-        <v>24.66037624218709</v>
+        <v>25.34045966162935</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>2.205027388093642e-05</v>
+        <v>19683480715136</v>
       </c>
       <c r="C7" t="n">
-        <v>6.11369894322085e-07</v>
+        <v>558692565355.4247</v>
       </c>
       <c r="D7" t="n">
-        <v>137.4978580664494</v>
+        <v>179.8312080096045</v>
       </c>
       <c r="E7" t="n">
-        <v>3.379510788506463e-27</v>
+        <v>3.685095470259514e-36</v>
       </c>
       <c r="F7" t="n">
-        <v>22.91630967774157</v>
+        <v>29.97186800160075</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>2.059293069369782e-05</v>
+        <v>19455650512798.03</v>
       </c>
       <c r="C8" t="n">
-        <v>5.37950896895449e-07</v>
+        <v>504763959793.239</v>
       </c>
       <c r="D8" t="n">
-        <v>175.0885069099039</v>
+        <v>155.3262882141335</v>
       </c>
       <c r="E8" t="n">
-        <v>3.74420792627182e-35</v>
+        <v>5.779734007784793e-31</v>
       </c>
       <c r="F8" t="n">
-        <v>29.18141781831731</v>
+        <v>25.88771470235559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>1.794519625205282e-05</v>
+        <v>16561122606128.77</v>
       </c>
       <c r="C9" t="n">
-        <v>4.7522123211245e-07</v>
+        <v>442180998979.6776</v>
       </c>
       <c r="D9" t="n">
-        <v>173.25418899936</v>
+        <v>187.6903360168934</v>
       </c>
       <c r="E9" t="n">
-        <v>9.175595494191059e-35</v>
+        <v>7.881521800610423e-38</v>
       </c>
       <c r="F9" t="n">
-        <v>28.87569816656</v>
+        <v>31.28172266948223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>1.650825893645613e-05</v>
+        <v>15144172087808.67</v>
       </c>
       <c r="C10" t="n">
-        <v>4.886271299176606e-07</v>
+        <v>452387122299.416</v>
       </c>
       <c r="D10" t="n">
-        <v>82.46059814748098</v>
+        <v>96.63852073528106</v>
       </c>
       <c r="E10" t="n">
-        <v>1.107567991166328e-15</v>
+        <v>1.260066532006048e-18</v>
       </c>
       <c r="F10" t="n">
-        <v>13.74343302458016</v>
+        <v>16.10642012254684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>1.093666005801936e-05</v>
+        <v>10421411923770.1</v>
       </c>
       <c r="C11" t="n">
-        <v>3.836093049393761e-07</v>
+        <v>361641263147.1244</v>
       </c>
       <c r="D11" t="n">
-        <v>99.4314523695374</v>
+        <v>83.34144579396239</v>
       </c>
       <c r="E11" t="n">
-        <v>3.297300828333597e-19</v>
+        <v>7.279531813732086e-16</v>
       </c>
       <c r="F11" t="n">
-        <v>16.57190872825623</v>
+        <v>13.8902409656604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>6.67742066476905e-06</v>
+        <v>6654903452656.177</v>
       </c>
       <c r="C12" t="n">
-        <v>2.686799306389269e-07</v>
+        <v>255736677617.0006</v>
       </c>
       <c r="D12" t="n">
-        <v>101.7697502050775</v>
+        <v>83.79842297932032</v>
       </c>
       <c r="E12" t="n">
-        <v>1.071994066866833e-19</v>
+        <v>5.854747897099934e-16</v>
       </c>
       <c r="F12" t="n">
-        <v>16.96162503417958</v>
+        <v>13.96640382988672</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>5.453015488971033e-06</v>
+        <v>5015264195468.922</v>
       </c>
       <c r="C13" t="n">
-        <v>2.345925817104173e-07</v>
+        <v>218691473351.8801</v>
       </c>
       <c r="D13" t="n">
-        <v>47.2376804102176</v>
+        <v>43.80772900858394</v>
       </c>
       <c r="E13" t="n">
-        <v>1.677602934150226e-08</v>
+        <v>8.07025281776081e-08</v>
       </c>
       <c r="F13" t="n">
-        <v>7.872946735036266</v>
+        <v>7.301288168097323</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>2.022201879252361e-05</v>
+        <v>18506426504000.33</v>
       </c>
       <c r="C14" t="n">
-        <v>4.940146677860658e-07</v>
+        <v>455207397485.8703</v>
       </c>
       <c r="D14" t="n">
-        <v>136.9725284376789</v>
+        <v>145.4280659584535</v>
       </c>
       <c r="E14" t="n">
-        <v>4.361654213944549e-27</v>
+        <v>7.15891140116278e-29</v>
       </c>
       <c r="F14" t="n">
-        <v>22.82875473961316</v>
+        <v>24.23801099307558</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>3.300688945981902e-05</v>
+        <v>30912813420637.49</v>
       </c>
       <c r="C15" t="n">
-        <v>7.50667597484238e-07</v>
+        <v>700009174420.7836</v>
       </c>
       <c r="D15" t="n">
-        <v>151.3832712631155</v>
+        <v>157.644093888728</v>
       </c>
       <c r="E15" t="n">
-        <v>3.945301130505026e-30</v>
+        <v>1.86768590505804e-31</v>
       </c>
       <c r="F15" t="n">
-        <v>25.23054521051925</v>
+        <v>26.27401564812134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>4.554894524887236e-05</v>
+        <v>42307067060969.51</v>
       </c>
       <c r="C16" t="n">
-        <v>1.030676019165167e-06</v>
+        <v>957341541799.1884</v>
       </c>
       <c r="D16" t="n">
-        <v>175.6003010085297</v>
+        <v>175.529725393759</v>
       </c>
       <c r="E16" t="n">
-        <v>2.91562459816044e-35</v>
+        <v>3.017947753020365e-35</v>
       </c>
       <c r="F16" t="n">
-        <v>29.26671683475495</v>
+        <v>29.25495423229316</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>4.276885488204042e-05</v>
+        <v>40482401307557.61</v>
       </c>
       <c r="C17" t="n">
-        <v>9.797902699192699e-07</v>
+        <v>923513025619.9003</v>
       </c>
       <c r="D17" t="n">
-        <v>159.3093406603483</v>
+        <v>149.18415234424</v>
       </c>
       <c r="E17" t="n">
-        <v>8.293006755202898e-32</v>
+        <v>1.150989794351572e-29</v>
       </c>
       <c r="F17" t="n">
-        <v>26.55155677672472</v>
+        <v>24.86402539070667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>4.194046192097693e-05</v>
+        <v>40177343301165.27</v>
       </c>
       <c r="C18" t="n">
-        <v>9.953264022977169e-07</v>
+        <v>953275083854.7532</v>
       </c>
       <c r="D18" t="n">
-        <v>203.6843072572773</v>
+        <v>187.4201313783118</v>
       </c>
       <c r="E18" t="n">
-        <v>3.117942083881028e-41</v>
+        <v>8.995934114885529e-38</v>
       </c>
       <c r="F18" t="n">
-        <v>33.94738454287955</v>
+        <v>31.23668856305196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>4.237692182419915e-05</v>
+        <v>39420490025614.55</v>
       </c>
       <c r="C19" t="n">
-        <v>1.021341658329939e-06</v>
+        <v>950315623720.0128</v>
       </c>
       <c r="D19" t="n">
-        <v>182.3952103009983</v>
+        <v>184.295165874315</v>
       </c>
       <c r="E19" t="n">
-        <v>1.051583331132273e-36</v>
+        <v>4.151226645993259e-37</v>
       </c>
       <c r="F19" t="n">
-        <v>30.39920171683304</v>
+        <v>30.71586097905251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>4.188933549563498e-05</v>
+        <v>40118454566270.33</v>
       </c>
       <c r="C20" t="n">
-        <v>1.048718219706406e-06</v>
+        <v>993933744531.1708</v>
       </c>
       <c r="D20" t="n">
-        <v>200.1684060378032</v>
+        <v>163.6358988905014</v>
       </c>
       <c r="E20" t="n">
-        <v>1.747277928318755e-40</v>
+        <v>1.005074606896801e-32</v>
       </c>
       <c r="F20" t="n">
-        <v>33.36140100630053</v>
+        <v>27.27264981508357</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>4.552328526909324e-05</v>
+        <v>42735095566319.14</v>
       </c>
       <c r="C21" t="n">
-        <v>1.178337351489341e-06</v>
+        <v>1102831126347.919</v>
       </c>
       <c r="D21" t="n">
-        <v>172.7582300555396</v>
+        <v>163.7568832397642</v>
       </c>
       <c r="E21" t="n">
-        <v>1.169147101621328e-34</v>
+        <v>9.474602464249088e-33</v>
       </c>
       <c r="F21" t="n">
-        <v>28.79303834258993</v>
+        <v>27.29281387329404</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>4.804503846999634e-05</v>
+        <v>44271295190593.77</v>
       </c>
       <c r="C22" t="n">
-        <v>1.659386188433272e-06</v>
+        <v>1530241059730.241</v>
       </c>
       <c r="D22" t="n">
-        <v>299.961981300517</v>
+        <v>299.3599372478963</v>
       </c>
       <c r="E22" t="n">
-        <v>8.33521808588605e-62</v>
+        <v>1.121800810476574e-61</v>
       </c>
       <c r="F22" t="n">
-        <v>49.99366355008618</v>
+        <v>49.89332287464939</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>5.625282742485738e-05</v>
+        <v>52546508646501.99</v>
       </c>
       <c r="C23" t="n">
-        <v>2.140426344985083e-06</v>
+        <v>2004705578726.024</v>
       </c>
       <c r="D23" t="n">
-        <v>256.0521218790222</v>
+        <v>266.2428124045995</v>
       </c>
       <c r="E23" t="n">
-        <v>2.086119403962737e-52</v>
+        <v>1.380696442835292e-54</v>
       </c>
       <c r="F23" t="n">
-        <v>42.6753536465037</v>
+        <v>44.37380206743325</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>6.361940184801176e-05</v>
+        <v>52453079856036.89</v>
       </c>
       <c r="C24" t="n">
-        <v>2.7099695744817e-06</v>
+        <v>2313485415516.63</v>
       </c>
       <c r="D24" t="n">
-        <v>289.8356709604013</v>
+        <v>344.8120161945214</v>
       </c>
       <c r="E24" t="n">
-        <v>1.230809614436031e-59</v>
+        <v>2.005094126161269e-71</v>
       </c>
       <c r="F24" t="n">
-        <v>48.30594516006689</v>
+        <v>57.46866936575358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>5.72435162290436e-05</v>
+        <v>51815683985420.75</v>
       </c>
       <c r="C25" t="n">
-        <v>2.374711252817241e-06</v>
+        <v>2136925481443.521</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4672311576783</v>
+        <v>389.5071161045441</v>
       </c>
       <c r="E25" t="n">
-        <v>1.000104523547521e-79</v>
+        <v>5.035064911712973e-81</v>
       </c>
       <c r="F25" t="n">
-        <v>63.91120519294638</v>
+        <v>64.91785268409069</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>6.026980902807385e-05</v>
+        <v>54699380277904.54</v>
       </c>
       <c r="C26" t="n">
-        <v>2.498517193962032e-06</v>
+        <v>2307130994627.455</v>
       </c>
       <c r="D26" t="n">
-        <v>293.6585136384362</v>
+        <v>301.8128579841371</v>
       </c>
       <c r="E26" t="n">
-        <v>1.867990423839078e-60</v>
+        <v>3.344350127873278e-62</v>
       </c>
       <c r="F26" t="n">
-        <v>48.94308560640604</v>
+        <v>50.30214299735618</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>4.537838572984105e-05</v>
+        <v>46720022792619.96</v>
       </c>
       <c r="C27" t="n">
-        <v>2.295621192330294e-06</v>
+        <v>2188792163518.62</v>
       </c>
       <c r="D27" t="n">
-        <v>383.0905584473049</v>
+        <v>346.6498615962109</v>
       </c>
       <c r="E27" t="n">
-        <v>1.205007270933029e-79</v>
+        <v>8.084297298958433e-72</v>
       </c>
       <c r="F27" t="n">
-        <v>63.84842640788415</v>
+        <v>57.77497693270183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>5.982454247625997e-05</v>
+        <v>48442815933500.4</v>
       </c>
       <c r="C28" t="n">
-        <v>2.560791162034382e-06</v>
+        <v>2200150756677.222</v>
       </c>
       <c r="D28" t="n">
-        <v>268.6591245970872</v>
+        <v>315.2738864282472</v>
       </c>
       <c r="E28" t="n">
-        <v>4.199440274185179e-55</v>
+        <v>4.354530583099623e-65</v>
       </c>
       <c r="F28" t="n">
-        <v>44.7765207661812</v>
+        <v>52.5456477380412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>5.795832258902599e-05</v>
+        <v>53438814808364.92</v>
       </c>
       <c r="C29" t="n">
-        <v>2.389533770125165e-06</v>
+        <v>2186308987119.1</v>
       </c>
       <c r="D29" t="n">
-        <v>318.0704112632583</v>
+        <v>320.3157852143007</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0947269040098e-65</v>
+        <v>3.612442079773538e-66</v>
       </c>
       <c r="F29" t="n">
-        <v>53.01173521054306</v>
+        <v>53.38596420238346</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>4.727774584476918e-05</v>
+        <v>43615754191419.98</v>
       </c>
       <c r="C30" t="n">
-        <v>2.110349908847632e-06</v>
+        <v>1942824056803.315</v>
       </c>
       <c r="D30" t="n">
-        <v>354.1478496925123</v>
+        <v>368.0558731595696</v>
       </c>
       <c r="E30" t="n">
-        <v>1.985893306013769e-73</v>
+        <v>2.047104101022915e-76</v>
       </c>
       <c r="F30" t="n">
-        <v>59.02464161541872</v>
+        <v>61.34264552659494</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>3.601454368053783e-05</v>
+        <v>36312847376592.86</v>
       </c>
       <c r="C31" t="n">
-        <v>1.907075014132979e-06</v>
+        <v>1808338953355.704</v>
       </c>
       <c r="D31" t="n">
-        <v>405.9078089164555</v>
+        <v>379.8632192788141</v>
       </c>
       <c r="E31" t="n">
-        <v>1.500664833207978e-84</v>
+        <v>5.949597414134793e-79</v>
       </c>
       <c r="F31" t="n">
-        <v>67.65130148607592</v>
+        <v>63.31053654646902</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>3.377719522731606e-05</v>
+        <v>35588654108479.7</v>
       </c>
       <c r="C32" t="n">
-        <v>1.860976968886704e-06</v>
+        <v>1859231482214.394</v>
       </c>
       <c r="D32" t="n">
-        <v>389.6074575066821</v>
+        <v>347.3303756666133</v>
       </c>
       <c r="E32" t="n">
-        <v>4.791139279300041e-81</v>
+        <v>5.775162055429904e-72</v>
       </c>
       <c r="F32" t="n">
-        <v>64.93457625111368</v>
+        <v>57.88839594443556</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>3.225767856296599e-05</v>
+        <v>32884788646057.43</v>
       </c>
       <c r="C33" t="n">
-        <v>1.773820249587103e-06</v>
+        <v>1752765409293.176</v>
       </c>
       <c r="D33" t="n">
-        <v>405.7970442060355</v>
+        <v>368.5188521864163</v>
       </c>
       <c r="E33" t="n">
-        <v>1.585258427202876e-84</v>
+        <v>1.628138311573008e-76</v>
       </c>
       <c r="F33" t="n">
-        <v>67.63284070100592</v>
+        <v>61.41980869773604</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>3.461795156544419e-05</v>
+        <v>31470638441439.69</v>
       </c>
       <c r="C34" t="n">
-        <v>1.974174444686963e-06</v>
+        <v>1805957513738.285</v>
       </c>
       <c r="D34" t="n">
-        <v>308.5355446866692</v>
+        <v>315.984476704221</v>
       </c>
       <c r="E34" t="n">
-        <v>1.21201612685371e-63</v>
+        <v>3.066067640496558e-65</v>
       </c>
       <c r="F34" t="n">
-        <v>51.42259078111153</v>
+        <v>52.6640794507035</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>3.296298408672814e-05</v>
+        <v>31486687032889.37</v>
       </c>
       <c r="C35" t="n">
-        <v>1.76556293676989e-06</v>
+        <v>1616523995580.236</v>
       </c>
       <c r="D35" t="n">
-        <v>356.1315740557641</v>
+        <v>343.696511168997</v>
       </c>
       <c r="E35" t="n">
-        <v>7.44766370783105e-74</v>
+        <v>3.47988920814331e-71</v>
       </c>
       <c r="F35" t="n">
-        <v>59.35526234262735</v>
+        <v>57.2827518614995</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>3.365074502425323e-05</v>
+        <v>31249313549839.68</v>
       </c>
       <c r="C36" t="n">
-        <v>1.67597704444132e-06</v>
+        <v>1545318145690.39</v>
       </c>
       <c r="D36" t="n">
-        <v>297.2920722377835</v>
+        <v>299.2185598048573</v>
       </c>
       <c r="E36" t="n">
-        <v>3.111476958323545e-61</v>
+        <v>1.202840135859692e-61</v>
       </c>
       <c r="F36" t="n">
-        <v>49.54867870629725</v>
+        <v>49.86975996747621</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>2.74921983774511e-05</v>
+        <v>27414005179144.72</v>
       </c>
       <c r="C37" t="n">
-        <v>1.330802640605723e-06</v>
+        <v>1267476421223.811</v>
       </c>
       <c r="D37" t="n">
-        <v>352.2437535323265</v>
+        <v>341.2243673799525</v>
       </c>
       <c r="E37" t="n">
-        <v>5.090600736917845e-73</v>
+        <v>1.180731266126331e-70</v>
       </c>
       <c r="F37" t="n">
-        <v>58.70729225538776</v>
+        <v>56.87072789665874</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>3.1593428798026e-05</v>
+        <v>23193459818258.67</v>
       </c>
       <c r="C38" t="n">
-        <v>1.269496833046333e-06</v>
+        <v>1052867538336.809</v>
       </c>
       <c r="D38" t="n">
-        <v>262.4396715723532</v>
+        <v>376.2756729526371</v>
       </c>
       <c r="E38" t="n">
-        <v>8.985401228262416e-54</v>
+        <v>3.510061770566406e-78</v>
       </c>
       <c r="F38" t="n">
-        <v>43.73994526205886</v>
+        <v>62.71261215877285</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>2.69554314652348e-05</v>
+        <v>24243738981981.62</v>
       </c>
       <c r="C39" t="n">
-        <v>9.850375769883659e-07</v>
+        <v>890884368234.4594</v>
       </c>
       <c r="D39" t="n">
-        <v>264.9917906910974</v>
+        <v>291.3833828359311</v>
       </c>
       <c r="E39" t="n">
-        <v>2.55678361679179e-54</v>
+        <v>5.737247385630681e-60</v>
       </c>
       <c r="F39" t="n">
-        <v>44.16529844851623</v>
+        <v>48.56389713932185</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>2.48823316230479e-05</v>
+        <v>18834920292275.8</v>
       </c>
       <c r="C40" t="n">
-        <v>1.130819528139811e-06</v>
+        <v>951605619151.511</v>
       </c>
       <c r="D40" t="n">
-        <v>310.1808217259302</v>
+        <v>382.8104459124565</v>
       </c>
       <c r="E40" t="n">
-        <v>5.380599199916554e-64</v>
+        <v>1.384150494910252e-79</v>
       </c>
       <c r="F40" t="n">
-        <v>51.69680362098837</v>
+        <v>63.80174098540942</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>2.782496425026295e-05</v>
+        <v>25683710914184.29</v>
       </c>
       <c r="C41" t="n">
-        <v>9.573451566835851e-07</v>
+        <v>857138107525.2513</v>
       </c>
       <c r="D41" t="n">
-        <v>127.8261325450146</v>
+        <v>136.2830353215105</v>
       </c>
       <c r="E41" t="n">
-        <v>3.686763710205646e-25</v>
+        <v>6.096120579079324e-27</v>
       </c>
       <c r="F41" t="n">
-        <v>21.3043554241691</v>
+        <v>22.71383922025176</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>3.1563005216044e-05</v>
+        <v>30186294681696.82</v>
       </c>
       <c r="C42" t="n">
-        <v>8.672793936510641e-07</v>
+        <v>829247848622.2267</v>
       </c>
       <c r="D42" t="n">
-        <v>136.0120667482491</v>
+        <v>107.8013783705795</v>
       </c>
       <c r="E42" t="n">
-        <v>6.953289237809462e-27</v>
+        <v>5.881631041043013e-21</v>
       </c>
       <c r="F42" t="n">
-        <v>22.66867779137485</v>
+        <v>17.96689639509659</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>3.064721353599257e-05</v>
+        <v>28380730355299.6</v>
       </c>
       <c r="C43" t="n">
-        <v>8.02466339939591e-07</v>
+        <v>742096652414.4877</v>
       </c>
       <c r="D43" t="n">
-        <v>138.2177960991821</v>
+        <v>134.6557635209313</v>
       </c>
       <c r="E43" t="n">
-        <v>2.382273175063792e-27</v>
+        <v>1.343171303995975e-26</v>
       </c>
       <c r="F43" t="n">
-        <v>23.03629934986368</v>
+        <v>22.44262725348855</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>2.865868654018799e-05</v>
+        <v>26581393118347</v>
       </c>
       <c r="C44" t="n">
-        <v>7.290756767667376e-07</v>
+        <v>675127749931.0834</v>
       </c>
       <c r="D44" t="n">
-        <v>104.8344901189413</v>
+        <v>119.535384997869</v>
       </c>
       <c r="E44" t="n">
-        <v>2.454510340403427e-20</v>
+        <v>2.040112136251396e-23</v>
       </c>
       <c r="F44" t="n">
-        <v>17.47241501982356</v>
+        <v>19.92256416631149</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>2.718627606452202e-05</v>
+        <v>25319237876842.75</v>
       </c>
       <c r="C45" t="n">
-        <v>6.953973421865405e-07</v>
+        <v>644727718254.1394</v>
       </c>
       <c r="D45" t="n">
-        <v>68.20526069705222</v>
+        <v>70.09415353074273</v>
       </c>
       <c r="E45" t="n">
-        <v>9.53712467729333e-13</v>
+        <v>3.91103913481722e-13</v>
       </c>
       <c r="F45" t="n">
-        <v>11.3675434495087</v>
+        <v>11.68235892179045</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>2.684995785185242e-05</v>
+        <v>24830212746489.52</v>
       </c>
       <c r="C46" t="n">
-        <v>6.58711327997494e-07</v>
+        <v>609325895576.7059</v>
       </c>
       <c r="D46" t="n">
-        <v>83.78776893650584</v>
+        <v>74.04063764454736</v>
       </c>
       <c r="E46" t="n">
-        <v>5.884558571138238e-16</v>
+        <v>6.047580568556451e-14</v>
       </c>
       <c r="F46" t="n">
-        <v>13.96462815608431</v>
+        <v>12.34010627409123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>2.299285156422333e-05</v>
+        <v>20925387225929.01</v>
       </c>
       <c r="C47" t="n">
-        <v>5.864599807112076e-07</v>
+        <v>537458332307.3736</v>
       </c>
       <c r="D47" t="n">
-        <v>45.74720821385301</v>
+        <v>50.77837342731128</v>
       </c>
       <c r="E47" t="n">
-        <v>3.324200845329717e-08</v>
+        <v>3.28141770287239e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>7.624534702308836</v>
+        <v>8.463062237885213</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>2.2501438980619e-05</v>
+        <v>21448648830768.46</v>
       </c>
       <c r="C48" t="n">
-        <v>5.944347155441889e-07</v>
+        <v>559746506855.5459</v>
       </c>
       <c r="D48" t="n">
-        <v>41.030890931368</v>
+        <v>51.68652390965182</v>
       </c>
       <c r="E48" t="n">
-        <v>2.855374601232693e-07</v>
+        <v>2.156040038637096e-09</v>
       </c>
       <c r="F48" t="n">
-        <v>6.838481821894667</v>
+        <v>8.614420651608636</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>2.494450905554093e-05</v>
+        <v>22977982861401.61</v>
       </c>
       <c r="C49" t="n">
-        <v>6.675121278785471e-07</v>
+        <v>613542931437.9895</v>
       </c>
       <c r="D49" t="n">
-        <v>39.35291845070275</v>
+        <v>46.31678993201164</v>
       </c>
       <c r="E49" t="n">
-        <v>6.103224529021546e-07</v>
+        <v>2.560274363209463e-08</v>
       </c>
       <c r="F49" t="n">
-        <v>6.558819741783792</v>
+        <v>7.719464988668608</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>2.635862949458369e-05</v>
+        <v>24223247214076.59</v>
       </c>
       <c r="C50" t="n">
-        <v>7.559766461281406e-07</v>
+        <v>704791350457.9525</v>
       </c>
       <c r="D50" t="n">
-        <v>32.91605107928164</v>
+        <v>37.01288677911746</v>
       </c>
       <c r="E50" t="n">
-        <v>1.088311398137316e-05</v>
+        <v>1.750732609841045e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>5.486008513213606</v>
+        <v>6.168814463186243</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>2.570404617975383e-05</v>
+        <v>23863641346178.11</v>
       </c>
       <c r="C51" t="n">
-        <v>7.26379740807557e-07</v>
+        <v>675256314721.7034</v>
       </c>
       <c r="D51" t="n">
-        <v>57.96656648399366</v>
+        <v>45.53202177536365</v>
       </c>
       <c r="E51" t="n">
-        <v>1.163941676298326e-10</v>
+        <v>3.668579271186532e-08</v>
       </c>
       <c r="F51" t="n">
-        <v>9.661094413998944</v>
+        <v>7.588670295893941</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>2.141099085623116e-05</v>
+        <v>20434076741383.18</v>
       </c>
       <c r="C52" t="n">
-        <v>9.963568313577343e-07</v>
+        <v>939355614349.2607</v>
       </c>
       <c r="D52" t="n">
-        <v>44.40193948199288</v>
+        <v>33.71117332863358</v>
       </c>
       <c r="E52" t="n">
-        <v>6.152189316008808e-08</v>
+        <v>7.648742278978219e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>7.400323246998814</v>
+        <v>5.618528888105597</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>2.40263786055546e-05</v>
+        <v>20106757676643.27</v>
       </c>
       <c r="C53" t="n">
-        <v>1.184279267662588e-06</v>
+        <v>1033759667214.517</v>
       </c>
       <c r="D53" t="n">
-        <v>21.14201803021473</v>
+        <v>55.97618128892915</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001729869095694515</v>
+        <v>2.943421239385448e-10</v>
       </c>
       <c r="F53" t="n">
-        <v>3.523669671702455</v>
+        <v>9.329363548154857</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>1.487280217044218e-05</v>
+        <v>13494657021407.64</v>
       </c>
       <c r="C54" t="n">
-        <v>1.694123518120253e-06</v>
+        <v>1639075150019.723</v>
       </c>
       <c r="D54" t="n">
-        <v>4.351549862354621</v>
+        <v>4.163086702239944</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6292164418194621</v>
+        <v>0.6546170119041275</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7252583103924368</v>
+        <v>0.6938477837066573</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>1.04513686061785e-05</v>
+        <v>13366098716234.98</v>
       </c>
       <c r="C55" t="n">
-        <v>1.660406428993724e-06</v>
+        <v>1954179567124.811</v>
       </c>
       <c r="D55" t="n">
-        <v>8.954826798719365</v>
+        <v>2.493394253082035</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1761345644857796</v>
+        <v>0.8692062200642307</v>
       </c>
       <c r="F55" t="n">
-        <v>1.492471133119894</v>
+        <v>0.4155657088470059</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>1.423189609285851e-05</v>
+        <v>13316059602759.59</v>
       </c>
       <c r="C56" t="n">
-        <v>1.882002670922783e-06</v>
+        <v>1692404158165.171</v>
       </c>
       <c r="D56" t="n">
-        <v>9.26294513099125</v>
+        <v>9.800134032493705</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1593212904201917</v>
+        <v>0.1333250790039069</v>
       </c>
       <c r="F56" t="n">
-        <v>1.543824188498542</v>
+        <v>1.633355672082284</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>2.074475801125541e-05</v>
+        <v>15491583524783.96</v>
       </c>
       <c r="C57" t="n">
-        <v>2.040297562103327e-06</v>
+        <v>1712593758673.926</v>
       </c>
       <c r="D57" t="n">
-        <v>13.25638668855321</v>
+        <v>28.93304220983492</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03914043617109154</v>
+        <v>6.263783242650776e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>2.209397781425535</v>
+        <v>4.822173701639153</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>2.623562970366563e-05</v>
+        <v>25526022324012.46</v>
       </c>
       <c r="C58" t="n">
-        <v>1.424280146431772e-06</v>
+        <v>1368106037813.958</v>
       </c>
       <c r="D58" t="n">
-        <v>53.64640102396473</v>
+        <v>38.10214604064667</v>
       </c>
       <c r="E58" t="n">
-        <v>8.693143596124842e-10</v>
+        <v>1.07287277640142e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>8.941066837327455</v>
+        <v>6.350357673441111</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>2.906243305768649e-05</v>
+        <v>28297491757410.86</v>
       </c>
       <c r="C59" t="n">
-        <v>1.368935166660122e-06</v>
+        <v>1299255535487.123</v>
       </c>
       <c r="D59" t="n">
-        <v>63.81389606764227</v>
+        <v>53.61470800127994</v>
       </c>
       <c r="E59" t="n">
-        <v>7.532421673398087e-12</v>
+        <v>8.821952293793597e-10</v>
       </c>
       <c r="F59" t="n">
-        <v>10.63564934460704</v>
+        <v>8.935784666879989</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>3.088656673968821e-05</v>
+        <v>27633488987645.19</v>
       </c>
       <c r="C60" t="n">
-        <v>1.458664813423292e-06</v>
+        <v>1288003780277.856</v>
       </c>
       <c r="D60" t="n">
-        <v>42.78420113250063</v>
+        <v>52.37103090353568</v>
       </c>
       <c r="E60" t="n">
-        <v>1.286926472216584e-07</v>
+        <v>1.57039000123754e-09</v>
       </c>
       <c r="F60" t="n">
-        <v>7.130700188750104</v>
+        <v>8.72850515058928</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>3.286921591764077e-05</v>
+        <v>28791805136983.71</v>
       </c>
       <c r="C61" t="n">
-        <v>1.108340422273018e-06</v>
+        <v>1000011055078.481</v>
       </c>
       <c r="D61" t="n">
-        <v>91.48066106941801</v>
+        <v>125.0299187255204</v>
       </c>
       <c r="E61" t="n">
-        <v>1.492035507460501e-17</v>
+        <v>1.428656452399868e-24</v>
       </c>
       <c r="F61" t="n">
-        <v>15.246776844903</v>
+        <v>20.83831978758674</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>3.507325898170244e-05</v>
+        <v>31958357106137.01</v>
       </c>
       <c r="C62" t="n">
-        <v>9.77850711285213e-07</v>
+        <v>896308226433.2899</v>
       </c>
       <c r="D62" t="n">
-        <v>135.4918602411758</v>
+        <v>165.2919918634332</v>
       </c>
       <c r="E62" t="n">
-        <v>8.95101430205868e-27</v>
+        <v>4.47942634630082e-33</v>
       </c>
       <c r="F62" t="n">
-        <v>22.58197670686264</v>
+        <v>27.5486653105722</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>3.580773942908938e-05</v>
+        <v>34241386990484.05</v>
       </c>
       <c r="C63" t="n">
-        <v>9.29252688957594e-07</v>
+        <v>879823968094.6083</v>
       </c>
       <c r="D63" t="n">
-        <v>190.4422992962394</v>
+        <v>148.8798565766567</v>
       </c>
       <c r="E63" t="n">
-        <v>2.048981984019743e-38</v>
+        <v>1.33474638282818e-29</v>
       </c>
       <c r="F63" t="n">
-        <v>31.74038321603989</v>
+        <v>24.81330942944278</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>3.880013068014715e-05</v>
+        <v>35838314350032.32</v>
       </c>
       <c r="C64" t="n">
-        <v>9.243389181764966e-07</v>
+        <v>855175303490.6671</v>
       </c>
       <c r="D64" t="n">
-        <v>195.2072081175566</v>
+        <v>198.2313074331919</v>
       </c>
       <c r="E64" t="n">
-        <v>1.986522973583685e-39</v>
+        <v>4.514772041661617e-40</v>
       </c>
       <c r="F64" t="n">
-        <v>32.53453468625944</v>
+        <v>33.03855123886532</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>4.293814649707654e-05</v>
+        <v>39224620531984.59</v>
       </c>
       <c r="C65" t="n">
-        <v>1.222659266821049e-06</v>
+        <v>1115474404377.151</v>
       </c>
       <c r="D65" t="n">
-        <v>200.959416374503</v>
+        <v>236.6863247537786</v>
       </c>
       <c r="E65" t="n">
-        <v>1.185735397310154e-40</v>
+        <v>2.862946204449303e-48</v>
       </c>
       <c r="F65" t="n">
-        <v>33.49323606241716</v>
+        <v>39.44772079229644</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>3.841148750790034e-05</v>
+        <v>41425321063496.05</v>
       </c>
       <c r="C66" t="n">
-        <v>1.602927778095294e-06</v>
+        <v>1622787062957.487</v>
       </c>
       <c r="D66" t="n">
-        <v>190.1096136888455</v>
+        <v>120.8539177787576</v>
       </c>
       <c r="E66" t="n">
-        <v>2.41144403439761e-38</v>
+        <v>1.078222307221058e-23</v>
       </c>
       <c r="F66" t="n">
-        <v>31.68493561480759</v>
+        <v>20.14231962979293</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>4.169197481710146e-05</v>
+        <v>36520246719851.12</v>
       </c>
       <c r="C67" t="n">
-        <v>2.034622411952839e-06</v>
+        <v>1809989304100.061</v>
       </c>
       <c r="D67" t="n">
-        <v>66.75472969128495</v>
+        <v>77.34979685130844</v>
       </c>
       <c r="E67" t="n">
-        <v>1.889196477994257e-12</v>
+        <v>1.258874655249319e-14</v>
       </c>
       <c r="F67" t="n">
-        <v>11.12578828188082</v>
+        <v>12.89163280855141</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>3.563146726897674e-05</v>
+        <v>30815054196137.45</v>
       </c>
       <c r="C68" t="n">
-        <v>2.587964473692905e-06</v>
+        <v>2329647233174.32</v>
       </c>
       <c r="D68" t="n">
-        <v>42.96178915840224</v>
+        <v>55.39270358858639</v>
       </c>
       <c r="E68" t="n">
-        <v>1.186920622570902e-07</v>
+        <v>3.861692562416502e-10</v>
       </c>
       <c r="F68" t="n">
-        <v>7.16029819306704</v>
+        <v>9.232117264764399</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>3.657346627657124e-05</v>
+        <v>30811143362967.94</v>
       </c>
       <c r="C69" t="n">
-        <v>2.188842970533674e-06</v>
+        <v>1867656833739.548</v>
       </c>
       <c r="D69" t="n">
-        <v>85.19330324471952</v>
+        <v>109.7532550897862</v>
       </c>
       <c r="E69" t="n">
-        <v>3.010329005492481e-16</v>
+        <v>2.295899773926312e-21</v>
       </c>
       <c r="F69" t="n">
-        <v>14.19888387411992</v>
+        <v>18.29220918163103</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>2.258946107595172e-05</v>
+        <v>17728348554977.14</v>
       </c>
       <c r="C70" t="n">
-        <v>2.907813940358911e-06</v>
+        <v>2369335448294.691</v>
       </c>
       <c r="D70" t="n">
-        <v>55.48176247309382</v>
+        <v>56.30513730749682</v>
       </c>
       <c r="E70" t="n">
-        <v>3.704963708568879e-10</v>
+        <v>2.52539404035067e-10</v>
       </c>
       <c r="F70" t="n">
-        <v>9.246960412182304</v>
+        <v>9.38418955124947</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>2.622395666472984e-05</v>
+        <v>22939753586830.61</v>
       </c>
       <c r="C71" t="n">
-        <v>4.046877256746278e-06</v>
+        <v>3711190309653.406</v>
       </c>
       <c r="D71" t="n">
-        <v>11.39423224402109</v>
+        <v>10.98580971316982</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07693007801115155</v>
+        <v>0.08881599166211193</v>
       </c>
       <c r="F71" t="n">
-        <v>1.899038707336848</v>
+        <v>1.830968285528303</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>3.429748240732618e-05</v>
+        <v>31803181973598.18</v>
       </c>
       <c r="C72" t="n">
-        <v>2.142375752836895e-06</v>
+        <v>1975296695814.354</v>
       </c>
       <c r="D72" t="n">
-        <v>31.3898594642628</v>
+        <v>36.24934215834044</v>
       </c>
       <c r="E72" t="n">
-        <v>2.135370315844029e-05</v>
+        <v>2.465466440244126e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>5.231643244043799</v>
+        <v>6.041557026390073</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>1.117011622316169e-05</v>
+        <v>10439160333251.58</v>
       </c>
       <c r="C73" t="n">
-        <v>2.378143313558249e-06</v>
+        <v>2369770882378.05</v>
       </c>
       <c r="D73" t="n">
-        <v>2.949838230820797</v>
+        <v>1.582205703427602</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8151158377761127</v>
+        <v>0.9538481316741402</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4916397051367995</v>
+        <v>0.2637009505712669</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>8.338557594968594e-06</v>
+        <v>5241406839749.497</v>
       </c>
       <c r="C74" t="n">
-        <v>2.189890415545365e-06</v>
+        <v>1773079505957.197</v>
       </c>
       <c r="D74" t="n">
-        <v>6.75709125641342</v>
+        <v>5.365167408524312</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3438966614156839</v>
+        <v>0.4979004451676995</v>
       </c>
       <c r="F74" t="n">
-        <v>1.126181876068903</v>
+        <v>0.8941945680873853</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>6.616326147370981e-07</v>
+        <v>6768822195890.185</v>
       </c>
       <c r="C75" t="n">
-        <v>3.766763643347769e-07</v>
+        <v>1642574256606.598</v>
       </c>
       <c r="D75" t="n">
-        <v>25.05782742694987</v>
+        <v>15.3184197042597</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0003331379393826738</v>
+        <v>0.0179195733953353</v>
       </c>
       <c r="F75" t="n">
-        <v>4.176304571158313</v>
+        <v>2.553069950709951</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>2.751306306254002e-05</v>
+        <v>21134915517824</v>
       </c>
       <c r="C76" t="n">
-        <v>2.085190186499824e-06</v>
+        <v>1684948909462.988</v>
       </c>
       <c r="D76" t="n">
-        <v>56.22646802744418</v>
+        <v>85.37673446248455</v>
       </c>
       <c r="E76" t="n">
-        <v>2.61963387356319e-10</v>
+        <v>2.758079499925806e-16</v>
       </c>
       <c r="F76" t="n">
-        <v>9.371078004574029</v>
+        <v>14.22945574374742</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>4.221043133503095e-05</v>
+        <v>46250859840293.06</v>
       </c>
       <c r="C77" t="n">
-        <v>2.406850391133133e-06</v>
+        <v>2393913879735.475</v>
       </c>
       <c r="D77" t="n">
-        <v>335.0044108372686</v>
+        <v>293.6574628909817</v>
       </c>
       <c r="E77" t="n">
-        <v>2.552189742481932e-69</v>
+        <v>1.868958791042305e-60</v>
       </c>
       <c r="F77" t="n">
-        <v>55.83406847287809</v>
+        <v>48.94291048183027</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>1.990792463894994e-05</v>
+        <v>37967551700728.12</v>
       </c>
       <c r="C78" t="n">
-        <v>2.093989229464893e-06</v>
+        <v>2937503501389.395</v>
       </c>
       <c r="D78" t="n">
-        <v>826.0436315872134</v>
+        <v>780.406662723452</v>
       </c>
       <c r="E78" t="n">
-        <v>3.630140921171423e-175</v>
+        <v>2.634051733261205e-165</v>
       </c>
       <c r="F78" t="n">
-        <v>137.6739385978689</v>
+        <v>130.0677771205753</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>4.339234149632837e-05</v>
+        <v>6772827908172.797</v>
       </c>
       <c r="C79" t="n">
-        <v>3.873171575909427e-06</v>
+        <v>1358687351142.431</v>
       </c>
       <c r="D79" t="n">
-        <v>642.7549366467902</v>
+        <v>743.428795639438</v>
       </c>
       <c r="E79" t="n">
-        <v>1.390728782949956e-135</v>
+        <v>2.5598449034825e-157</v>
       </c>
       <c r="F79" t="n">
-        <v>107.125822774465</v>
+        <v>123.9047992732397</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>4.977877093761837e-05</v>
+        <v>49727825616866.11</v>
       </c>
       <c r="C80" t="n">
-        <v>3.245422720037766e-06</v>
+        <v>3152531242372.66</v>
       </c>
       <c r="D80" t="n">
-        <v>692.106304850694</v>
+        <v>667.7655418851906</v>
       </c>
       <c r="E80" t="n">
-        <v>3.095929438055793e-146</v>
+        <v>5.563069209592108e-141</v>
       </c>
       <c r="F80" t="n">
-        <v>115.351050808449</v>
+        <v>111.2942569808651</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>5.090956824757251e-05</v>
+        <v>52058375052169.63</v>
       </c>
       <c r="C81" t="n">
-        <v>2.664112206549806e-06</v>
+        <v>2650402491718.974</v>
       </c>
       <c r="D81" t="n">
-        <v>423.1039872234593</v>
+        <v>392.5391442528889</v>
       </c>
       <c r="E81" t="n">
-        <v>3.006398329261241e-88</v>
+        <v>1.122817646153582e-81</v>
       </c>
       <c r="F81" t="n">
-        <v>70.51733120390989</v>
+        <v>65.42319070881481</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>7.894016023936334e-05</v>
+        <v>80409496764550.09</v>
       </c>
       <c r="C82" t="n">
-        <v>2.714620858043787e-06</v>
+        <v>2689021293818.485</v>
       </c>
       <c r="D82" t="n">
-        <v>280.6351948904195</v>
+        <v>224.7309760986949</v>
       </c>
       <c r="E82" t="n">
-        <v>1.148751143543482e-57</v>
+        <v>1.01918753530379e-45</v>
       </c>
       <c r="F82" t="n">
-        <v>46.77253248173659</v>
+        <v>37.45516268311582</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>8.797471233958743e-05</v>
+        <v>77885167031953.75</v>
       </c>
       <c r="C83" t="n">
-        <v>2.771142281538789e-06</v>
+        <v>2487027585611.257</v>
       </c>
       <c r="D83" t="n">
-        <v>350.1479195042042</v>
+        <v>381.997229099646</v>
       </c>
       <c r="E83" t="n">
-        <v>1.434563014890395e-72</v>
+        <v>2.069824984469001e-79</v>
       </c>
       <c r="F83" t="n">
-        <v>58.35798658403403</v>
+        <v>63.666204849941</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>8.186225653596108e-05</v>
+        <v>77443124844820.58</v>
       </c>
       <c r="C84" t="n">
-        <v>2.213549935762317e-06</v>
+        <v>2076208111343.72</v>
       </c>
       <c r="D84" t="n">
-        <v>446.1533025440461</v>
+        <v>431.6673088998286</v>
       </c>
       <c r="E84" t="n">
-        <v>3.302274537642251e-93</v>
+        <v>4.323818778065591e-90</v>
       </c>
       <c r="F84" t="n">
-        <v>74.35888375734102</v>
+        <v>71.94455148330476</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>7.314930194463682e-05</v>
+        <v>67080877244360.41</v>
       </c>
       <c r="C85" t="n">
-        <v>1.815157940090635e-06</v>
+        <v>1671662213811.857</v>
       </c>
       <c r="D85" t="n">
-        <v>253.2494562370975</v>
+        <v>266.7126095908271</v>
       </c>
       <c r="E85" t="n">
-        <v>8.28792156388751e-52</v>
+        <v>1.095475992397678e-54</v>
       </c>
       <c r="F85" t="n">
-        <v>42.20824270618292</v>
+        <v>44.45210159847119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>5.352797722524897e-05</v>
+        <v>49425970074692.19</v>
       </c>
       <c r="C86" t="n">
-        <v>1.352247554625101e-06</v>
+        <v>1254894022850.116</v>
       </c>
       <c r="D86" t="n">
-        <v>257.5574960036093</v>
+        <v>272.6449635863532</v>
       </c>
       <c r="E86" t="n">
-        <v>9.942676422418667e-53</v>
+        <v>5.893519426305522e-56</v>
       </c>
       <c r="F86" t="n">
-        <v>42.92624933393489</v>
+        <v>45.4408272643922</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>4.965428553320409e-05</v>
+        <v>46266907739483.84</v>
       </c>
       <c r="C87" t="n">
-        <v>1.151049302056579e-06</v>
+        <v>1071823829456.147</v>
       </c>
       <c r="D87" t="n">
-        <v>220.0930385456652</v>
+        <v>221.0866474491663</v>
       </c>
       <c r="E87" t="n">
-        <v>9.940747653004252e-45</v>
+        <v>6.102904393114431e-45</v>
       </c>
       <c r="F87" t="n">
-        <v>36.6821730909442</v>
+        <v>36.84777457486106</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>5.355801274838341e-05</v>
+        <v>50718157172523.55</v>
       </c>
       <c r="C88" t="n">
-        <v>1.294884041741794e-06</v>
+        <v>1219622007035.589</v>
       </c>
       <c r="D88" t="n">
-        <v>232.6874271122625</v>
+        <v>221.622244188724</v>
       </c>
       <c r="E88" t="n">
-        <v>2.04403533029364e-47</v>
+        <v>4.691545087777407e-45</v>
       </c>
       <c r="F88" t="n">
-        <v>38.78123785204374</v>
+        <v>36.93704069812068</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>7.645498886564879e-05</v>
+        <v>71264704704884.3</v>
       </c>
       <c r="C89" t="n">
-        <v>1.832018843594331e-06</v>
+        <v>1707092133052.083</v>
       </c>
       <c r="D89" t="n">
-        <v>333.4435925807475</v>
+        <v>331.5478663100024</v>
       </c>
       <c r="E89" t="n">
-        <v>5.518338166118649e-69</v>
+        <v>1.407788937871428e-68</v>
       </c>
       <c r="F89" t="n">
-        <v>55.57393209679125</v>
+        <v>55.25797771833373</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001277274525455255</v>
+        <v>118053455096362.1</v>
       </c>
       <c r="C90" t="n">
-        <v>3.158032563299902e-06</v>
+        <v>2922725027852.931</v>
       </c>
       <c r="D90" t="n">
-        <v>469.8918391047388</v>
+        <v>468.6327163973277</v>
       </c>
       <c r="E90" t="n">
-        <v>2.563812970105923e-98</v>
+        <v>4.786088213855419e-98</v>
       </c>
       <c r="F90" t="n">
-        <v>78.31530651745646</v>
+        <v>78.10545273288795</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001376931768088339</v>
+        <v>127232960535828.2</v>
       </c>
       <c r="C91" t="n">
-        <v>3.345002856506742e-06</v>
+        <v>3101903228616.529</v>
       </c>
       <c r="D91" t="n">
-        <v>427.0446589624187</v>
+        <v>433.956682320225</v>
       </c>
       <c r="E91" t="n">
-        <v>4.269283482294701e-89</v>
+        <v>1.390943766573273e-90</v>
       </c>
       <c r="F91" t="n">
-        <v>71.17410982706978</v>
+        <v>72.3261137200375</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001432099642168839</v>
+        <v>130929021544222.2</v>
       </c>
       <c r="C92" t="n">
-        <v>3.506408239920021e-06</v>
+        <v>3216375142748.514</v>
       </c>
       <c r="D92" t="n">
-        <v>376.94988286092</v>
+        <v>388.4221403998681</v>
       </c>
       <c r="E92" t="n">
-        <v>2.514540436585e-78</v>
+        <v>8.613787888181331e-81</v>
       </c>
       <c r="F92" t="n">
-        <v>62.82498047682</v>
+        <v>64.73702339997801</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001346939318868997</v>
+        <v>123998434263570.2</v>
       </c>
       <c r="C93" t="n">
-        <v>3.46503224884499e-06</v>
+        <v>3194553864806.679</v>
       </c>
       <c r="D93" t="n">
-        <v>223.5378718451053</v>
+        <v>236.6213039796292</v>
       </c>
       <c r="E93" t="n">
-        <v>1.831264176557493e-45</v>
+        <v>2.9559401773773e-48</v>
       </c>
       <c r="F93" t="n">
-        <v>37.25631197418421</v>
+        <v>39.43688399660487</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001095366237283984</v>
+        <v>101352798731734.3</v>
       </c>
       <c r="C94" t="n">
-        <v>3.791557751237499e-06</v>
+        <v>3470003855153.48</v>
       </c>
       <c r="D94" t="n">
-        <v>115.7112395145354</v>
+        <v>110.0572536251656</v>
       </c>
       <c r="E94" t="n">
-        <v>1.295074723997961e-22</v>
+        <v>1.982893154192749e-21</v>
       </c>
       <c r="F94" t="n">
-        <v>19.2852065857559</v>
+        <v>18.34287560419427</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001841253025807697</v>
+        <v>171444290287122.4</v>
       </c>
       <c r="C95" t="n">
-        <v>5.051732747563067e-06</v>
+        <v>4678424384571.93</v>
       </c>
       <c r="D95" t="n">
-        <v>112.7768064647429</v>
+        <v>112.6462392182176</v>
       </c>
       <c r="E95" t="n">
-        <v>5.340448931670493e-22</v>
+        <v>5.687766206179178e-22</v>
       </c>
       <c r="F95" t="n">
-        <v>18.79613441079048</v>
+        <v>18.77437320303627</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0003707881700146508</v>
+        <v>343755692926333.8</v>
       </c>
       <c r="C96" t="n">
-        <v>8.28579044087029e-06</v>
+        <v>7685190821602.104</v>
       </c>
       <c r="D96" t="n">
-        <v>163.281203938297</v>
+        <v>165.4794669718243</v>
       </c>
       <c r="E96" t="n">
-        <v>1.194971645739185e-32</v>
+        <v>4.087760044909591e-33</v>
       </c>
       <c r="F96" t="n">
-        <v>27.21353398971617</v>
+        <v>27.57991116197072</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0003251665857810526</v>
+        <v>301314846724447.2</v>
       </c>
       <c r="C97" t="n">
-        <v>7.198519668699374e-06</v>
+        <v>6674805726010.587</v>
       </c>
       <c r="D97" t="n">
-        <v>187.1291689799503</v>
+        <v>187.0060889160328</v>
       </c>
       <c r="E97" t="n">
-        <v>1.037272487252345e-37</v>
+        <v>1.101676233546306e-37</v>
       </c>
       <c r="F97" t="n">
-        <v>31.18819482999172</v>
+        <v>31.16768148600546</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002142849623370759</v>
+        <v>198120241891229.6</v>
       </c>
       <c r="C98" t="n">
-        <v>4.700727728027882e-06</v>
+        <v>4357431187914.253</v>
       </c>
       <c r="D98" t="n">
-        <v>195.1897734161941</v>
+        <v>202.7937887482606</v>
       </c>
       <c r="E98" t="n">
-        <v>2.003561618492886e-39</v>
+        <v>4.824732989375731e-41</v>
       </c>
       <c r="F98" t="n">
-        <v>32.53162890269902</v>
+        <v>33.79896479137676</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001399925474727176</v>
+        <v>130579000794986.2</v>
       </c>
       <c r="C99" t="n">
-        <v>3.066038525893064e-06</v>
+        <v>2851695533398.519</v>
       </c>
       <c r="D99" t="n">
-        <v>159.9419154735986</v>
+        <v>154.684804194551</v>
       </c>
       <c r="E99" t="n">
-        <v>6.091849071180317e-32</v>
+        <v>7.900527300220537e-31</v>
       </c>
       <c r="F99" t="n">
-        <v>26.65698591226643</v>
+        <v>25.78080069909184</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>7.107254471755605e-05</v>
+        <v>66246876042160.93</v>
       </c>
       <c r="C100" t="n">
-        <v>1.603063208123276e-06</v>
+        <v>1492766737622.055</v>
       </c>
       <c r="D100" t="n">
-        <v>118.8464376970617</v>
+        <v>115.676191400347</v>
       </c>
       <c r="E100" t="n">
-        <v>2.846561773151751e-23</v>
+        <v>1.317185209478642e-22</v>
       </c>
       <c r="F100" t="n">
-        <v>19.80773961617696</v>
+        <v>19.27936523339116</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>5.187188266572854e-05</v>
+        <v>47997704948348.22</v>
       </c>
       <c r="C101" t="n">
-        <v>1.126120854563018e-06</v>
+        <v>1042597272767.827</v>
       </c>
       <c r="D101" t="n">
-        <v>78.59911467378745</v>
+        <v>76.23147062179682</v>
       </c>
       <c r="E101" t="n">
-        <v>6.954357213361641e-15</v>
+        <v>2.140440869587508e-14</v>
       </c>
       <c r="F101" t="n">
-        <v>13.09985244563124</v>
+        <v>12.7052451036328</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>5.294868978400075e-05</v>
+        <v>49535059001346.7</v>
       </c>
       <c r="C102" t="n">
-        <v>1.135351486050814e-06</v>
+        <v>1061085260202.072</v>
       </c>
       <c r="D102" t="n">
-        <v>75.30965765818404</v>
+        <v>78.68812492338319</v>
       </c>
       <c r="E102" t="n">
-        <v>3.314238003220699e-14</v>
+        <v>6.666329543969676e-15</v>
       </c>
       <c r="F102" t="n">
-        <v>12.55160960969734</v>
+        <v>13.11468748723053</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>5.691478913316367e-05</v>
+        <v>52970883364021.42</v>
       </c>
       <c r="C103" t="n">
-        <v>1.232984163741359e-06</v>
+        <v>1148947663602.637</v>
       </c>
       <c r="D103" t="n">
-        <v>78.85952614515999</v>
+        <v>92.47823565450224</v>
       </c>
       <c r="E103" t="n">
-        <v>6.144824512791863e-15</v>
+        <v>9.25495720147863e-18</v>
       </c>
       <c r="F103" t="n">
-        <v>13.14325435752666</v>
+        <v>15.41303927575037</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>5.969061395214008e-05</v>
+        <v>55488798132065.23</v>
       </c>
       <c r="C104" t="n">
-        <v>1.260257358337458e-06</v>
+        <v>1170794432825.474</v>
       </c>
       <c r="D104" t="n">
-        <v>125.0843720558675</v>
+        <v>125.4000701678321</v>
       </c>
       <c r="E104" t="n">
-        <v>1.391475546620752e-24</v>
+        <v>1.19420012413201e-24</v>
       </c>
       <c r="F104" t="n">
-        <v>20.84739534264459</v>
+        <v>20.90001169463869</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>6.447220210921222e-05</v>
+        <v>59704157609137.18</v>
       </c>
       <c r="C105" t="n">
-        <v>1.486761372334976e-06</v>
+        <v>1379067786016.003</v>
       </c>
       <c r="D105" t="n">
-        <v>102.4656416770147</v>
+        <v>101.8992068024276</v>
       </c>
       <c r="E105" t="n">
-        <v>7.671578565943764e-20</v>
+        <v>1.007311422274525e-19</v>
       </c>
       <c r="F105" t="n">
-        <v>17.07760694616912</v>
+        <v>16.98320113373794</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>6.290902030708263e-05</v>
+        <v>58891541612717.77</v>
       </c>
       <c r="C106" t="n">
-        <v>1.461610226999494e-06</v>
+        <v>1364071484288.039</v>
       </c>
       <c r="D106" t="n">
-        <v>158.3343314863804</v>
+        <v>146.4289263831254</v>
       </c>
       <c r="E106" t="n">
-        <v>1.33403555318474e-31</v>
+        <v>4.399350758537816e-29</v>
       </c>
       <c r="F106" t="n">
-        <v>26.38905524773006</v>
+        <v>24.40482106385423</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>6.590385895779303e-05</v>
+        <v>60925248117081.48</v>
       </c>
       <c r="C107" t="n">
-        <v>1.589942686985481e-06</v>
+        <v>1483675550838.655</v>
       </c>
       <c r="D107" t="n">
-        <v>83.56287966348442</v>
+        <v>92.81674467020051</v>
       </c>
       <c r="E107" t="n">
-        <v>6.550421631870104e-16</v>
+        <v>7.86997335474621e-18</v>
       </c>
       <c r="F107" t="n">
-        <v>13.92714661058074</v>
+        <v>15.46945744503342</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>6.698252932582833e-05</v>
+        <v>62019954217763.88</v>
       </c>
       <c r="C108" t="n">
-        <v>1.466040909776295e-06</v>
+        <v>1364163365357.947</v>
       </c>
       <c r="D108" t="n">
-        <v>95.15935923181867</v>
+        <v>111.6578065989124</v>
       </c>
       <c r="E108" t="n">
-        <v>2.561362071758636e-18</v>
+        <v>9.16343653100388e-22</v>
       </c>
       <c r="F108" t="n">
-        <v>15.85989320530311</v>
+        <v>18.60963443315207</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>6.724420002829087e-05</v>
+        <v>62448979657904.52</v>
       </c>
       <c r="C109" t="n">
-        <v>1.598080581353557e-06</v>
+        <v>1481364084965.249</v>
       </c>
       <c r="D109" t="n">
-        <v>149.872870991971</v>
+        <v>142.8978186894346</v>
       </c>
       <c r="E109" t="n">
-        <v>8.231240636510681e-30</v>
+        <v>2.450469914579243e-28</v>
       </c>
       <c r="F109" t="n">
-        <v>24.97881183199517</v>
+        <v>23.81630311490578</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>6.818387258597793e-05</v>
+        <v>63234923112934.5</v>
       </c>
       <c r="C110" t="n">
-        <v>1.520536526794579e-06</v>
+        <v>1408108251808.183</v>
       </c>
       <c r="D110" t="n">
-        <v>127.6702626315733</v>
+        <v>122.4717672825614</v>
       </c>
       <c r="E110" t="n">
-        <v>3.976022328646618e-25</v>
+        <v>4.928984759718847e-24</v>
       </c>
       <c r="F110" t="n">
-        <v>21.27837710526222</v>
+        <v>20.41196121376024</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>6.699887506455105e-05</v>
+        <v>62125421978107.38</v>
       </c>
       <c r="C111" t="n">
-        <v>1.518978268445046e-06</v>
+        <v>1411158895733.064</v>
       </c>
       <c r="D111" t="n">
-        <v>136.9877238759936</v>
+        <v>139.0813445833007</v>
       </c>
       <c r="E111" t="n">
-        <v>4.329587615246287e-27</v>
+        <v>1.566052143752013e-27</v>
       </c>
       <c r="F111" t="n">
-        <v>22.83128731266561</v>
+        <v>23.18022409721678</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>6.796400216309124e-05</v>
+        <v>63408483361262.88</v>
       </c>
       <c r="C112" t="n">
-        <v>1.63085220291841e-06</v>
+        <v>1519473611230.979</v>
       </c>
       <c r="D112" t="n">
-        <v>170.8743517709113</v>
+        <v>167.5125692329302</v>
       </c>
       <c r="E112" t="n">
-        <v>2.934507539429249e-34</v>
+        <v>1.515242154400305e-33</v>
       </c>
       <c r="F112" t="n">
-        <v>28.47905862848522</v>
+        <v>27.91876153882171</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>6.637205726183366e-05</v>
+        <v>61386144893006.52</v>
       </c>
       <c r="C113" t="n">
-        <v>1.539888034469436e-06</v>
+        <v>1425825791287.083</v>
       </c>
       <c r="D113" t="n">
-        <v>158.9782596860013</v>
+        <v>157.3398796143371</v>
       </c>
       <c r="E113" t="n">
-        <v>9.745879513233807e-32</v>
+        <v>2.166240389844763e-31</v>
       </c>
       <c r="F113" t="n">
-        <v>26.49637661433356</v>
+        <v>26.22331326905619</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>6.827243743360096e-05</v>
+        <v>63551511972139.66</v>
       </c>
       <c r="C114" t="n">
-        <v>1.578044948005943e-06</v>
+        <v>1459033803401.762</v>
       </c>
       <c r="D114" t="n">
-        <v>157.5704282601669</v>
+        <v>150.7247980109126</v>
       </c>
       <c r="E114" t="n">
-        <v>1.935973021589523e-31</v>
+        <v>5.436627429140783e-30</v>
       </c>
       <c r="F114" t="n">
-        <v>26.26173804336115</v>
+        <v>25.12079966848543</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>6.825194246990311e-05</v>
+        <v>63542995690574.9</v>
       </c>
       <c r="C115" t="n">
-        <v>1.602227926527086e-06</v>
+        <v>1489546384965.732</v>
       </c>
       <c r="D115" t="n">
-        <v>153.5818208515403</v>
+        <v>153.6676850904454</v>
       </c>
       <c r="E115" t="n">
-        <v>1.352168504989634e-30</v>
+        <v>1.296775475868235e-30</v>
       </c>
       <c r="F115" t="n">
-        <v>25.59697014192338</v>
+        <v>25.61128084840756</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>6.966435691111163e-05</v>
+        <v>63214843433644.38</v>
       </c>
       <c r="C116" t="n">
-        <v>1.633173705637995e-06</v>
+        <v>1499313948447.063</v>
       </c>
       <c r="D116" t="n">
-        <v>162.8770928847846</v>
+        <v>183.9068228151323</v>
       </c>
       <c r="E116" t="n">
-        <v>1.455402847262808e-32</v>
+        <v>5.019861844167682e-37</v>
       </c>
       <c r="F116" t="n">
-        <v>27.14618214746411</v>
+        <v>30.65113713585539</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>7.551728799896519e-05</v>
+        <v>70233672214589.3</v>
       </c>
       <c r="C117" t="n">
-        <v>1.817996172941247e-06</v>
+        <v>1682873418407.298</v>
       </c>
       <c r="D117" t="n">
-        <v>151.0019690491532</v>
+        <v>147.67935776703</v>
       </c>
       <c r="E117" t="n">
-        <v>4.750259085353792e-30</v>
+        <v>2.394122028456886e-29</v>
       </c>
       <c r="F117" t="n">
-        <v>25.16699484152554</v>
+        <v>24.613226294505</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>7.003720584437501e-05</v>
+        <v>65056574282911.86</v>
       </c>
       <c r="C118" t="n">
-        <v>1.581660599733528e-06</v>
+        <v>1470847491825.168</v>
       </c>
       <c r="D118" t="n">
-        <v>172.8033116217291</v>
+        <v>172.8868341139377</v>
       </c>
       <c r="E118" t="n">
-        <v>1.143678158641436e-34</v>
+        <v>1.097948612525068e-34</v>
       </c>
       <c r="F118" t="n">
-        <v>28.80055193695484</v>
+        <v>28.81447235232295</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>7.053107524043363e-05</v>
+        <v>65586130541743.75</v>
       </c>
       <c r="C119" t="n">
-        <v>1.66178648569246e-06</v>
+        <v>1545349509233.907</v>
       </c>
       <c r="D119" t="n">
-        <v>165.1775032580983</v>
+        <v>168.2188324204656</v>
       </c>
       <c r="E119" t="n">
-        <v>4.736840217150649e-33</v>
+        <v>1.073321533931082e-33</v>
       </c>
       <c r="F119" t="n">
-        <v>27.52958387634972</v>
+        <v>28.0364720700776</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>7.110075317117508e-05</v>
+        <v>66337750463862.27</v>
       </c>
       <c r="C120" t="n">
-        <v>1.626528500135267e-06</v>
+        <v>1515143770817.007</v>
       </c>
       <c r="D120" t="n">
-        <v>184.0628197836724</v>
+        <v>180.8903423466221</v>
       </c>
       <c r="E120" t="n">
-        <v>4.650995383970493e-37</v>
+        <v>2.195354887244507e-36</v>
       </c>
       <c r="F120" t="n">
-        <v>30.67713663061206</v>
+        <v>30.14839039110369</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>7.809288394687031e-05</v>
+        <v>72516732981228.88</v>
       </c>
       <c r="C121" t="n">
-        <v>1.830423315538053e-06</v>
+        <v>1697200423107.137</v>
       </c>
       <c r="D121" t="n">
-        <v>172.7938926220563</v>
+        <v>175.8796040334645</v>
       </c>
       <c r="E121" t="n">
-        <v>1.148953200870502e-34</v>
+        <v>2.543586226026569e-35</v>
       </c>
       <c r="F121" t="n">
-        <v>28.79898210367605</v>
+        <v>29.31326733891076</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>7.339869786146424e-05</v>
+        <v>68156319013758</v>
       </c>
       <c r="C122" t="n">
-        <v>1.64364480218203e-06</v>
+        <v>1527589972204.742</v>
       </c>
       <c r="D122" t="n">
-        <v>196.908567981637</v>
+        <v>200.3359908334619</v>
       </c>
       <c r="E122" t="n">
-        <v>8.631944566810402e-40</v>
+        <v>1.609500261180471e-40</v>
       </c>
       <c r="F122" t="n">
-        <v>32.81809466360616</v>
+        <v>33.38933180557698</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>7.329828027415251e-05</v>
+        <v>67903333035335.08</v>
       </c>
       <c r="C123" t="n">
-        <v>1.603762354277909e-06</v>
+        <v>1486989467802.657</v>
       </c>
       <c r="D123" t="n">
-        <v>244.3355943875325</v>
+        <v>244.8428461260284</v>
       </c>
       <c r="E123" t="n">
-        <v>6.655685504558246e-50</v>
+        <v>5.185983252409902e-50</v>
       </c>
       <c r="F123" t="n">
-        <v>40.72259906458876</v>
+        <v>40.80714102100473</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>8.456071544679883e-05</v>
+        <v>78799807108696.84</v>
       </c>
       <c r="C124" t="n">
-        <v>1.910201010050312e-06</v>
+        <v>1778705872114.751</v>
       </c>
       <c r="D124" t="n">
-        <v>157.5531290878975</v>
+        <v>155.2826473908075</v>
       </c>
       <c r="E124" t="n">
-        <v>1.952367698312276e-31</v>
+        <v>5.903959960529877e-31</v>
       </c>
       <c r="F124" t="n">
-        <v>26.25885484798292</v>
+        <v>25.88044123180126</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>8.544315868571167e-05</v>
+        <v>79538987564970.11</v>
       </c>
       <c r="C125" t="n">
-        <v>1.898630118818953e-06</v>
+        <v>1768536069523.543</v>
       </c>
       <c r="D125" t="n">
-        <v>231.1767533734831</v>
+        <v>232.3895171374569</v>
       </c>
       <c r="E125" t="n">
-        <v>4.294556265833893e-47</v>
+        <v>2.366331192314202e-47</v>
       </c>
       <c r="F125" t="n">
-        <v>38.52945889558053</v>
+        <v>38.73158618957616</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>9.825813655398586e-05</v>
+        <v>91344559843827.97</v>
       </c>
       <c r="C126" t="n">
-        <v>2.176571266827466e-06</v>
+        <v>2023830382284.591</v>
       </c>
       <c r="D126" t="n">
-        <v>184.0151628950652</v>
+        <v>185.2161298664653</v>
       </c>
       <c r="E126" t="n">
-        <v>4.760712914601389e-37</v>
+        <v>2.64529748775545e-37</v>
       </c>
       <c r="F126" t="n">
-        <v>30.66919381584421</v>
+        <v>30.86935497774422</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>9.725116915712992e-05</v>
+        <v>90407903949304.44</v>
       </c>
       <c r="C127" t="n">
-        <v>2.135972645878984e-06</v>
+        <v>1986465843578.035</v>
       </c>
       <c r="D127" t="n">
-        <v>173.9446862241008</v>
+        <v>174.1388685233096</v>
       </c>
       <c r="E127" t="n">
-        <v>6.548016188572305e-35</v>
+        <v>5.955271484380254e-35</v>
       </c>
       <c r="F127" t="n">
-        <v>28.99078103735013</v>
+        <v>29.02314475388493</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001185595542632756</v>
+        <v>110731249203320.6</v>
       </c>
       <c r="C128" t="n">
-        <v>2.677205773567619e-06</v>
+        <v>2496823986513.444</v>
       </c>
       <c r="D128" t="n">
-        <v>162.4533267180027</v>
+        <v>159.9392134844926</v>
       </c>
       <c r="E128" t="n">
-        <v>1.789649105125852e-32</v>
+        <v>6.09988116177761e-32</v>
       </c>
       <c r="F128" t="n">
-        <v>27.07555445300045</v>
+        <v>26.65653558074877</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.000199068876795997</v>
+        <v>184364021596199.8</v>
       </c>
       <c r="C129" t="n">
-        <v>4.510932572225393e-06</v>
+        <v>4180068319935.626</v>
       </c>
       <c r="D129" t="n">
-        <v>113.9860344927933</v>
+        <v>119.8295656595521</v>
       </c>
       <c r="E129" t="n">
-        <v>2.979186073335168e-22</v>
+        <v>1.769590845201303e-23</v>
       </c>
       <c r="F129" t="n">
-        <v>18.99767241546555</v>
+        <v>19.97159427659201</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002767158313346048</v>
+        <v>257225892561434.7</v>
       </c>
       <c r="C130" t="n">
-        <v>6.095372595527503e-06</v>
+        <v>5672158343889.621</v>
       </c>
       <c r="D130" t="n">
-        <v>112.5000278478834</v>
+        <v>113.9010310324923</v>
       </c>
       <c r="E130" t="n">
-        <v>6.103557334322073e-22</v>
+        <v>3.103982638510424e-22</v>
       </c>
       <c r="F130" t="n">
-        <v>18.7500046413139</v>
+        <v>18.98350517208205</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002782722513953999</v>
+        <v>258216537963258.3</v>
       </c>
       <c r="C131" t="n">
-        <v>6.312209486335294e-06</v>
+        <v>5850151773342.9</v>
       </c>
       <c r="D131" t="n">
-        <v>104.72101178372</v>
+        <v>107.3330502484403</v>
       </c>
       <c r="E131" t="n">
-        <v>2.592290103655105e-20</v>
+        <v>7.370255078818979e-21</v>
       </c>
       <c r="F131" t="n">
-        <v>17.45350196395333</v>
+        <v>17.88884170807338</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002580709770465986</v>
+        <v>238692097381457.8</v>
       </c>
       <c r="C132" t="n">
-        <v>5.771072848533795e-06</v>
+        <v>5347909632542.519</v>
       </c>
       <c r="D132" t="n">
-        <v>117.6810279905287</v>
+        <v>125.9763470100689</v>
       </c>
       <c r="E132" t="n">
-        <v>5.000015591386151e-23</v>
+        <v>9.033567802858913e-25</v>
       </c>
       <c r="F132" t="n">
-        <v>19.61350466508813</v>
+        <v>20.99605783501149</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002560445114874422</v>
+        <v>237854381140679.8</v>
       </c>
       <c r="C133" t="n">
-        <v>5.713043714232881e-06</v>
+        <v>5301036230817.587</v>
       </c>
       <c r="D133" t="n">
-        <v>105.199380121846</v>
+        <v>99.0502911997265</v>
       </c>
       <c r="E133" t="n">
-        <v>2.059162210516935e-20</v>
+        <v>3.959659069586525e-19</v>
       </c>
       <c r="F133" t="n">
-        <v>17.53323002030767</v>
+        <v>16.50838186662108</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0002506778423984182</v>
+        <v>233825663869077.1</v>
       </c>
       <c r="C134" t="n">
-        <v>5.661588250567022e-06</v>
+        <v>5271345323730.01</v>
       </c>
       <c r="D134" t="n">
-        <v>105.5041826142851</v>
+        <v>104.2998214878086</v>
       </c>
       <c r="E134" t="n">
-        <v>1.778151900848831e-20</v>
+        <v>3.174755802858162e-20</v>
       </c>
       <c r="F134" t="n">
-        <v>17.58403043571418</v>
+        <v>17.38330358130143</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002398244828179862</v>
+        <v>223945490849770.8</v>
       </c>
       <c r="C135" t="n">
-        <v>5.592195808058667e-06</v>
+        <v>5209342807616.406</v>
       </c>
       <c r="D135" t="n">
-        <v>91.35966984220497</v>
+        <v>85.03949513550275</v>
       </c>
       <c r="E135" t="n">
-        <v>1.58098463656722e-17</v>
+        <v>3.239516844043227e-16</v>
       </c>
       <c r="F135" t="n">
-        <v>15.22661164036749</v>
+        <v>14.17324918925046</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002174331586787144</v>
+        <v>202143550224494.8</v>
       </c>
       <c r="C136" t="n">
-        <v>5.029734092843324e-06</v>
+        <v>4670329085552.839</v>
       </c>
       <c r="D136" t="n">
-        <v>97.51413004337059</v>
+        <v>91.18479635663935</v>
       </c>
       <c r="E136" t="n">
-        <v>8.278098784051497e-19</v>
+        <v>1.718989403226441e-17</v>
       </c>
       <c r="F136" t="n">
-        <v>16.25235500722843</v>
+        <v>15.19746605943989</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001647934180692546</v>
+        <v>152189261508821.9</v>
       </c>
       <c r="C137" t="n">
-        <v>4.07045267950752e-06</v>
+        <v>3760318803679.239</v>
       </c>
       <c r="D137" t="n">
-        <v>117.1245216022493</v>
+        <v>118.7414415377131</v>
       </c>
       <c r="E137" t="n">
-        <v>6.542866185450254e-23</v>
+        <v>2.994783651496757e-23</v>
       </c>
       <c r="F137" t="n">
-        <v>19.52075360037488</v>
+        <v>19.79024025628552</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001120730244992835</v>
+        <v>104520913640230.7</v>
       </c>
       <c r="C138" t="n">
-        <v>2.815778750675457e-06</v>
+        <v>2608131481904.971</v>
       </c>
       <c r="D138" t="n">
-        <v>146.2280724923024</v>
+        <v>131.0068305663455</v>
       </c>
       <c r="E138" t="n">
-        <v>4.850957857489264e-29</v>
+        <v>7.888315725342769e-26</v>
       </c>
       <c r="F138" t="n">
-        <v>24.37134541538374</v>
+        <v>21.83447176105757</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002098269245040801</v>
+        <v>196172092634525.1</v>
       </c>
       <c r="C139" t="n">
-        <v>4.535419766856749e-06</v>
+        <v>4230816690540.062</v>
       </c>
       <c r="D139" t="n">
-        <v>199.818225189497</v>
+        <v>191.6318626165767</v>
       </c>
       <c r="E139" t="n">
-        <v>2.074422120447352e-40</v>
+        <v>1.144404993620582e-38</v>
       </c>
       <c r="F139" t="n">
-        <v>33.30303753158284</v>
+        <v>31.93864376942946</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002103982950147825</v>
+        <v>195444047847180.6</v>
       </c>
       <c r="C140" t="n">
-        <v>4.591783408463487e-06</v>
+        <v>4267601995438.37</v>
       </c>
       <c r="D140" t="n">
-        <v>198.284007180196</v>
+        <v>197.1245130111359</v>
       </c>
       <c r="E140" t="n">
-        <v>4.399676827416333e-40</v>
+        <v>7.765316331274552e-40</v>
       </c>
       <c r="F140" t="n">
-        <v>33.04733453003266</v>
+        <v>32.85408550185598</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>0.000204847160237582</v>
+        <v>190576567671781.8</v>
       </c>
       <c r="C141" t="n">
-        <v>4.309959948170535e-06</v>
+        <v>4008308224722.154</v>
       </c>
       <c r="D141" t="n">
-        <v>222.8496353023739</v>
+        <v>222.927549666306</v>
       </c>
       <c r="E141" t="n">
-        <v>2.567705989760771e-45</v>
+        <v>2.471310477815298e-45</v>
       </c>
       <c r="F141" t="n">
-        <v>37.14160588372898</v>
+        <v>37.154591611051</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>0.000172818288889863</v>
+        <v>160797322598729.4</v>
       </c>
       <c r="C142" t="n">
-        <v>3.789679020783988e-06</v>
+        <v>3524765339032.215</v>
       </c>
       <c r="D142" t="n">
-        <v>312.0205005805608</v>
+        <v>311.1782665476488</v>
       </c>
       <c r="E142" t="n">
-        <v>2.169965410658295e-64</v>
+        <v>3.288583938372338e-64</v>
       </c>
       <c r="F142" t="n">
-        <v>52.00341676342681</v>
+        <v>51.86304442460813</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0001735119071377689</v>
+        <v>160966346128866.6</v>
       </c>
       <c r="C143" t="n">
-        <v>3.858997486422253e-06</v>
+        <v>3582177140207.089</v>
       </c>
       <c r="D143" t="n">
-        <v>317.1671915005535</v>
+        <v>318.1365654258536</v>
       </c>
       <c r="E143" t="n">
-        <v>1.709948361407578e-65</v>
+        <v>1.059546685903709e-65</v>
       </c>
       <c r="F143" t="n">
-        <v>52.86119858342558</v>
+        <v>53.02276090430894</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002836659918840567</v>
+        <v>260567877561979</v>
       </c>
       <c r="C144" t="n">
-        <v>6.814986127273707e-06</v>
+        <v>6270465630894.198</v>
       </c>
       <c r="D144" t="n">
-        <v>379.4036635781876</v>
+        <v>391.673984675034</v>
       </c>
       <c r="E144" t="n">
-        <v>7.468492041393312e-79</v>
+        <v>1.722937523039835e-81</v>
       </c>
       <c r="F144" t="n">
-        <v>63.23394392969794</v>
+        <v>65.27899744583901</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003677094515281819</v>
+        <v>339037926080279.4</v>
       </c>
       <c r="C145" t="n">
-        <v>8.37428309917568e-06</v>
+        <v>7747856153565.212</v>
       </c>
       <c r="D145" t="n">
-        <v>410.2892083216641</v>
+        <v>424.5043027882829</v>
       </c>
       <c r="E145" t="n">
-        <v>1.714567502400793e-85</v>
+        <v>1.502547720665598e-88</v>
       </c>
       <c r="F145" t="n">
-        <v>68.38153472027736</v>
+        <v>70.75071713138048</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.00035748832171616</v>
+        <v>330273593640417.3</v>
       </c>
       <c r="C146" t="n">
-        <v>8.532202450506221e-06</v>
+        <v>7897679886633.096</v>
       </c>
       <c r="D146" t="n">
-        <v>394.6692930247383</v>
+        <v>405.2520963542283</v>
       </c>
       <c r="E146" t="n">
-        <v>3.912281977484951e-82</v>
+        <v>2.076215987435109e-84</v>
       </c>
       <c r="F146" t="n">
-        <v>65.77821550412305</v>
+        <v>67.54201605903805</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0003643660907274676</v>
+        <v>339282368141022.3</v>
       </c>
       <c r="C147" t="n">
-        <v>8.85212882620936e-06</v>
+        <v>8232759758313.16</v>
       </c>
       <c r="D147" t="n">
-        <v>386.3655383783492</v>
+        <v>386.7969803013513</v>
       </c>
       <c r="E147" t="n">
-        <v>2.383374258545094e-80</v>
+        <v>1.925174898520373e-80</v>
       </c>
       <c r="F147" t="n">
-        <v>64.39425639639154</v>
+        <v>64.46616338355855</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0003560607362985482</v>
+        <v>332745759563945.5</v>
       </c>
       <c r="C148" t="n">
-        <v>8.681819119626967e-06</v>
+        <v>8107427699902.524</v>
       </c>
       <c r="D148" t="n">
-        <v>398.4281148006119</v>
+        <v>392.5675451499966</v>
       </c>
       <c r="E148" t="n">
-        <v>6.087011545771273e-83</v>
+        <v>1.107145181951777e-81</v>
       </c>
       <c r="F148" t="n">
-        <v>66.40468580010199</v>
+        <v>65.42792419166609</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0003612416314634894</v>
+        <v>337421823501353.2</v>
       </c>
       <c r="C149" t="n">
-        <v>8.693601331924396e-06</v>
+        <v>8103749914177.44</v>
       </c>
       <c r="D149" t="n">
-        <v>370.0074664384368</v>
+        <v>368.6496388678059</v>
       </c>
       <c r="E149" t="n">
-        <v>7.796961865739443e-77</v>
+        <v>1.526152254044179e-76</v>
       </c>
       <c r="F149" t="n">
-        <v>61.66791107307279</v>
+        <v>61.44160647796766</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0006722532522763836</v>
+        <v>628066902083646.6</v>
       </c>
       <c r="C150" t="n">
-        <v>1.486144849384927e-05</v>
+        <v>13836870272684.62</v>
       </c>
       <c r="D150" t="n">
-        <v>312.1084056758832</v>
+        <v>301.2088993629984</v>
       </c>
       <c r="E150" t="n">
-        <v>2.077818296740709e-64</v>
+        <v>4.505379196139487e-62</v>
       </c>
       <c r="F150" t="n">
-        <v>52.0180676126472</v>
+        <v>50.2014832271664</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.000746205125182166</v>
+        <v>694598019101243</v>
       </c>
       <c r="C151" t="n">
-        <v>1.608053013815746e-05</v>
+        <v>14961575292024.43</v>
       </c>
       <c r="D151" t="n">
-        <v>260.8298233723819</v>
+        <v>259.0890458531948</v>
       </c>
       <c r="E151" t="n">
-        <v>1.985216805462195e-53</v>
+        <v>4.677796565210786e-53</v>
       </c>
       <c r="F151" t="n">
-        <v>43.47163722873032</v>
+        <v>43.18150764219913</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0007031623341687215</v>
+        <v>650954227592987.9</v>
       </c>
       <c r="C152" t="n">
-        <v>1.533271300462277e-05</v>
+        <v>14211222695669.19</v>
       </c>
       <c r="D152" t="n">
-        <v>261.244523460365</v>
+        <v>262.9930720972653</v>
       </c>
       <c r="E152" t="n">
-        <v>1.618550622971545e-53</v>
+        <v>6.842011434150038e-54</v>
       </c>
       <c r="F152" t="n">
-        <v>43.54075391006083</v>
+        <v>43.83217868287755</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.000671498262417073</v>
+        <v>622826500742975.1</v>
       </c>
       <c r="C153" t="n">
-        <v>1.46460536915558e-05</v>
+        <v>13586563306268.72</v>
       </c>
       <c r="D153" t="n">
-        <v>273.1085316390868</v>
+        <v>273.1735735908366</v>
       </c>
       <c r="E153" t="n">
-        <v>4.690044433527345e-56</v>
+        <v>4.542119918787667e-56</v>
       </c>
       <c r="F153" t="n">
-        <v>45.51808860651447</v>
+        <v>45.5289289318061</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006790044145425105</v>
+        <v>629184934614076</v>
       </c>
       <c r="C154" t="n">
-        <v>1.489590242802839e-05</v>
+        <v>13811577071735.38</v>
       </c>
       <c r="D154" t="n">
-        <v>269.3354902524345</v>
+        <v>271.1489746009644</v>
       </c>
       <c r="E154" t="n">
-        <v>3.009457498491988e-55</v>
+        <v>1.231631316999473e-55</v>
       </c>
       <c r="F154" t="n">
-        <v>44.88924837540574</v>
+        <v>45.19149576682739</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006440259240659011</v>
+        <v>598415889997317.1</v>
       </c>
       <c r="C155" t="n">
-        <v>1.415918887972508e-05</v>
+        <v>13151897701246.21</v>
       </c>
       <c r="D155" t="n">
-        <v>260.3711991310839</v>
+        <v>261.6808077652601</v>
       </c>
       <c r="E155" t="n">
-        <v>2.488170023455159e-53</v>
+        <v>1.305649547051629e-53</v>
       </c>
       <c r="F155" t="n">
-        <v>43.39519985518066</v>
+        <v>43.61346796087668</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0006158283826576069</v>
+        <v>569697982318499.5</v>
       </c>
       <c r="C156" t="n">
-        <v>1.338068237460376e-05</v>
+        <v>12393645566849.42</v>
       </c>
       <c r="D156" t="n">
-        <v>241.7947025563405</v>
+        <v>246.9821758184193</v>
       </c>
       <c r="E156" t="n">
-        <v>2.32239042392685e-49</v>
+        <v>1.810408196437554e-50</v>
       </c>
       <c r="F156" t="n">
-        <v>40.29911709272342</v>
+        <v>41.16369596973655</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005237796325973907</v>
+        <v>487249699606851.3</v>
       </c>
       <c r="C157" t="n">
-        <v>1.118816623985216e-05</v>
+        <v>10396606283809.42</v>
       </c>
       <c r="D157" t="n">
-        <v>198.3192600234059</v>
+        <v>198.021222298117</v>
       </c>
       <c r="E157" t="n">
-        <v>4.324327473250688e-40</v>
+        <v>5.004302025638152e-40</v>
       </c>
       <c r="F157" t="n">
-        <v>33.05321000390099</v>
+        <v>33.00353704968617</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0003873021930209292</v>
+        <v>360953736800364.6</v>
       </c>
       <c r="C158" t="n">
-        <v>8.611200435142919e-06</v>
+        <v>8004929653841.542</v>
       </c>
       <c r="D158" t="n">
-        <v>153.6727068425389</v>
+        <v>149.3910612664625</v>
       </c>
       <c r="E158" t="n">
-        <v>1.293606961984829e-30</v>
+        <v>1.040709435318109e-29</v>
       </c>
       <c r="F158" t="n">
-        <v>25.61211780708981</v>
+        <v>24.89851021107708</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002264222228791625</v>
+        <v>210435798840398.9</v>
       </c>
       <c r="C159" t="n">
-        <v>5.109222922285899e-06</v>
+        <v>4742879244399.605</v>
       </c>
       <c r="D159" t="n">
-        <v>127.0989349787005</v>
+        <v>124.8758502843775</v>
       </c>
       <c r="E159" t="n">
-        <v>5.244166748681618e-25</v>
+        <v>1.539322071578928e-24</v>
       </c>
       <c r="F159" t="n">
-        <v>21.18315582978341</v>
+        <v>20.81264171406291</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002371430508568168</v>
+        <v>221438437232198.6</v>
       </c>
       <c r="C160" t="n">
-        <v>5.617096125609214e-06</v>
+        <v>5227560504248.198</v>
       </c>
       <c r="D160" t="n">
-        <v>146.6650556143891</v>
+        <v>143.4329552122697</v>
       </c>
       <c r="E160" t="n">
-        <v>3.921879368506783e-29</v>
+        <v>1.889066779692437e-28</v>
       </c>
       <c r="F160" t="n">
-        <v>24.44417593573152</v>
+        <v>23.90549253537829</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001298015030642133</v>
+        <v>121569171069225.7</v>
       </c>
       <c r="C161" t="n">
-        <v>3.178673696060092e-06</v>
+        <v>2978255902519.95</v>
       </c>
       <c r="D161" t="n">
-        <v>88.68066155809335</v>
+        <v>84.20019468364131</v>
       </c>
       <c r="E161" t="n">
-        <v>5.693634666625908e-17</v>
+        <v>4.834151661065312e-16</v>
       </c>
       <c r="F161" t="n">
-        <v>14.78011025968222</v>
+        <v>14.03336578060689</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001145361433981079</v>
+        <v>106406994202686.9</v>
       </c>
       <c r="C162" t="n">
-        <v>2.969049787790367e-06</v>
+        <v>2737314947993.129</v>
       </c>
       <c r="D162" t="n">
-        <v>75.06910386814175</v>
+        <v>71.54089370485167</v>
       </c>
       <c r="E162" t="n">
-        <v>3.714618513200467e-14</v>
+        <v>1.97415489854508e-13</v>
       </c>
       <c r="F162" t="n">
-        <v>12.51151731135696</v>
+        <v>11.92348228414195</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001159219888612836</v>
+        <v>107753970898220.6</v>
       </c>
       <c r="C163" t="n">
-        <v>2.903158398471046e-06</v>
+        <v>2708626189072.642</v>
       </c>
       <c r="D163" t="n">
-        <v>96.80192800748418</v>
+        <v>100.9155101716117</v>
       </c>
       <c r="E163" t="n">
-        <v>1.165057033688551e-18</v>
+        <v>1.616259372197805e-19</v>
       </c>
       <c r="F163" t="n">
-        <v>16.13365466791403</v>
+        <v>16.81925169526862</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001134146818062152</v>
+        <v>105320789771666.6</v>
       </c>
       <c r="C164" t="n">
-        <v>2.862224833069223e-06</v>
+        <v>2654492193482.952</v>
       </c>
       <c r="D164" t="n">
-        <v>113.3791580646633</v>
+        <v>112.9239259176538</v>
       </c>
       <c r="E164" t="n">
-        <v>3.993225750575229e-22</v>
+        <v>4.974431779680054e-22</v>
       </c>
       <c r="F164" t="n">
-        <v>18.89652634411055</v>
+        <v>18.82065431960897</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001116497054956214</v>
+        <v>104456940899816.3</v>
       </c>
       <c r="C165" t="n">
-        <v>2.903891871633892e-06</v>
+        <v>2705039024381.283</v>
       </c>
       <c r="D165" t="n">
-        <v>140.2976729011258</v>
+        <v>132.7150130726179</v>
       </c>
       <c r="E165" t="n">
-        <v>8.672390202106296e-28</v>
+        <v>3.444600007360099e-26</v>
       </c>
       <c r="F165" t="n">
-        <v>23.38294548352096</v>
+        <v>22.11916884543632</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001190644350482431</v>
+        <v>109426120075695.7</v>
       </c>
       <c r="C166" t="n">
-        <v>3.178865389866096e-06</v>
+        <v>2930807862525.148</v>
       </c>
       <c r="D166" t="n">
-        <v>110.9178350926717</v>
+        <v>118.3718739666626</v>
       </c>
       <c r="E166" t="n">
-        <v>1.309391326137639e-21</v>
+        <v>3.580585881867978e-23</v>
       </c>
       <c r="F166" t="n">
-        <v>18.48630584877861</v>
+        <v>19.72864566111044</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001155966856645794</v>
+        <v>106617809290808.9</v>
       </c>
       <c r="C167" t="n">
-        <v>2.820204302683685e-06</v>
+        <v>2610755890445.081</v>
       </c>
       <c r="D167" t="n">
-        <v>146.3483368169211</v>
+        <v>152.2738017518469</v>
       </c>
       <c r="E167" t="n">
-        <v>4.575270211266064e-29</v>
+        <v>2.557004194959197e-30</v>
       </c>
       <c r="F167" t="n">
-        <v>24.39138946948684</v>
+        <v>25.37896695864114</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001174932871458445</v>
+        <v>109074307821905.9</v>
       </c>
       <c r="C168" t="n">
-        <v>2.802526929510019e-06</v>
+        <v>2600938387603.276</v>
       </c>
       <c r="D168" t="n">
-        <v>184.1560473595151</v>
+        <v>184.595013008328</v>
       </c>
       <c r="E168" t="n">
-        <v>4.443619343279998e-37</v>
+        <v>3.584777462133166e-37</v>
       </c>
       <c r="F168" t="n">
-        <v>30.69267455991918</v>
+        <v>30.765835501388</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001223142646028569</v>
+        <v>114943478706301.8</v>
       </c>
       <c r="C169" t="n">
-        <v>2.81122938077608e-06</v>
+        <v>2638613379229.315</v>
       </c>
       <c r="D169" t="n">
-        <v>222.2756590141905</v>
+        <v>212.7100905542701</v>
       </c>
       <c r="E169" t="n">
-        <v>3.403789902573824e-45</v>
+        <v>3.726004007037545e-43</v>
       </c>
       <c r="F169" t="n">
-        <v>37.04594316903174</v>
+        <v>35.45168175904502</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001263438582939418</v>
+        <v>114353088419663.3</v>
       </c>
       <c r="C170" t="n">
-        <v>3.003658162699195e-06</v>
+        <v>2749414803857.823</v>
       </c>
       <c r="D170" t="n">
-        <v>216.6444236141058</v>
+        <v>240.1244348394017</v>
       </c>
       <c r="E170" t="n">
-        <v>5.403613842017303e-44</v>
+        <v>5.280297280566616e-49</v>
       </c>
       <c r="F170" t="n">
-        <v>36.1074039356843</v>
+        <v>40.02073913990028</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001333776992967687</v>
+        <v>123933199805114.2</v>
       </c>
       <c r="C171" t="n">
-        <v>2.952077322713163e-06</v>
+        <v>2746180100974.804</v>
       </c>
       <c r="D171" t="n">
-        <v>310.9457192565382</v>
+        <v>312.9035369353011</v>
       </c>
       <c r="E171" t="n">
-        <v>3.688593180400936e-64</v>
+        <v>1.403275291997034e-64</v>
       </c>
       <c r="F171" t="n">
-        <v>51.82428654275636</v>
+        <v>52.15058948921686</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001602030780344824</v>
+        <v>148000873959779</v>
       </c>
       <c r="C172" t="n">
-        <v>3.603198975281434e-06</v>
+        <v>3333516353847.933</v>
       </c>
       <c r="D172" t="n">
-        <v>381.3303286325362</v>
+        <v>387.4746495443116</v>
       </c>
       <c r="E172" t="n">
-        <v>2.878985279126236e-79</v>
+        <v>1.376666575369704e-80</v>
       </c>
       <c r="F172" t="n">
-        <v>63.55505477208936</v>
+        <v>64.57910825738527</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001988355342026575</v>
+        <v>182392061064026.3</v>
       </c>
       <c r="C173" t="n">
-        <v>4.790709368266714e-06</v>
+        <v>4429329077910.055</v>
       </c>
       <c r="D173" t="n">
-        <v>497.404595989182</v>
+        <v>511.8473891854825</v>
       </c>
       <c r="E173" t="n">
-        <v>3.046396250465916e-104</v>
+        <v>2.356875005668895e-107</v>
       </c>
       <c r="F173" t="n">
-        <v>82.900765998197</v>
+        <v>85.30789819758041</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0002416972112794903</v>
+        <v>223259610851420.6</v>
       </c>
       <c r="C174" t="n">
-        <v>5.631881262620721e-06</v>
+        <v>5217218075531.49</v>
       </c>
       <c r="D174" t="n">
-        <v>628.1479443635924</v>
+        <v>635.0079243665369</v>
       </c>
       <c r="E174" t="n">
-        <v>1.973360394061835e-132</v>
+        <v>6.531083036486091e-134</v>
       </c>
       <c r="F174" t="n">
-        <v>104.6913240605987</v>
+        <v>105.8346540610895</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002606179083388911</v>
+        <v>243146634500830.6</v>
       </c>
       <c r="C175" t="n">
-        <v>6.521792296276692e-06</v>
+        <v>6078083451766.096</v>
       </c>
       <c r="D175" t="n">
-        <v>636.0717787813015</v>
+        <v>631.0688294530746</v>
       </c>
       <c r="E175" t="n">
-        <v>3.849652634586563e-134</v>
+        <v>4.623395462141943e-133</v>
       </c>
       <c r="F175" t="n">
-        <v>106.0119631302169</v>
+        <v>105.1781382421791</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.000322829127878317</v>
+        <v>301082150160618.2</v>
       </c>
       <c r="C176" t="n">
-        <v>8.463833805579933e-06</v>
+        <v>7870823037102.179</v>
       </c>
       <c r="D176" t="n">
-        <v>689.5257181252009</v>
+        <v>681.0311973458703</v>
       </c>
       <c r="E176" t="n">
-        <v>1.116665406654346e-145</v>
+        <v>7.616392415634289e-144</v>
       </c>
       <c r="F176" t="n">
-        <v>114.9209530208668</v>
+        <v>113.505199557645</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0004073630480594633</v>
+        <v>380636227466760.9</v>
       </c>
       <c r="C177" t="n">
-        <v>1.050910563837234e-05</v>
+        <v>9819551313856.457</v>
       </c>
       <c r="D177" t="n">
-        <v>736.305232024984</v>
+        <v>730.6596785930162</v>
       </c>
       <c r="E177" t="n">
-        <v>8.845766263902278e-156</v>
+        <v>1.465495706347804e-154</v>
       </c>
       <c r="F177" t="n">
-        <v>122.7175386708307</v>
+        <v>121.776613098836</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004622709588938686</v>
+        <v>417917577553522.8</v>
       </c>
       <c r="C178" t="n">
-        <v>1.224681170684711e-05</v>
+        <v>11120647773447.72</v>
       </c>
       <c r="D178" t="n">
-        <v>665.0792263540725</v>
+        <v>686.3933827154782</v>
       </c>
       <c r="E178" t="n">
-        <v>2.114217837441971e-140</v>
+        <v>5.298559170668446e-145</v>
       </c>
       <c r="F178" t="n">
-        <v>110.8465377256787</v>
+        <v>114.3988971192464</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0005098159753156643</v>
+        <v>470659406239995.8</v>
       </c>
       <c r="C179" t="n">
-        <v>1.328177770064203e-05</v>
+        <v>12323799047466.83</v>
       </c>
       <c r="D179" t="n">
-        <v>660.5680828458882</v>
+        <v>674.1434845308968</v>
       </c>
       <c r="E179" t="n">
-        <v>1.989932485900654e-139</v>
+        <v>2.336651133904991e-142</v>
       </c>
       <c r="F179" t="n">
-        <v>110.0946804743147</v>
+        <v>112.3572474218161</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0006300877010160179</v>
+        <v>577683296742322.4</v>
       </c>
       <c r="C180" t="n">
-        <v>1.604778213718665e-05</v>
+        <v>14791379263470.89</v>
       </c>
       <c r="D180" t="n">
-        <v>644.1053698885613</v>
+        <v>661.4202769399432</v>
       </c>
       <c r="E180" t="n">
-        <v>7.109137629446738e-136</v>
+        <v>1.302876334339496e-139</v>
       </c>
       <c r="F180" t="n">
-        <v>107.3508949814269</v>
+        <v>110.2367128233239</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0006210855316546582</v>
+        <v>577781055030902.9</v>
       </c>
       <c r="C181" t="n">
-        <v>1.492116678068075e-05</v>
+        <v>13859135341697.56</v>
       </c>
       <c r="D181" t="n">
-        <v>686.1067138292111</v>
+        <v>685.1488736410043</v>
       </c>
       <c r="E181" t="n">
-        <v>6.110058466598872e-145</v>
+        <v>9.836210577982105e-145</v>
       </c>
       <c r="F181" t="n">
-        <v>114.3511189715352</v>
+        <v>114.1914789401674</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001018822907751988</v>
+        <v>941559301080756.1</v>
       </c>
       <c r="C182" t="n">
-        <v>2.441239446765182e-05</v>
+        <v>22633960985203</v>
       </c>
       <c r="D182" t="n">
-        <v>516.7091979334823</v>
+        <v>522.7979061705237</v>
       </c>
       <c r="E182" t="n">
-        <v>2.112455952557007e-108</v>
+        <v>1.029858617920998e-109</v>
       </c>
       <c r="F182" t="n">
-        <v>86.11819965558038</v>
+        <v>87.13298436175394</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001276642576397125</v>
+        <v>1192502118384947</v>
       </c>
       <c r="C183" t="n">
-        <v>3.024227293870462e-05</v>
+        <v>28157225696885</v>
       </c>
       <c r="D183" t="n">
-        <v>482.8947916394186</v>
+        <v>469.444353138225</v>
       </c>
       <c r="E183" t="n">
-        <v>4.063878971274204e-101</v>
+        <v>3.200609139570934e-98</v>
       </c>
       <c r="F183" t="n">
-        <v>80.48246527323643</v>
+        <v>78.24072552303751</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001636788925850253</v>
+        <v>1525478474860812</v>
       </c>
       <c r="C184" t="n">
-        <v>3.661398524185335e-05</v>
+        <v>34068424885549.38</v>
       </c>
       <c r="D184" t="n">
-        <v>508.985568929185</v>
+        <v>504.745564867296</v>
       </c>
       <c r="E184" t="n">
-        <v>9.748144520707689e-107</v>
+        <v>7.98711425656203e-106</v>
       </c>
       <c r="F184" t="n">
-        <v>84.83092815486417</v>
+        <v>84.124260811216</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001832789786858636</v>
+        <v>1705807680236196</v>
       </c>
       <c r="C185" t="n">
-        <v>4.134169728056309e-05</v>
+        <v>38447569835492.73</v>
       </c>
       <c r="D185" t="n">
-        <v>556.5145002521422</v>
+        <v>554.1974367135682</v>
       </c>
       <c r="E185" t="n">
-        <v>5.564116419558505e-117</v>
+        <v>1.757637337474706e-116</v>
       </c>
       <c r="F185" t="n">
-        <v>92.75241670869036</v>
+        <v>92.36623945226137</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001831992573806513</v>
+        <v>1705466884598958</v>
       </c>
       <c r="C186" t="n">
-        <v>3.996454042088745e-05</v>
+        <v>37173609279001.22</v>
       </c>
       <c r="D186" t="n">
-        <v>524.79481997477</v>
+        <v>523.1823379655601</v>
       </c>
       <c r="E186" t="n">
-        <v>3.823420296390809e-110</v>
+        <v>8.510113098641051e-110</v>
       </c>
       <c r="F186" t="n">
-        <v>87.46580332912833</v>
+        <v>87.19705632759336</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.00182615461557929</v>
+        <v>1691237441733093</v>
       </c>
       <c r="C187" t="n">
-        <v>3.992294168549591e-05</v>
+        <v>37018414120059.88</v>
       </c>
       <c r="D187" t="n">
-        <v>489.6927789728077</v>
+        <v>494.061437262272</v>
       </c>
       <c r="E187" t="n">
-        <v>1.395947197277952e-102</v>
+        <v>1.599226747351231e-103</v>
       </c>
       <c r="F187" t="n">
-        <v>81.61546316213462</v>
+        <v>82.34357287704533</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001881459798083733</v>
+        <v>1749842068394939</v>
       </c>
       <c r="C188" t="n">
-        <v>4.082813142374987e-05</v>
+        <v>37958738540145.06</v>
       </c>
       <c r="D188" t="n">
-        <v>455.3389592451102</v>
+        <v>454.1723419372562</v>
       </c>
       <c r="E188" t="n">
-        <v>3.481737449972082e-95</v>
+        <v>6.207336556261128e-95</v>
       </c>
       <c r="F188" t="n">
-        <v>75.8898265408517</v>
+        <v>75.69539032287604</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001492585943805502</v>
+        <v>1389883662154455</v>
       </c>
       <c r="C189" t="n">
-        <v>3.196483692845613e-05</v>
+        <v>29735725333837.03</v>
       </c>
       <c r="D189" t="n">
-        <v>467.0012342713884</v>
+        <v>463.1723551256201</v>
       </c>
       <c r="E189" t="n">
-        <v>1.074574025963559e-97</v>
+        <v>7.170456979336287e-97</v>
       </c>
       <c r="F189" t="n">
-        <v>77.8335390452314</v>
+        <v>77.19539252093669</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001165601901081767</v>
+        <v>1081532137800761</v>
       </c>
       <c r="C190" t="n">
-        <v>2.509341677742513e-05</v>
+        <v>23297286058997.11</v>
       </c>
       <c r="D190" t="n">
-        <v>412.8989280524475</v>
+        <v>415.0076562319924</v>
       </c>
       <c r="E190" t="n">
-        <v>4.709141188369034e-86</v>
+        <v>1.657450379506612e-86</v>
       </c>
       <c r="F190" t="n">
-        <v>68.81648800874125</v>
+        <v>69.16794270533207</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0008770664183380116</v>
+        <v>817445215491878</v>
       </c>
       <c r="C191" t="n">
-        <v>1.881897880355644e-05</v>
+        <v>17521062362663.29</v>
       </c>
       <c r="D191" t="n">
-        <v>335.9652843382795</v>
+        <v>333.2002124684226</v>
       </c>
       <c r="E191" t="n">
-        <v>1.587577210962728e-69</v>
+        <v>6.223392929641721e-69</v>
       </c>
       <c r="F191" t="n">
-        <v>55.99421405637992</v>
+        <v>55.53336874473711</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.000639584186165162</v>
+        <v>594621597264753</v>
       </c>
       <c r="C192" t="n">
-        <v>1.374135165088645e-05</v>
+        <v>12769314258809.64</v>
       </c>
       <c r="D192" t="n">
-        <v>274.2817817686981</v>
+        <v>271.1121050157804</v>
       </c>
       <c r="E192" t="n">
-        <v>2.630904674833854e-56</v>
+        <v>1.254208120753885e-55</v>
       </c>
       <c r="F192" t="n">
-        <v>45.71363029478302</v>
+        <v>45.1853508359634</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004700405279270978</v>
+        <v>436368023834927.8</v>
       </c>
       <c r="C193" t="n">
-        <v>1.034432424480807e-05</v>
+        <v>9606330554906.658</v>
       </c>
       <c r="D193" t="n">
-        <v>229.7643485348453</v>
+        <v>229.1543738212665</v>
       </c>
       <c r="E193" t="n">
-        <v>8.596887843451677e-47</v>
+        <v>1.160130186025481e-46</v>
       </c>
       <c r="F193" t="n">
-        <v>38.29405808914088</v>
+        <v>38.19239563687776</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003640509042328644</v>
+        <v>340507438002477.7</v>
       </c>
       <c r="C194" t="n">
-        <v>8.349300142283029e-06</v>
+        <v>7784947289085.07</v>
       </c>
       <c r="D194" t="n">
-        <v>196.4661635480767</v>
+        <v>192.5933822268094</v>
       </c>
       <c r="E194" t="n">
-        <v>1.072115830146595e-39</v>
+        <v>7.146451389700869e-39</v>
       </c>
       <c r="F194" t="n">
-        <v>32.74436059134612</v>
+        <v>32.09889703780156</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003814674272825233</v>
+        <v>354052204508360.2</v>
       </c>
       <c r="C195" t="n">
-        <v>8.308902968435826e-06</v>
+        <v>7710408042644.762</v>
       </c>
       <c r="D195" t="n">
-        <v>172.3624942674782</v>
+        <v>171.396183035936</v>
       </c>
       <c r="E195" t="n">
-        <v>1.418512676655377e-34</v>
+        <v>2.274252065991025e-34</v>
       </c>
       <c r="F195" t="n">
-        <v>28.72708237791302</v>
+        <v>28.56603050598934</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003482743478581751</v>
+        <v>323378636505407.6</v>
       </c>
       <c r="C196" t="n">
-        <v>7.451880916538767e-06</v>
+        <v>6919578545232.656</v>
       </c>
       <c r="D196" t="n">
-        <v>157.207396009232</v>
+        <v>154.5306684529727</v>
       </c>
       <c r="E196" t="n">
-        <v>2.310748719594309e-31</v>
+        <v>8.516702751824646e-31</v>
       </c>
       <c r="F196" t="n">
-        <v>26.20123266820534</v>
+        <v>25.75511140882878</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.000318936056538999</v>
+        <v>294878297912940.7</v>
       </c>
       <c r="C197" t="n">
-        <v>6.886117660718067e-06</v>
+        <v>6374411420495.769</v>
       </c>
       <c r="D197" t="n">
-        <v>161.3108613947994</v>
+        <v>165.724684701118</v>
       </c>
       <c r="E197" t="n">
-        <v>3.1246170248321e-32</v>
+        <v>3.626667065188863e-33</v>
       </c>
       <c r="F197" t="n">
-        <v>26.8851435657999</v>
+        <v>27.62078078351967</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003190562806171615</v>
+        <v>297124184114020.7</v>
       </c>
       <c r="C198" t="n">
-        <v>6.749641239192568e-06</v>
+        <v>6279715738304.983</v>
       </c>
       <c r="D198" t="n">
-        <v>155.9351284122573</v>
+        <v>155.8711433782834</v>
       </c>
       <c r="E198" t="n">
-        <v>4.295900615017923e-31</v>
+        <v>4.431966698835745e-31</v>
       </c>
       <c r="F198" t="n">
-        <v>25.98918806870955</v>
+        <v>25.97852389638058</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002855209533802045</v>
+        <v>266136455299916.5</v>
       </c>
       <c r="C199" t="n">
-        <v>6.059937635324124e-06</v>
+        <v>5642339698288.567</v>
       </c>
       <c r="D199" t="n">
-        <v>146.3269060449814</v>
+        <v>143.7398261426438</v>
       </c>
       <c r="E199" t="n">
-        <v>4.623223791714454e-29</v>
+        <v>1.627202584765351e-28</v>
       </c>
       <c r="F199" t="n">
-        <v>24.38781767416357</v>
+        <v>23.95663769044064</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.000283111672328515</v>
+        <v>262421537684311.8</v>
       </c>
       <c r="C200" t="n">
-        <v>5.902887169299431e-06</v>
+        <v>5475775233096.657</v>
       </c>
       <c r="D200" t="n">
-        <v>151.3430451333008</v>
+        <v>153.3157182658432</v>
       </c>
       <c r="E200" t="n">
-        <v>4.023345824308003e-30</v>
+        <v>1.539315432322437e-30</v>
       </c>
       <c r="F200" t="n">
-        <v>25.22384085555013</v>
+        <v>25.55261971097386</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002783428861155541</v>
+        <v>258711367354368.9</v>
       </c>
       <c r="C201" t="n">
-        <v>5.781792497880014e-06</v>
+        <v>5372741851943.372</v>
       </c>
       <c r="D201" t="n">
-        <v>140.8894342382263</v>
+        <v>142.6624930725615</v>
       </c>
       <c r="E201" t="n">
-        <v>6.504941529502629e-28</v>
+        <v>2.747502828154288e-28</v>
       </c>
       <c r="F201" t="n">
-        <v>23.48157237303772</v>
+        <v>23.77708217876024</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002899307654933264</v>
+        <v>269927985932423.6</v>
       </c>
       <c r="C202" t="n">
-        <v>6.442180757016227e-06</v>
+        <v>5998914363800.061</v>
       </c>
       <c r="D202" t="n">
-        <v>139.4895355508024</v>
+        <v>136.4360200775488</v>
       </c>
       <c r="E202" t="n">
-        <v>1.284332980669106e-27</v>
+        <v>5.659701585997431e-27</v>
       </c>
       <c r="F202" t="n">
-        <v>23.24825592513373</v>
+        <v>22.73933667959146</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002712612659979095</v>
+        <v>251666976742043.6</v>
       </c>
       <c r="C203" t="n">
-        <v>5.607151113687333e-06</v>
+        <v>5204342823006.813</v>
       </c>
       <c r="D203" t="n">
-        <v>163.0579369274791</v>
+        <v>165.5288748591665</v>
       </c>
       <c r="E203" t="n">
-        <v>1.332494661398068e-32</v>
+        <v>3.990366399864653e-33</v>
       </c>
       <c r="F203" t="n">
-        <v>27.17632282124652</v>
+        <v>27.58814580986109</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003351839077958813</v>
+        <v>311846087979182.4</v>
       </c>
       <c r="C204" t="n">
-        <v>7.472079935056765e-06</v>
+        <v>6949253984781.926</v>
       </c>
       <c r="D204" t="n">
-        <v>159.4246501722938</v>
+        <v>160.9222466835339</v>
       </c>
       <c r="E204" t="n">
-        <v>7.839591929393884e-32</v>
+        <v>3.776716274796318e-32</v>
       </c>
       <c r="F204" t="n">
-        <v>26.57077502871563</v>
+        <v>26.82037444725565</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0003205736999586566</v>
+        <v>297520056740164.1</v>
       </c>
       <c r="C205" t="n">
-        <v>7.165327944799861e-06</v>
+        <v>6644572151519.895</v>
       </c>
       <c r="D205" t="n">
-        <v>171.6833036604417</v>
+        <v>171.3242224462646</v>
       </c>
       <c r="E205" t="n">
-        <v>1.976642058732982e-34</v>
+        <v>2.355614094908993e-34</v>
       </c>
       <c r="F205" t="n">
-        <v>28.61388394340695</v>
+        <v>28.55403707437744</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0003186868926914601</v>
+        <v>297634933387461.6</v>
       </c>
       <c r="C206" t="n">
-        <v>7.122591615667306e-06</v>
+        <v>6644853179871.997</v>
       </c>
       <c r="D206" t="n">
-        <v>171.2511175138332</v>
+        <v>164.1990727446556</v>
       </c>
       <c r="E206" t="n">
-        <v>2.441250220415757e-34</v>
+        <v>7.635798842673959e-33</v>
       </c>
       <c r="F206" t="n">
-        <v>28.5418529189722</v>
+        <v>27.36651212410927</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003100488188380778</v>
+        <v>289470053883297.8</v>
       </c>
       <c r="C207" t="n">
-        <v>6.978666734337079e-06</v>
+        <v>6508627850511.086</v>
       </c>
       <c r="D207" t="n">
-        <v>190.8343332386496</v>
+        <v>194.0649087563328</v>
       </c>
       <c r="E207" t="n">
-        <v>1.691128104300893e-38</v>
+        <v>3.476125456383231e-39</v>
       </c>
       <c r="F207" t="n">
-        <v>31.8057222064416</v>
+        <v>32.3441514593888</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003081068517371922</v>
+        <v>288118137816150.3</v>
       </c>
       <c r="C208" t="n">
-        <v>6.97822467727222e-06</v>
+        <v>6513327291786.436</v>
       </c>
       <c r="D208" t="n">
-        <v>180.0083448566054</v>
+        <v>175.2296002261092</v>
       </c>
       <c r="E208" t="n">
-        <v>3.379322317378595e-36</v>
+        <v>3.494729845792423e-35</v>
       </c>
       <c r="F208" t="n">
-        <v>30.00139080943423</v>
+        <v>29.2049333710182</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003114877080515836</v>
+        <v>288651471754773.4</v>
       </c>
       <c r="C209" t="n">
-        <v>6.586892679968446e-06</v>
+        <v>6105762064576.426</v>
       </c>
       <c r="D209" t="n">
-        <v>175.3534247916806</v>
+        <v>175.4520305733472</v>
       </c>
       <c r="E209" t="n">
-        <v>3.289516067354654e-35</v>
+        <v>3.134748946939915e-35</v>
       </c>
       <c r="F209" t="n">
-        <v>29.22557079861343</v>
+        <v>29.24200509555786</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003092971216420687</v>
+        <v>287622297047007.4</v>
       </c>
       <c r="C210" t="n">
-        <v>6.835571341661658e-06</v>
+        <v>6355482447572.441</v>
       </c>
       <c r="D210" t="n">
-        <v>163.7107559792234</v>
+        <v>170.2060182568542</v>
       </c>
       <c r="E210" t="n">
-        <v>9.690265863533312e-33</v>
+        <v>4.067222966335432e-34</v>
       </c>
       <c r="F210" t="n">
-        <v>27.28512599653723</v>
+        <v>28.36766970947569</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0002748479761431437</v>
+        <v>254635502981600.1</v>
       </c>
       <c r="C211" t="n">
-        <v>5.691197290968629e-06</v>
+        <v>5281039110677.123</v>
       </c>
       <c r="D211" t="n">
-        <v>183.6492414545054</v>
+        <v>189.5192511620194</v>
       </c>
       <c r="E211" t="n">
-        <v>5.694042268536426e-37</v>
+        <v>3.219583879286795e-38</v>
       </c>
       <c r="F211" t="n">
-        <v>30.60820690908424</v>
+        <v>31.58654186033656</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>0.000238965255002605</v>
+        <v>222030827584103.2</v>
       </c>
       <c r="C212" t="n">
-        <v>4.930212994072421e-06</v>
+        <v>4582169133857.864</v>
       </c>
       <c r="D212" t="n">
-        <v>156.63056231521</v>
+        <v>156.514227208754</v>
       </c>
       <c r="E212" t="n">
-        <v>3.060964654304264e-31</v>
+        <v>3.239537648796851e-31</v>
       </c>
       <c r="F212" t="n">
-        <v>26.10509371920166</v>
+        <v>26.08570453479233</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002301762539795569</v>
+        <v>213444177572229.9</v>
       </c>
       <c r="C213" t="n">
-        <v>4.685627400472937e-06</v>
+        <v>4345752228328.008</v>
       </c>
       <c r="D213" t="n">
-        <v>150.2235100869008</v>
+        <v>149.4153998453155</v>
       </c>
       <c r="E213" t="n">
-        <v>6.939492296342814e-30</v>
+        <v>1.028452032949582e-29</v>
       </c>
       <c r="F213" t="n">
-        <v>25.03725168115013</v>
+        <v>24.90256664088592</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>0.000236366450485394</v>
+        <v>219334714295106.2</v>
       </c>
       <c r="C214" t="n">
-        <v>4.790439641945457e-06</v>
+        <v>4448942275767.974</v>
       </c>
       <c r="D214" t="n">
-        <v>164.2905089980942</v>
+        <v>166.838475414426</v>
       </c>
       <c r="E214" t="n">
-        <v>7.302591577911503e-33</v>
+        <v>2.105712967101264e-33</v>
       </c>
       <c r="F214" t="n">
-        <v>27.38175149968236</v>
+        <v>27.806412569071</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002298081602006139</v>
+        <v>213071570051559</v>
       </c>
       <c r="C215" t="n">
-        <v>4.624187022259821e-06</v>
+        <v>4289782993405.983</v>
       </c>
       <c r="D215" t="n">
-        <v>148.183753461881</v>
+        <v>149.630271686905</v>
       </c>
       <c r="E215" t="n">
-        <v>1.873008359083822e-29</v>
+        <v>9.263108044143438e-30</v>
       </c>
       <c r="F215" t="n">
-        <v>24.69729224364683</v>
+        <v>24.93837861448417</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002253158663701304</v>
+        <v>209565574914244</v>
       </c>
       <c r="C216" t="n">
-        <v>4.512968181224997e-06</v>
+        <v>4196968777133.451</v>
       </c>
       <c r="D216" t="n">
-        <v>141.3934634751987</v>
+        <v>142.0471700419494</v>
       </c>
       <c r="E216" t="n">
-        <v>5.091581713731035e-28</v>
+        <v>3.705545305406704e-28</v>
       </c>
       <c r="F216" t="n">
-        <v>23.56557724586645</v>
+        <v>23.6745283403249</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>0.000223852014122213</v>
+        <v>207235658072981</v>
       </c>
       <c r="C217" t="n">
-        <v>4.435694881852039e-06</v>
+        <v>4109499791322.203</v>
       </c>
       <c r="D217" t="n">
-        <v>135.9479613745175</v>
+        <v>139.5221227787325</v>
       </c>
       <c r="E217" t="n">
-        <v>7.173104197018435e-27</v>
+        <v>1.26415810923704e-27</v>
       </c>
       <c r="F217" t="n">
-        <v>22.65799356241958</v>
+        <v>23.25368712978875</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0002274803896452138</v>
+        <v>211474482025753.8</v>
       </c>
       <c r="C218" t="n">
-        <v>4.543874117031413e-06</v>
+        <v>4222635476054.001</v>
       </c>
       <c r="D218" t="n">
-        <v>152.571398395906</v>
+        <v>150.6475628577779</v>
       </c>
       <c r="E218" t="n">
-        <v>2.211988056583485e-30</v>
+        <v>5.644970523651532e-30</v>
       </c>
       <c r="F218" t="n">
-        <v>25.42856639931767</v>
+        <v>25.10792714296298</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0002416532364808478</v>
+        <v>224098112352767.5</v>
       </c>
       <c r="C219" t="n">
-        <v>4.787441443167713e-06</v>
+        <v>4441610492647.124</v>
       </c>
       <c r="D219" t="n">
-        <v>126.7070662436129</v>
+        <v>128.251770088645</v>
       </c>
       <c r="E219" t="n">
-        <v>6.340591962113864e-25</v>
+        <v>2.999588235079763e-25</v>
       </c>
       <c r="F219" t="n">
-        <v>21.11784437393548</v>
+        <v>21.37529501477417</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0002418263699234824</v>
+        <v>224787755658480.5</v>
       </c>
       <c r="C220" t="n">
-        <v>4.818268406238797e-06</v>
+        <v>4478503995946.623</v>
       </c>
       <c r="D220" t="n">
-        <v>133.3774965041093</v>
+        <v>133.6001073796518</v>
       </c>
       <c r="E220" t="n">
-        <v>2.497712092397443e-26</v>
+        <v>2.241970211224748e-26</v>
       </c>
       <c r="F220" t="n">
-        <v>22.22958275068489</v>
+        <v>22.26668456327531</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0002301894226276788</v>
+        <v>213963256900471.2</v>
       </c>
       <c r="C221" t="n">
-        <v>4.637016708456066e-06</v>
+        <v>4307472776937.046</v>
       </c>
       <c r="D221" t="n">
-        <v>163.9607233164724</v>
+        <v>164.386318792244</v>
       </c>
       <c r="E221" t="n">
-        <v>8.577584899863973e-33</v>
+        <v>6.969031194673706e-33</v>
       </c>
       <c r="F221" t="n">
-        <v>27.32678721941207</v>
+        <v>27.39771979870733</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>0.000235242319290456</v>
+        <v>218386741965492.5</v>
       </c>
       <c r="C222" t="n">
-        <v>4.719569528151751e-06</v>
+        <v>4382700013275.607</v>
       </c>
       <c r="D222" t="n">
-        <v>198.1118454619594</v>
+        <v>199.0113830837759</v>
       </c>
       <c r="E222" t="n">
-        <v>4.786943968726242e-40</v>
+        <v>3.080502413527157e-40</v>
       </c>
       <c r="F222" t="n">
-        <v>33.01864091032656</v>
+        <v>33.16856384729599</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0002456072509065453</v>
+        <v>227786307600113.9</v>
       </c>
       <c r="C223" t="n">
-        <v>4.966745670119856e-06</v>
+        <v>4607967250693.078</v>
       </c>
       <c r="D223" t="n">
-        <v>214.1241401532124</v>
+        <v>215.5435463589346</v>
       </c>
       <c r="E223" t="n">
-        <v>1.86160485926155e-43</v>
+        <v>9.275828919372973e-44</v>
       </c>
       <c r="F223" t="n">
-        <v>35.68735669220207</v>
+        <v>35.92392439315577</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/a1/a0/a1_a0Fit.xlsx
+++ b/legendre_out/DATA/a1/a0/a1_a0Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,4442 +395,4402 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>23878214613495.54</v>
+        <v>2.727400246433873e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>537476327290.1189</v>
+        <v>6.139123436368996e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>234.5452383667615</v>
+        <v>234.5452378786044</v>
       </c>
       <c r="E2" t="n">
-        <v>8.201968353613475e-48</v>
+        <v>8.201970321687798e-48</v>
       </c>
       <c r="F2" t="n">
-        <v>39.09087306112691</v>
+        <v>39.0908729797674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>22522492569658.71</v>
+        <v>2.572547935398246e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>555090050321.965</v>
+        <v>6.340309626561014e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>232.225901347991</v>
+        <v>232.2259010969374</v>
       </c>
       <c r="E3" t="n">
-        <v>2.564470803695308e-47</v>
+        <v>2.564471120108096e-47</v>
       </c>
       <c r="F3" t="n">
-        <v>38.70431689133183</v>
+        <v>38.70431684948957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>21528888262837.16</v>
+        <v>2.459057184127591e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>539822422947.577</v>
+        <v>6.16592083880648e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>183.9360046746581</v>
+        <v>183.9360048415794</v>
       </c>
       <c r="E4" t="n">
-        <v>4.948702209103996e-37</v>
+        <v>4.948701804966184e-37</v>
       </c>
       <c r="F4" t="n">
-        <v>30.65600077910968</v>
+        <v>30.65600080692991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>20490156520119.84</v>
+        <v>2.34041191099761e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>531472198210.5817</v>
+        <v>6.070543502900894e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>174.306238545723</v>
+        <v>174.3062387603948</v>
       </c>
       <c r="E5" t="n">
-        <v>5.48760035126905e-35</v>
+        <v>5.48759977561445e-35</v>
       </c>
       <c r="F5" t="n">
-        <v>29.0510397576205</v>
+        <v>29.05103979339913</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>20613644365559.39</v>
+        <v>2.354516854437204e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>566797441869.3779</v>
+        <v>6.474032962545439e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>152.0427579697761</v>
+        <v>152.0427572493962</v>
       </c>
       <c r="E6" t="n">
-        <v>2.86154372728438e-30</v>
+        <v>2.861544731224367e-30</v>
       </c>
       <c r="F6" t="n">
-        <v>25.34045966162935</v>
+        <v>25.34045954156604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>19683480715136</v>
+        <v>2.248272369641747e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>558692565355.4247</v>
+        <v>6.381458026676349e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>179.8312080096045</v>
+        <v>179.8312080683729</v>
       </c>
       <c r="E7" t="n">
-        <v>3.685095470259514e-36</v>
+        <v>3.685095364357832e-36</v>
       </c>
       <c r="F7" t="n">
-        <v>29.97186800160075</v>
+        <v>29.97186801139548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>19455650512798.03</v>
+        <v>2.222249314291962e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>504763959793.239</v>
+        <v>5.765478586383128e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>155.3262882141335</v>
+        <v>155.326287990506</v>
       </c>
       <c r="E8" t="n">
-        <v>5.779734007784793e-31</v>
+        <v>5.779734637610322e-31</v>
       </c>
       <c r="F8" t="n">
-        <v>25.88771470235559</v>
+        <v>25.88771466508434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>16561122606128.77</v>
+        <v>1.891632633580073e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>442180998979.6776</v>
+        <v>5.050647988428335e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>187.6903360168934</v>
+        <v>187.6903352835112</v>
       </c>
       <c r="E9" t="n">
-        <v>7.881521800610423e-38</v>
+        <v>7.881524629758559e-38</v>
       </c>
       <c r="F9" t="n">
-        <v>31.28172266948223</v>
+        <v>31.28172254725186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>15144172087808.67</v>
+        <v>1.729786725838625e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>452387122299.416</v>
+        <v>5.167223637588821e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>96.63852073528106</v>
+        <v>96.63852062251358</v>
       </c>
       <c r="E10" t="n">
-        <v>1.260066532006048e-18</v>
+        <v>1.260066600173379e-18</v>
       </c>
       <c r="F10" t="n">
-        <v>16.10642012254684</v>
+        <v>16.10642010375226</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>10421411923770.1</v>
+        <v>1.190347014776923e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>361641263147.1244</v>
+        <v>4.130712814024881e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>83.34144579396239</v>
+        <v>83.34144573684468</v>
       </c>
       <c r="E11" t="n">
-        <v>7.279531813732086e-16</v>
+        <v>7.2795320118884e-16</v>
       </c>
       <c r="F11" t="n">
-        <v>13.8902409656604</v>
+        <v>13.89024095614078</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>6654903452656.177</v>
+        <v>7.601315937108247e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>255736677617.0006</v>
+        <v>2.921057076021696e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>83.79842297932032</v>
+        <v>83.79842317323303</v>
       </c>
       <c r="E12" t="n">
-        <v>5.854747897099934e-16</v>
+        <v>5.854747355895173e-16</v>
       </c>
       <c r="F12" t="n">
-        <v>13.96640382988672</v>
+        <v>13.9664038622055</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>5015264195468.922</v>
+        <v>5.728498978533194e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>218691473351.8801</v>
+        <v>2.497922009421267e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>43.80772900858394</v>
+        <v>43.8077289445133</v>
       </c>
       <c r="E13" t="n">
-        <v>8.07025281776081e-08</v>
+        <v>8.070253053761394e-08</v>
       </c>
       <c r="F13" t="n">
-        <v>7.301288168097323</v>
+        <v>7.301288157418884</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>18506426504000.33</v>
+        <v>2.113827730860427e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>455207397485.8703</v>
+        <v>5.199437176675013e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>145.4280659584535</v>
+        <v>145.4280659218524</v>
       </c>
       <c r="E14" t="n">
-        <v>7.15891140116278e-29</v>
+        <v>7.158911528620814e-29</v>
       </c>
       <c r="F14" t="n">
-        <v>24.23801099307558</v>
+        <v>24.2380109869754</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>30912813420637.49</v>
+        <v>3.530901127533907e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>700009174420.7836</v>
+        <v>7.995594417058946e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>157.644093888728</v>
+        <v>157.6440941935261</v>
       </c>
       <c r="E15" t="n">
-        <v>1.86768590505804e-31</v>
+        <v>1.867685627555111e-31</v>
       </c>
       <c r="F15" t="n">
-        <v>26.27401564812134</v>
+        <v>26.27401569892102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>42307067060969.51</v>
+        <v>4.832367371462087e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>957341541799.1884</v>
+        <v>1.093487767539573e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>175.529725393759</v>
+        <v>175.5297255553118</v>
       </c>
       <c r="E16" t="n">
-        <v>3.017947753020365e-35</v>
+        <v>3.017947514733429e-35</v>
       </c>
       <c r="F16" t="n">
-        <v>29.25495423229316</v>
+        <v>29.25495425921862</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>40482401307557.61</v>
+        <v>4.623951713973269e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>923513025619.9003</v>
+        <v>1.054848403576278e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>149.18415234424</v>
+        <v>149.1841520137972</v>
       </c>
       <c r="E17" t="n">
-        <v>1.150989794351572e-29</v>
+        <v>1.150989979489194e-29</v>
       </c>
       <c r="F17" t="n">
-        <v>24.86402539070667</v>
+        <v>24.86402533563287</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>40177343301165.27</v>
+        <v>4.589107595192033e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>953275083854.7532</v>
+        <v>1.088843006749896e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>187.4201313783118</v>
+        <v>187.420131619244</v>
       </c>
       <c r="E18" t="n">
-        <v>8.995934114885529e-38</v>
+        <v>8.99593305406237e-38</v>
       </c>
       <c r="F18" t="n">
-        <v>31.23668856305196</v>
+        <v>31.23668860320734</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>39420490025614.55</v>
+        <v>4.502658845311544e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>950315623720.0128</v>
+        <v>1.085462673318865e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>184.295165874315</v>
+        <v>184.2951664506869</v>
       </c>
       <c r="E19" t="n">
-        <v>4.151226645993259e-37</v>
+        <v>4.15122547535196e-37</v>
       </c>
       <c r="F19" t="n">
-        <v>30.71586097905251</v>
+        <v>30.71586107511449</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>40118454566270.33</v>
+        <v>4.58238125179382e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>993933744531.1708</v>
+        <v>1.135283849441812e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>163.6358988905014</v>
+        <v>163.6358987247489</v>
       </c>
       <c r="E20" t="n">
-        <v>1.005074606896801e-32</v>
+        <v>1.005074688182337e-32</v>
       </c>
       <c r="F20" t="n">
-        <v>27.27264981508357</v>
+        <v>27.27264978745815</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>42735095566319.14</v>
+        <v>4.881257335518599e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1102831126347.919</v>
+        <v>1.259667832944927e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>163.7568832397642</v>
+        <v>163.7568834496773</v>
       </c>
       <c r="E21" t="n">
-        <v>9.474602464249088e-33</v>
+        <v>9.474601493821354e-33</v>
       </c>
       <c r="F21" t="n">
-        <v>27.29281387329404</v>
+        <v>27.29281390827954</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>44271295190593.77</v>
+        <v>5.056724025021315e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>1530241059730.241</v>
+        <v>1.747860932539455e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>299.3599372478963</v>
+        <v>299.3599371455877</v>
       </c>
       <c r="E22" t="n">
-        <v>1.121800810476574e-61</v>
+        <v>1.121800867099855e-61</v>
       </c>
       <c r="F22" t="n">
-        <v>49.89332287464939</v>
+        <v>49.89332285759795</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>52546508646501.99</v>
+        <v>6.001929490845022e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>2004705578726.024</v>
+        <v>2.289800380526791e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>266.2428124045995</v>
+        <v>266.2428115915428</v>
       </c>
       <c r="E23" t="n">
-        <v>1.380696442835292e-54</v>
+        <v>1.380696995758207e-54</v>
       </c>
       <c r="F23" t="n">
-        <v>44.37380206743325</v>
+        <v>44.3738019319238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>52453079856036.89</v>
+        <v>5.991257950245699e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>2313485415516.63</v>
+        <v>2.642492661508035e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>344.8120161945214</v>
+        <v>344.8120180769604</v>
       </c>
       <c r="E24" t="n">
-        <v>2.005094126161269e-71</v>
+        <v>2.005092260694364e-71</v>
       </c>
       <c r="F24" t="n">
-        <v>57.46866936575358</v>
+        <v>57.46866967949341</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>51815683985420.75</v>
+        <v>5.918453770405424e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>2136925481443.521</v>
+        <v>2.44082364701379e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>389.5071161045441</v>
+        <v>389.5071165860406</v>
       </c>
       <c r="E25" t="n">
-        <v>5.035064911712973e-81</v>
+        <v>5.035063711914737e-81</v>
       </c>
       <c r="F25" t="n">
-        <v>64.91785268409069</v>
+        <v>64.9178527643401</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>54699380277904.54</v>
+        <v>6.247833258450553e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>2307130994627.455</v>
+        <v>2.635234562884885e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>301.8128579841371</v>
+        <v>301.8128591725383</v>
       </c>
       <c r="E26" t="n">
-        <v>3.344350127873278e-62</v>
+        <v>3.344348166821541e-62</v>
       </c>
       <c r="F26" t="n">
-        <v>50.30214299735618</v>
+        <v>50.30214319542304</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>46720022792619.96</v>
+        <v>5.336420823937853e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>2188792163518.62</v>
+        <v>2.500066434903547e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>346.6498615962109</v>
+        <v>346.6498609111989</v>
       </c>
       <c r="E27" t="n">
-        <v>8.084297298958433e-72</v>
+        <v>8.084300036112953e-72</v>
       </c>
       <c r="F27" t="n">
-        <v>57.77497693270183</v>
+        <v>57.77497681853315</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>48442815933500.4</v>
+        <v>5.533200464387216e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>2200150756677.222</v>
+        <v>2.513040363735319e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>315.2738864282472</v>
+        <v>315.2738871163097</v>
       </c>
       <c r="E28" t="n">
-        <v>4.354530583099623e-65</v>
+        <v>4.354529103891538e-65</v>
       </c>
       <c r="F28" t="n">
-        <v>52.5456477380412</v>
+        <v>52.54564785271828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>53438814808364.92</v>
+        <v>6.103849854046171e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>2186308987119.1</v>
+        <v>2.497230118417123e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>320.3157852143007</v>
+        <v>320.3157855643935</v>
       </c>
       <c r="E29" t="n">
-        <v>3.612442079773538e-66</v>
+        <v>3.612441455275848e-66</v>
       </c>
       <c r="F29" t="n">
-        <v>53.38596420238346</v>
+        <v>53.38596426073226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>43615754191419.98</v>
+        <v>4.981847289792562e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>1942824056803.315</v>
+        <v>2.219118514185189e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>368.0558731595696</v>
+        <v>368.0558723906107</v>
       </c>
       <c r="E30" t="n">
-        <v>2.047104101022915e-76</v>
+        <v>2.047104879585154e-76</v>
       </c>
       <c r="F30" t="n">
-        <v>61.34264552659494</v>
+        <v>61.34264539843512</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>36312847376592.86</v>
+        <v>4.147699924752561e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>1808338953355.704</v>
+        <v>2.065507907565229e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>379.8632192788141</v>
+        <v>379.8632190502541</v>
       </c>
       <c r="E31" t="n">
-        <v>5.949597414134793e-79</v>
+        <v>5.949598086932757e-79</v>
       </c>
       <c r="F31" t="n">
-        <v>63.31053654646902</v>
+        <v>63.31053650837569</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>35588654108479.7</v>
+        <v>4.064981649037981e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>1859231482214.394</v>
+        <v>2.123638004090793e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>347.3303756666133</v>
+        <v>347.330377821415</v>
       </c>
       <c r="E32" t="n">
-        <v>5.775162055429904e-72</v>
+        <v>5.775155904513064e-72</v>
       </c>
       <c r="F32" t="n">
-        <v>57.88839594443556</v>
+        <v>57.88839630356917</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>32884788646057.43</v>
+        <v>3.756142668959934e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>1752765409293.176</v>
+        <v>2.002031094629075e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>368.5188521864163</v>
+        <v>368.5188524289603</v>
       </c>
       <c r="E33" t="n">
-        <v>1.628138311573008e-76</v>
+        <v>1.628138116256968e-76</v>
       </c>
       <c r="F33" t="n">
-        <v>61.41980869773604</v>
+        <v>61.41980873816004</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>31470638441439.69</v>
+        <v>3.594616623441705e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>1805957513738.285</v>
+        <v>2.062787797007292e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>315.984476704221</v>
+        <v>315.98447683602</v>
       </c>
       <c r="E34" t="n">
-        <v>3.066067640496558e-65</v>
+        <v>3.066067440985775e-65</v>
       </c>
       <c r="F34" t="n">
-        <v>52.6640794507035</v>
+        <v>52.66407947267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>31486687032889.37</v>
+        <v>3.596449708349171e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>1616523995580.236</v>
+        <v>1.846414405848238e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>343.696511168997</v>
+        <v>343.6965107700835</v>
       </c>
       <c r="E35" t="n">
-        <v>3.47988920814331e-71</v>
+        <v>3.479889894199901e-71</v>
       </c>
       <c r="F35" t="n">
-        <v>57.2827518614995</v>
+        <v>57.28275179501392</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>31249313549839.68</v>
+        <v>3.569336605938968e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>1545318145690.39</v>
+        <v>1.765082171659311e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>299.2185598048573</v>
+        <v>299.2185618536927</v>
       </c>
       <c r="E36" t="n">
-        <v>1.202840135859692e-61</v>
+        <v>1.202838920011873e-61</v>
       </c>
       <c r="F36" t="n">
-        <v>49.86975996747621</v>
+        <v>49.86976030894878</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>27414005179144.72</v>
+        <v>3.131262771602165e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>1267476421223.811</v>
+        <v>1.44772779748008e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>341.2243673799525</v>
+        <v>341.2243665092543</v>
       </c>
       <c r="E37" t="n">
-        <v>1.180731266126331e-70</v>
+        <v>1.180731774166331e-70</v>
       </c>
       <c r="F37" t="n">
-        <v>56.87072789665874</v>
+        <v>56.87072775154238</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>23193459818258.67</v>
+        <v>2.649186673234089e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1052867538336.809</v>
+        <v>1.202598783113371e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>376.2756729526371</v>
+        <v>376.2756731507566</v>
       </c>
       <c r="E38" t="n">
-        <v>3.510061770566406e-78</v>
+        <v>3.510061426537272e-78</v>
       </c>
       <c r="F38" t="n">
-        <v>62.71261215877285</v>
+        <v>62.71261219179276</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>24243738981981.62</v>
+        <v>2.769150910470835e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>890884368234.4594</v>
+        <v>1.0175795320934e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>291.3833828359311</v>
+        <v>291.3833826632005</v>
       </c>
       <c r="E39" t="n">
-        <v>5.737247385630681e-60</v>
+        <v>5.737247874374373e-60</v>
       </c>
       <c r="F39" t="n">
-        <v>48.56389713932185</v>
+        <v>48.56389711053342</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>18834920292275.8</v>
+        <v>2.151348712852503e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>951605619151.511</v>
+        <v>1.086936122323717e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>382.8104459124565</v>
+        <v>382.810445943523</v>
       </c>
       <c r="E40" t="n">
-        <v>1.384150494910252e-79</v>
+        <v>1.384150473633405e-79</v>
       </c>
       <c r="F40" t="n">
-        <v>63.80174098540942</v>
+        <v>63.80174099058717</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>25683710914184.29</v>
+        <v>2.933626345125193e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>857138107525.2513</v>
+        <v>9.790341211794317e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>136.2830353215105</v>
+        <v>136.2830356003322</v>
       </c>
       <c r="E41" t="n">
-        <v>6.096120579079324e-27</v>
+        <v>6.096119753792275e-27</v>
       </c>
       <c r="F41" t="n">
-        <v>22.71383922025176</v>
+        <v>22.71383926672204</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>30186294681696.82</v>
+        <v>3.447917231037363e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>829247848622.2267</v>
+        <v>9.47177510289284e-07</v>
       </c>
       <c r="D42" t="n">
-        <v>107.8013783705795</v>
+        <v>107.8013784646071</v>
       </c>
       <c r="E42" t="n">
-        <v>5.881631041043013e-21</v>
+        <v>5.881630774595435e-21</v>
       </c>
       <c r="F42" t="n">
-        <v>17.96689639509659</v>
+        <v>17.96689641076784</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>28380730355299.6</v>
+        <v>3.241683356191752e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>742096652414.4877</v>
+        <v>8.476322983125719e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>134.6557635209313</v>
+        <v>134.655763887535</v>
       </c>
       <c r="E43" t="n">
-        <v>1.343171303995975e-26</v>
+        <v>1.343171064995246e-26</v>
       </c>
       <c r="F43" t="n">
-        <v>22.44262725348855</v>
+        <v>22.44262731458917</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>26581393118347</v>
+        <v>3.036160755138494e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>675127749931.0834</v>
+        <v>7.711395601549677e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>119.535384997869</v>
+        <v>119.5353850278965</v>
       </c>
       <c r="E44" t="n">
-        <v>2.040112136251396e-23</v>
+        <v>2.040112106629496e-23</v>
       </c>
       <c r="F44" t="n">
-        <v>19.92256416631149</v>
+        <v>19.92256417131608</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>25319237876842.75</v>
+        <v>2.891995769553256e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>644727718254.1394</v>
+        <v>7.364162556050866e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>70.09415353074273</v>
+        <v>70.09415360796302</v>
       </c>
       <c r="E45" t="n">
-        <v>3.91103913481722e-13</v>
+        <v>3.911038992183248e-13</v>
       </c>
       <c r="F45" t="n">
-        <v>11.68235892179045</v>
+        <v>11.6823589346605</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>24830212746489.52</v>
+        <v>2.836138695260023e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>609325895576.7059</v>
+        <v>6.959798401641878e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>74.04063764454736</v>
+        <v>74.04063778379253</v>
       </c>
       <c r="E46" t="n">
-        <v>6.047580568556451e-14</v>
+        <v>6.047580169641538e-14</v>
       </c>
       <c r="F46" t="n">
-        <v>12.34010627409123</v>
+        <v>12.34010629729875</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>20925387225929.01</v>
+        <v>2.390124521433324e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>537458332307.3736</v>
+        <v>6.138917887353858e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>50.77837342731128</v>
+        <v>50.77837340459627</v>
       </c>
       <c r="E47" t="n">
-        <v>3.28141770287239e-09</v>
+        <v>3.281417737320619e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>8.463062237885213</v>
+        <v>8.463062234099377</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>21448648830768.46</v>
+        <v>2.449892133678339e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>559746506855.5459</v>
+        <v>6.39349626639449e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>51.68652390965182</v>
+        <v>51.68652454366247</v>
       </c>
       <c r="E48" t="n">
-        <v>2.156040038637096e-09</v>
+        <v>2.156039406013925e-09</v>
       </c>
       <c r="F48" t="n">
-        <v>8.614420651608636</v>
+        <v>8.614420757277079</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>22977982861401.61</v>
+        <v>2.62457462147748e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>613542931437.9895</v>
+        <v>7.007965922406407e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>46.31678993201164</v>
+        <v>46.316789850334</v>
       </c>
       <c r="E49" t="n">
-        <v>2.560274363209463e-08</v>
+        <v>2.560274459126774e-08</v>
       </c>
       <c r="F49" t="n">
-        <v>7.719464988668608</v>
+        <v>7.719464975055666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>24223247214076.59</v>
+        <v>2.766810311121095e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>704791350457.9525</v>
+        <v>8.050217047326532e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>37.01288677911746</v>
+        <v>37.01288670877239</v>
       </c>
       <c r="E50" t="n">
-        <v>1.750732609841045e-06</v>
+        <v>1.75073266512172e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>6.168814463186243</v>
+        <v>6.168814451462065</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>23863641346178.11</v>
+        <v>2.725735669068216e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>675256314721.7034</v>
+        <v>7.712864084597532e-07</v>
       </c>
       <c r="D51" t="n">
-        <v>45.53202177536365</v>
+        <v>45.5320217073442</v>
       </c>
       <c r="E51" t="n">
-        <v>3.668579271186532e-08</v>
+        <v>3.668579385472812e-08</v>
       </c>
       <c r="F51" t="n">
-        <v>7.588670295893941</v>
+        <v>7.588670284557367</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>20434076741383.18</v>
+        <v>2.334006411462981e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>939355614349.2607</v>
+        <v>1.0729440103211e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>33.71117332863358</v>
+        <v>33.71117338351657</v>
       </c>
       <c r="E52" t="n">
-        <v>7.648742278978219e-06</v>
+        <v>7.648742092521885e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>5.618528888105597</v>
+        <v>5.618528897252761</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>20106757676643.27</v>
+        <v>2.296619607299587e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>1033759667214.517</v>
+        <v>1.180773528166797e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>55.97618128892915</v>
+        <v>55.976181225745</v>
       </c>
       <c r="E53" t="n">
-        <v>2.943421239385448e-10</v>
+        <v>2.943421325966203e-10</v>
       </c>
       <c r="F53" t="n">
-        <v>9.329363548154857</v>
+        <v>9.329363537624166</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>13494657021407.64</v>
+        <v>1.541377004750352e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>1639075150019.723</v>
+        <v>1.872172622436307e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>4.163086702239944</v>
+        <v>4.163086717027941</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6546170119041275</v>
+        <v>0.6546170099060262</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6938477837066573</v>
+        <v>0.6938477861713235</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>13366098716234.98</v>
+        <v>1.526692908358674e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>1954179567124.811</v>
+        <v>2.23208892372205e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>2.493394253082035</v>
+        <v>2.493394256169324</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8692062200642307</v>
+        <v>0.8692062197194004</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4155657088470059</v>
+        <v>0.4155657093615541</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>13316059602759.59</v>
+        <v>1.5209773779402e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>1692404158165.171</v>
+        <v>1.933085698735549e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>9.800134032493705</v>
+        <v>9.800134004150365</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1333250790039069</v>
+        <v>0.1333250802707505</v>
       </c>
       <c r="F56" t="n">
-        <v>1.633355672082284</v>
+        <v>1.633355667358394</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>15491583524783.96</v>
+        <v>1.769468505036879e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>1712593758673.926</v>
+        <v>1.956146519529825e-06</v>
       </c>
       <c r="D57" t="n">
-        <v>28.93304220983492</v>
+        <v>28.93304217575065</v>
       </c>
       <c r="E57" t="n">
-        <v>6.263783242650776e-05</v>
+        <v>6.263783335652687e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>4.822173701639153</v>
+        <v>4.822173695958442</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>25526022324012.46</v>
+        <v>2.915614954050165e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>1368106037813.958</v>
+        <v>1.562668233976499e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>38.10214604064667</v>
+        <v>38.10214601772082</v>
       </c>
       <c r="E58" t="n">
-        <v>1.07287277640142e-06</v>
+        <v>1.07287278747603e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>6.350357673441111</v>
+        <v>6.350357669620137</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>28297491757410.86</v>
+        <v>3.232175739819144e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>1299255535487.123</v>
+        <v>1.484026308615173e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>53.61470800127994</v>
+        <v>53.6147080893165</v>
       </c>
       <c r="E59" t="n">
-        <v>8.821952293793597e-10</v>
+        <v>8.821951933360137e-10</v>
       </c>
       <c r="F59" t="n">
-        <v>8.935784666879989</v>
+        <v>8.93578468155275</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>27633488987645.19</v>
+        <v>3.15633249371902e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>1288003780277.856</v>
+        <v>1.471174409805798e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>52.37103090353568</v>
+        <v>52.37103086508804</v>
       </c>
       <c r="E60" t="n">
-        <v>1.57039000123754e-09</v>
+        <v>1.570390029208478e-09</v>
       </c>
       <c r="F60" t="n">
-        <v>8.72850515058928</v>
+        <v>8.728505144181341</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>28791805136983.71</v>
+        <v>3.288636850652857e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>1000011055078.481</v>
+        <v>1.142225432438131e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>125.0299187255204</v>
+        <v>125.0299183516864</v>
       </c>
       <c r="E61" t="n">
-        <v>1.428656452399868e-24</v>
+        <v>1.428656711033417e-24</v>
       </c>
       <c r="F61" t="n">
-        <v>20.83831978758674</v>
+        <v>20.83831972528107</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>31958357106137.01</v>
+        <v>3.65032446674452e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>896308226433.2899</v>
+        <v>1.023774732803742e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>165.2919918634332</v>
+        <v>165.2919925153549</v>
       </c>
       <c r="E62" t="n">
-        <v>4.47942634630082e-33</v>
+        <v>4.479424921090133e-33</v>
       </c>
       <c r="F62" t="n">
-        <v>27.5486653105722</v>
+        <v>27.54866541922582</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>34241386990484.05</v>
+        <v>3.911095062885212e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>879823968094.6083</v>
+        <v>1.004946201231575e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>148.8798565766567</v>
+        <v>148.8798563180369</v>
       </c>
       <c r="E63" t="n">
-        <v>1.33474638282818e-29</v>
+        <v>1.334746550849212e-29</v>
       </c>
       <c r="F63" t="n">
-        <v>24.81330942944278</v>
+        <v>24.81330938633948</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>35838314350032.32</v>
+        <v>4.093498153824688e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>855175303490.6671</v>
+        <v>9.767921807597637e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>198.2313074331919</v>
+        <v>198.2313073429138</v>
       </c>
       <c r="E64" t="n">
-        <v>4.514772041661617e-40</v>
+        <v>4.514772241383493e-40</v>
       </c>
       <c r="F64" t="n">
-        <v>33.03855123886532</v>
+        <v>33.03855122381896</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>39224620531984.59</v>
+        <v>4.480286376982092e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1115474404377.151</v>
+        <v>1.274109146588609e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>236.6863247537786</v>
+        <v>236.6863254197078</v>
       </c>
       <c r="E65" t="n">
-        <v>2.862946204449303e-48</v>
+        <v>2.862945267163804e-48</v>
       </c>
       <c r="F65" t="n">
-        <v>39.44772079229644</v>
+        <v>39.44772090328463</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>41425321063496.05</v>
+        <v>4.73165321486532e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>1622787062957.487</v>
+        <v>1.853568161874661e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>120.8539177787576</v>
+        <v>120.8539176369592</v>
       </c>
       <c r="E66" t="n">
-        <v>1.078222307221058e-23</v>
+        <v>1.078222381177846e-23</v>
       </c>
       <c r="F66" t="n">
-        <v>20.14231962979293</v>
+        <v>20.14231960615987</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>36520246719851.12</v>
+        <v>4.171389338876312e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>1809989304100.061</v>
+        <v>2.067392958619688e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>77.34979685130844</v>
+        <v>77.3497970051512</v>
       </c>
       <c r="E67" t="n">
-        <v>1.258874655249319e-14</v>
+        <v>1.258874563293235e-14</v>
       </c>
       <c r="F67" t="n">
-        <v>12.89163280855141</v>
+        <v>12.89163283419187</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>30815054196137.45</v>
+        <v>3.519734946741994e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>2329647233174.32</v>
+        <v>2.660952899634135e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>55.39270358858639</v>
+        <v>55.39270359196238</v>
       </c>
       <c r="E68" t="n">
-        <v>3.861692562416502e-10</v>
+        <v>3.861692556351751e-10</v>
       </c>
       <c r="F68" t="n">
-        <v>9.232117264764399</v>
+        <v>9.232117265327064</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>30811143362967.94</v>
+        <v>3.519288245620058e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>1867656833739.548</v>
+        <v>2.133261549289255e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>109.7532550897862</v>
+        <v>109.7532550282824</v>
       </c>
       <c r="E69" t="n">
-        <v>2.295899773926312e-21</v>
+        <v>2.295899842003311e-21</v>
       </c>
       <c r="F69" t="n">
-        <v>18.29220918163103</v>
+        <v>18.2922091713804</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>17728348554977.14</v>
+        <v>2.024954671429672e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>2369335448294.691</v>
+        <v>2.706285286576983e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>56.30513730749682</v>
+        <v>56.30513732952321</v>
       </c>
       <c r="E70" t="n">
-        <v>2.52539404035067e-10</v>
+        <v>2.525394014443852e-10</v>
       </c>
       <c r="F70" t="n">
-        <v>9.38418955124947</v>
+        <v>9.384189554920535</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>22939753586830.61</v>
+        <v>2.620208026105283e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>3711190309653.406</v>
+        <v>4.238969089821452e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>10.98580971316982</v>
+        <v>10.9858096872433</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08881599166211193</v>
+        <v>0.08881599246702722</v>
       </c>
       <c r="F71" t="n">
-        <v>1.830968285528303</v>
+        <v>1.830968281207216</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>31803181973598.18</v>
+        <v>3.632600164964425e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>1975296695814.354</v>
+        <v>2.256209177844464e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>36.24934215834044</v>
+        <v>36.24934212705469</v>
       </c>
       <c r="E72" t="n">
-        <v>2.465466440244126e-06</v>
+        <v>2.465466474788886e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>6.041557026390073</v>
+        <v>6.041557021175781</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>10439160333251.58</v>
+        <v>1.192374258294052e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>2369770882378.05</v>
+        <v>2.706782644704111e-06</v>
       </c>
       <c r="D73" t="n">
-        <v>1.582205703427602</v>
+        <v>1.582205698199372</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9538481316741402</v>
+        <v>0.9538481320449822</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2637009505712669</v>
+        <v>0.2637009496998953</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>5241406839749.497</v>
+        <v>5.986802007384027e-06</v>
       </c>
       <c r="C74" t="n">
-        <v>1773079505957.197</v>
+        <v>2.025234114589265e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>5.365167408524312</v>
+        <v>5.365167415500533</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4979004451676995</v>
+        <v>0.4979004443094062</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8941945680873853</v>
+        <v>0.8941945692500889</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>6768822195890.185</v>
+        <v>7.731435372765217e-06</v>
       </c>
       <c r="C75" t="n">
-        <v>1642574256606.598</v>
+        <v>1.876169347616817e-06</v>
       </c>
       <c r="D75" t="n">
-        <v>15.3184197042597</v>
+        <v>15.31841967056076</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0179195733953353</v>
+        <v>0.01791957362845105</v>
       </c>
       <c r="F75" t="n">
-        <v>2.553069950709951</v>
+        <v>2.553069945093461</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>21134915517824</v>
+        <v>2.414057108636979e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>1684948909462.988</v>
+        <v>1.924570218326323e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>85.37673446248455</v>
+        <v>85.37673460504763</v>
       </c>
       <c r="E76" t="n">
-        <v>2.758079499925806e-16</v>
+        <v>2.75807931232107e-16</v>
       </c>
       <c r="F76" t="n">
-        <v>14.22945574374742</v>
+        <v>14.22945576750794</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>46250859840293.06</v>
+        <v>5.282832420555639e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>2393913879735.475</v>
+        <v>2.734359085186335e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>293.6574628909817</v>
+        <v>293.6574617351678</v>
       </c>
       <c r="E77" t="n">
-        <v>1.868958791042305e-60</v>
+        <v>1.868959856514805e-60</v>
       </c>
       <c r="F77" t="n">
-        <v>48.94291048183027</v>
+        <v>48.94291028919464</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>37967551700728.12</v>
+        <v>4.336702372667119e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>2937503501389.395</v>
+        <v>3.355254112319165e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>780.406662723452</v>
+        <v>780.4066634971069</v>
       </c>
       <c r="E78" t="n">
-        <v>2.634051733261205e-165</v>
+        <v>2.634050719546953e-165</v>
       </c>
       <c r="F78" t="n">
-        <v>130.0677771205753</v>
+        <v>130.0677772495178</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>6772827908172.797</v>
+        <v>7.73601072739966e-06</v>
       </c>
       <c r="C79" t="n">
-        <v>1358687351142.431</v>
+        <v>1.551910085745422e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>743.428795639438</v>
+        <v>743.4287947585103</v>
       </c>
       <c r="E79" t="n">
-        <v>2.5598449034825e-157</v>
+        <v>2.559846024951723e-157</v>
       </c>
       <c r="F79" t="n">
-        <v>123.9047992732397</v>
+        <v>123.9047991264184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>49727825616866.11</v>
+        <v>5.679975915392753e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>3152531242372.66</v>
+        <v>3.600861550685329e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>667.7655418851906</v>
+        <v>667.7655416136557</v>
       </c>
       <c r="E80" t="n">
-        <v>5.563069209592108e-141</v>
+        <v>5.563069960364994e-141</v>
       </c>
       <c r="F80" t="n">
-        <v>111.2942569808651</v>
+        <v>111.2942569356093</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>52058375052169.63</v>
+        <v>5.946174251860212e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>2650402491718.974</v>
+        <v>3.027323662660462e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>392.5391442528889</v>
+        <v>392.5391436146581</v>
       </c>
       <c r="E81" t="n">
-        <v>1.122817646153582e-81</v>
+        <v>1.122818000829463e-81</v>
       </c>
       <c r="F81" t="n">
-        <v>65.42319070881481</v>
+        <v>65.42319060244301</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>80409496764550.09</v>
+        <v>9.184475680090211e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>2689021293818.485</v>
+        <v>3.071434554563247e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>224.7309760986949</v>
+        <v>224.7309767250195</v>
       </c>
       <c r="E82" t="n">
-        <v>1.01918753530379e-45</v>
+        <v>1.019187221763111e-45</v>
       </c>
       <c r="F82" t="n">
-        <v>37.45516268311582</v>
+        <v>37.45516278750326</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>77885167031953.75</v>
+        <v>8.896143505037294e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>2487027585611.257</v>
+        <v>2.840714751499625e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>381.997229099646</v>
+        <v>381.9972296627503</v>
       </c>
       <c r="E83" t="n">
-        <v>2.069824984469001e-79</v>
+        <v>2.069824407775751e-79</v>
       </c>
       <c r="F83" t="n">
-        <v>63.666204849941</v>
+        <v>63.66620494379171</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>77443124844820.58</v>
+        <v>8.845652881064956e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>2076208111343.72</v>
+        <v>2.371471489656561e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>431.6673088998286</v>
+        <v>431.6673102084559</v>
       </c>
       <c r="E84" t="n">
-        <v>4.323818778065591e-90</v>
+        <v>4.323815975027124e-90</v>
       </c>
       <c r="F84" t="n">
-        <v>71.94455148330476</v>
+        <v>71.94455170140932</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>67080877244360.41</v>
+        <v>7.662063688908593e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1671662213811.857</v>
+        <v>1.909393984503625e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>266.7126095908271</v>
+        <v>266.7126094048846</v>
       </c>
       <c r="E85" t="n">
-        <v>1.095475992397678e-54</v>
+        <v>1.095476092729449e-54</v>
       </c>
       <c r="F85" t="n">
-        <v>44.45210159847119</v>
+        <v>44.45210156748077</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>49425970074692.19</v>
+        <v>5.645497589602192e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1254894022850.116</v>
+        <v>1.433356020942941e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>272.6449635863532</v>
+        <v>272.6449641867979</v>
       </c>
       <c r="E86" t="n">
-        <v>5.893519426305522e-56</v>
+        <v>5.893517682707797e-56</v>
       </c>
       <c r="F86" t="n">
-        <v>45.4408272643922</v>
+        <v>45.44082736446632</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>46266907739483.84</v>
+        <v>5.284665441267198e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1071823829456.147</v>
+        <v>1.224250901359153e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>221.0866474491663</v>
+        <v>221.0866477352071</v>
       </c>
       <c r="E87" t="n">
-        <v>6.102904393114431e-45</v>
+        <v>6.102903535923886e-45</v>
       </c>
       <c r="F87" t="n">
-        <v>36.84777457486106</v>
+        <v>36.84777462253451</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>50718157172523.55</v>
+        <v>5.793092853418918e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1219622007035.589</v>
+        <v>1.393067872246807e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>221.622244188724</v>
+        <v>221.622245363756</v>
       </c>
       <c r="E88" t="n">
-        <v>4.691545087777407e-45</v>
+        <v>4.691542380720301e-45</v>
       </c>
       <c r="F88" t="n">
-        <v>36.93704069812068</v>
+        <v>36.93704089395934</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>71264704704884.3</v>
+        <v>8.139945823182306e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1707092133052.083</v>
+        <v>1.949862491985636e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>331.5478663100024</v>
+        <v>331.5478680524644</v>
       </c>
       <c r="E89" t="n">
-        <v>1.407788937871428e-68</v>
+        <v>1.407787726070677e-68</v>
       </c>
       <c r="F89" t="n">
-        <v>55.25797771833373</v>
+        <v>55.25797800874407</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>118053455096362.1</v>
+        <v>0.0001348421680023479</v>
       </c>
       <c r="C90" t="n">
-        <v>2922725027852.931</v>
+        <v>3.338373949267843e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>468.6327163973277</v>
+        <v>468.6327164994571</v>
       </c>
       <c r="E90" t="n">
-        <v>4.786088213855419e-98</v>
+        <v>4.786087971532454e-98</v>
       </c>
       <c r="F90" t="n">
-        <v>78.10545273288795</v>
+        <v>78.10545274990952</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>127232960535828.2</v>
+        <v>0.0001453271166983162</v>
       </c>
       <c r="C91" t="n">
-        <v>3101903228616.529</v>
+        <v>3.543033585245212e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>433.956682320225</v>
+        <v>433.9566825714056</v>
       </c>
       <c r="E91" t="n">
-        <v>1.390943766573273e-90</v>
+        <v>1.390943593486982e-90</v>
       </c>
       <c r="F91" t="n">
-        <v>72.3261137200375</v>
+        <v>72.32611376190093</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>130929021544222.2</v>
+        <v>0.0001495488048296227</v>
       </c>
       <c r="C92" t="n">
-        <v>3216375142748.514</v>
+        <v>3.673784871789406e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>388.4221403998681</v>
+        <v>388.4221401965901</v>
       </c>
       <c r="E92" t="n">
-        <v>8.613787888181331e-81</v>
+        <v>8.613788754708674e-81</v>
       </c>
       <c r="F92" t="n">
-        <v>64.73702339997801</v>
+        <v>64.73702336609834</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>123998434263570.2</v>
+        <v>0.0001416325990313062</v>
       </c>
       <c r="C93" t="n">
-        <v>3194553864806.679</v>
+        <v>3.648860326999522e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>236.6213039796292</v>
+        <v>236.6213036808515</v>
       </c>
       <c r="E93" t="n">
-        <v>2.9559401773773e-48</v>
+        <v>2.955940611560198e-48</v>
       </c>
       <c r="F93" t="n">
-        <v>39.43688399660487</v>
+        <v>39.43688394680858</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>101352798731734.3</v>
+        <v>0.0001157664644607826</v>
       </c>
       <c r="C94" t="n">
-        <v>3470003855153.48</v>
+        <v>3.96348282947e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>110.0572536251656</v>
+        <v>110.0572537794526</v>
       </c>
       <c r="E94" t="n">
-        <v>1.982893154192749e-21</v>
+        <v>1.982893006684045e-21</v>
       </c>
       <c r="F94" t="n">
-        <v>18.34287560419427</v>
+        <v>18.34287562990876</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>171444290287122.4</v>
+        <v>0.000195825863682488</v>
       </c>
       <c r="C95" t="n">
-        <v>4678424384571.93</v>
+        <v>5.343756232714146e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>112.6462392182176</v>
+        <v>112.6462396326668</v>
       </c>
       <c r="E95" t="n">
-        <v>5.687766206179178e-22</v>
+        <v>5.687765068644652e-22</v>
       </c>
       <c r="F95" t="n">
-        <v>18.77437320303627</v>
+        <v>18.77437327211113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>343755692926333.8</v>
+        <v>0.0003926421540550551</v>
       </c>
       <c r="C96" t="n">
-        <v>7685190821602.104</v>
+        <v>8.778123358870487e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>165.4794669718243</v>
+        <v>165.4794670530507</v>
       </c>
       <c r="E96" t="n">
-        <v>4.087760044909591e-33</v>
+        <v>4.087759882857047e-33</v>
       </c>
       <c r="F96" t="n">
-        <v>27.57991116197072</v>
+        <v>27.57991117550846</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>301314846724447.2</v>
+        <v>0.0003441656760989368</v>
       </c>
       <c r="C97" t="n">
-        <v>6674805726010.587</v>
+        <v>7.624048563274463e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>187.0060889160328</v>
+        <v>187.0060896215595</v>
       </c>
       <c r="E97" t="n">
-        <v>1.101676233546306e-37</v>
+        <v>1.101675853139158e-37</v>
       </c>
       <c r="F97" t="n">
-        <v>31.16768148600546</v>
+        <v>31.16768160359326</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>198120241891229.6</v>
+        <v>0.0002262954770494073</v>
       </c>
       <c r="C98" t="n">
-        <v>4357431187914.253</v>
+        <v>4.97711369168592e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>202.7937887482606</v>
+        <v>202.793788848148</v>
       </c>
       <c r="E98" t="n">
-        <v>4.824732989375731e-41</v>
+        <v>4.824732753116812e-41</v>
       </c>
       <c r="F98" t="n">
-        <v>33.79896479137676</v>
+        <v>33.79896480802466</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>130579000794986.2</v>
+        <v>0.0001491490066306397</v>
       </c>
       <c r="C99" t="n">
-        <v>2851695533398.519</v>
+        <v>3.257243151858473e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>154.684804194551</v>
+        <v>154.6848037058876</v>
       </c>
       <c r="E99" t="n">
-        <v>7.900527300220537e-31</v>
+        <v>7.900529181298466e-31</v>
       </c>
       <c r="F99" t="n">
-        <v>25.78080069909184</v>
+        <v>25.78080061764793</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>66246876042160.93</v>
+        <v>7.566803008084176e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>1492766737622.055</v>
+        <v>1.705057281008271e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>115.676191400347</v>
+        <v>115.6761917080121</v>
       </c>
       <c r="E100" t="n">
-        <v>1.317185209478642e-22</v>
+        <v>1.317185013738238e-22</v>
       </c>
       <c r="F100" t="n">
-        <v>19.27936523339116</v>
+        <v>19.27936528466869</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>47997704948348.22</v>
+        <v>5.482359314156512e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1042597272767.827</v>
+        <v>1.190867955034377e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>76.23147062179682</v>
+        <v>76.23147080494228</v>
       </c>
       <c r="E101" t="n">
-        <v>2.140440869587508e-14</v>
+        <v>2.140440683596809e-14</v>
       </c>
       <c r="F101" t="n">
-        <v>12.7052451036328</v>
+        <v>12.70524513415705</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>49535059001346.7</v>
+        <v>5.65795786152024e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>1061085260202.072</v>
+        <v>1.211985170255171e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>78.68812492338319</v>
+        <v>78.6881250362497</v>
       </c>
       <c r="E102" t="n">
-        <v>6.666329543969676e-15</v>
+        <v>6.66632918640528e-15</v>
       </c>
       <c r="F102" t="n">
-        <v>13.11468748723053</v>
+        <v>13.11468750604162</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>52970883364021.42</v>
+        <v>6.05040212182396e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>1148947663602.637</v>
+        <v>1.312342732001728e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>92.47823565450224</v>
+        <v>92.47823579466997</v>
       </c>
       <c r="E103" t="n">
-        <v>9.25495720147863e-18</v>
+        <v>9.254956580304499e-18</v>
       </c>
       <c r="F103" t="n">
-        <v>15.41303927575037</v>
+        <v>15.41303929911166</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>55488798132065.23</v>
+        <v>6.338001568392502e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>1170794432825.474</v>
+        <v>1.337296392600432e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>125.4000701678321</v>
+        <v>125.4000701074538</v>
       </c>
       <c r="E104" t="n">
-        <v>1.19420012413201e-24</v>
+        <v>1.194200159052292e-24</v>
       </c>
       <c r="F104" t="n">
-        <v>20.90001169463869</v>
+        <v>20.90001168457563</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>59704157609137.18</v>
+        <v>6.819485328554842e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>1379067786016.003</v>
+        <v>1.575188882565892e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>101.8992068024276</v>
+        <v>101.8992066642283</v>
       </c>
       <c r="E105" t="n">
-        <v>1.007311422274525e-19</v>
+        <v>1.007311489200688e-19</v>
       </c>
       <c r="F105" t="n">
-        <v>16.98320113373794</v>
+        <v>16.98320111070472</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>58891541612717.77</v>
+        <v>6.726667289100071e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1364071484288.039</v>
+        <v>1.558059914035411e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>146.4289263831254</v>
+        <v>146.4289263261697</v>
       </c>
       <c r="E106" t="n">
-        <v>4.399350758537816e-29</v>
+        <v>4.399350880446234e-29</v>
       </c>
       <c r="F106" t="n">
-        <v>24.40482106385423</v>
+        <v>24.40482105436161</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>60925248117081.48</v>
+        <v>6.958959846306467e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1483675550838.655</v>
+        <v>1.694673210374751e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>92.81674467020051</v>
+        <v>92.81674481070225</v>
       </c>
       <c r="E107" t="n">
-        <v>7.86997335474621e-18</v>
+        <v>7.86997282518722e-18</v>
       </c>
       <c r="F107" t="n">
-        <v>15.46945744503342</v>
+        <v>15.46945746845037</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>62019954217763.88</v>
+        <v>7.083998581188827e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1364163365357.947</v>
+        <v>1.558164861695074e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>111.6578065989124</v>
+        <v>111.6578069204573</v>
       </c>
       <c r="E108" t="n">
-        <v>9.16343653100388e-22</v>
+        <v>9.163435109607635e-22</v>
       </c>
       <c r="F108" t="n">
-        <v>18.60963443315207</v>
+        <v>18.60963448674288</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>62448979657904.52</v>
+        <v>7.133002418656861e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1481364084965.249</v>
+        <v>1.692033025277567e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>142.8978186894346</v>
+        <v>142.8978188458127</v>
       </c>
       <c r="E109" t="n">
-        <v>2.450469914579243e-28</v>
+        <v>2.450469728267669e-28</v>
       </c>
       <c r="F109" t="n">
-        <v>23.81630311490578</v>
+        <v>23.81630314096877</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>63234923112934.5</v>
+        <v>7.222773880975925e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1408108251808.183</v>
+        <v>1.608359274180814e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>122.4717672825614</v>
+        <v>122.4717672614575</v>
       </c>
       <c r="E110" t="n">
-        <v>4.928984759718847e-24</v>
+        <v>4.928984810058468e-24</v>
       </c>
       <c r="F110" t="n">
-        <v>20.41196121376024</v>
+        <v>20.41196121024291</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>62125421978107.38</v>
+        <v>7.096045239683601e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1411158895733.064</v>
+        <v>1.611843758801597e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>139.0813445833007</v>
+        <v>139.0813434617289</v>
       </c>
       <c r="E111" t="n">
-        <v>1.566052143752013e-27</v>
+        <v>1.566052997077538e-27</v>
       </c>
       <c r="F111" t="n">
-        <v>23.18022409721678</v>
+        <v>23.18022391028815</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>63408483361262.88</v>
+        <v>7.242598152884197e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>1519473611230.979</v>
+        <v>1.73556221416906e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>167.5125692329302</v>
+        <v>167.5125686750932</v>
       </c>
       <c r="E112" t="n">
-        <v>1.515242154400305e-33</v>
+        <v>1.515242567058045e-33</v>
       </c>
       <c r="F112" t="n">
-        <v>27.91876153882171</v>
+        <v>27.91876144584887</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>61386144893006.52</v>
+        <v>7.011604069365169e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1425825791287.083</v>
+        <v>1.628596474890854e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>157.3398796143371</v>
+        <v>157.3398794712107</v>
       </c>
       <c r="E113" t="n">
-        <v>2.166240389844763e-31</v>
+        <v>2.166240540976972e-31</v>
       </c>
       <c r="F113" t="n">
-        <v>26.22331326905619</v>
+        <v>26.22331324520178</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>63551511972139.66</v>
+        <v>7.258935074309674e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>1459033803401.762</v>
+        <v>1.666527091452635e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>150.7247980109126</v>
+        <v>150.7247993692418</v>
       </c>
       <c r="E114" t="n">
-        <v>5.436627429140783e-30</v>
+        <v>5.436623833466693e-30</v>
       </c>
       <c r="F114" t="n">
-        <v>25.12079966848543</v>
+        <v>25.12079989487364</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>63542995690574.9</v>
+        <v>7.257962333165128e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>1489546384965.732</v>
+        <v>1.701378953177164e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>153.6676850904454</v>
+        <v>153.6676858232054</v>
       </c>
       <c r="E115" t="n">
-        <v>1.296775475868235e-30</v>
+        <v>1.296775012962055e-30</v>
       </c>
       <c r="F115" t="n">
-        <v>25.61128084840756</v>
+        <v>25.61128097053424</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>63214843433644.38</v>
+        <v>7.220480354477602e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>1499313948447.063</v>
+        <v>1.712535588271829e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>183.9068228151323</v>
+        <v>183.9068222896309</v>
       </c>
       <c r="E116" t="n">
-        <v>5.019861844167682e-37</v>
+        <v>5.019863134764213e-37</v>
       </c>
       <c r="F116" t="n">
-        <v>30.65113713585539</v>
+        <v>30.65113704827182</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>70233672214589.3</v>
+        <v>8.022179969329507e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>1682873418407.298</v>
+        <v>1.922199566499868e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>147.67935776703</v>
+        <v>147.6793571674287</v>
       </c>
       <c r="E117" t="n">
-        <v>2.394122028456886e-29</v>
+        <v>2.39412272703852e-29</v>
       </c>
       <c r="F117" t="n">
-        <v>24.613226294505</v>
+        <v>24.61322619457145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>65056574282911.86</v>
+        <v>7.430845218637616e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1470847491825.168</v>
+        <v>1.680020837799979e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>172.8868341139377</v>
+        <v>172.8868351844449</v>
       </c>
       <c r="E118" t="n">
-        <v>1.097948612525068e-34</v>
+        <v>1.097948038283924e-34</v>
       </c>
       <c r="F118" t="n">
-        <v>28.81447235232295</v>
+        <v>28.81447253074081</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>65586130541743.75</v>
+        <v>7.49133180520414e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1545349509233.907</v>
+        <v>1.765117996074295e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>168.2188324204656</v>
+        <v>168.2188320234904</v>
       </c>
       <c r="E119" t="n">
-        <v>1.073321533931082e-33</v>
+        <v>1.073321741966491e-33</v>
       </c>
       <c r="F119" t="n">
-        <v>28.0364720700776</v>
+        <v>28.03647200391508</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>66337750463862.27</v>
+        <v>7.577182795727889e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1515143770817.007</v>
+        <v>1.730616614759947e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>180.8903423466221</v>
+        <v>180.8903427002505</v>
       </c>
       <c r="E120" t="n">
-        <v>2.195354887244507e-36</v>
+        <v>2.195354507563307e-36</v>
       </c>
       <c r="F120" t="n">
-        <v>30.14839039110369</v>
+        <v>30.14839045004176</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>72516732981228.88</v>
+        <v>8.282954087522037e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>1697200423107.137</v>
+        <v>1.938564053932522e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>175.8796040334645</v>
+        <v>175.8796035204108</v>
       </c>
       <c r="E121" t="n">
-        <v>2.543586226026569e-35</v>
+        <v>2.543586863853901e-35</v>
       </c>
       <c r="F121" t="n">
-        <v>29.31326733891076</v>
+        <v>29.3132672534018</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>68156319013758</v>
+        <v>7.784902026003319e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1527589972204.742</v>
+        <v>1.7448328248184e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>200.3359908334619</v>
+        <v>200.3359913782496</v>
       </c>
       <c r="E122" t="n">
-        <v>1.609500261180471e-40</v>
+        <v>1.60949983142884e-40</v>
       </c>
       <c r="F122" t="n">
-        <v>33.38933180557698</v>
+        <v>33.38933189637493</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>67903333035335.08</v>
+        <v>7.756005646169653e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>1486989467802.657</v>
+        <v>1.698458410666269e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>244.8428461260284</v>
+        <v>244.8428456448583</v>
       </c>
       <c r="E123" t="n">
-        <v>5.185983252409902e-50</v>
+        <v>5.185984479863246e-50</v>
       </c>
       <c r="F123" t="n">
-        <v>40.80714102100473</v>
+        <v>40.80714094080972</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>78799807108696.84</v>
+        <v>9.000614854562284e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>1778705872114.751</v>
+        <v>2.031660622427492e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>155.2826473908075</v>
+        <v>155.2826460855277</v>
       </c>
       <c r="E124" t="n">
-        <v>5.903959960529877e-31</v>
+        <v>5.903963715713603e-31</v>
       </c>
       <c r="F124" t="n">
-        <v>25.88044123180126</v>
+        <v>25.88044101425461</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>79538987564970.11</v>
+        <v>9.0850449986081e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>1768536069523.543</v>
+        <v>2.020044542876431e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>232.3895171374569</v>
+        <v>232.3895165745227</v>
       </c>
       <c r="E125" t="n">
-        <v>2.366331192314202e-47</v>
+        <v>2.366331846993071e-47</v>
       </c>
       <c r="F125" t="n">
-        <v>38.73158618957616</v>
+        <v>38.73158609575379</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>91344559843827.97</v>
+        <v>0.0001043349257565752</v>
       </c>
       <c r="C126" t="n">
-        <v>2023830382284.591</v>
+        <v>2.311644976998176e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>185.2161298664653</v>
+        <v>185.2161287301893</v>
       </c>
       <c r="E126" t="n">
-        <v>2.64529748775545e-37</v>
+        <v>2.645298958543183e-37</v>
       </c>
       <c r="F126" t="n">
-        <v>30.86935497774422</v>
+        <v>30.86935478836488</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>90407903949304.44</v>
+        <v>0.0001032650654634875</v>
       </c>
       <c r="C127" t="n">
-        <v>1986465843578.035</v>
+        <v>2.268966722208166e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>174.1388685233096</v>
+        <v>174.1388681521615</v>
       </c>
       <c r="E127" t="n">
-        <v>5.955271484380254e-35</v>
+        <v>5.955272564430338e-35</v>
       </c>
       <c r="F127" t="n">
-        <v>29.02314475388493</v>
+        <v>29.02314469202691</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>110731249203320.6</v>
+        <v>0.0001264786506427353</v>
       </c>
       <c r="C128" t="n">
-        <v>2496823986513.444</v>
+        <v>2.851904325709934e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>159.9392134844926</v>
+        <v>159.9392147583256</v>
       </c>
       <c r="E128" t="n">
-        <v>6.09988116177761e-32</v>
+        <v>6.099877372614091e-32</v>
       </c>
       <c r="F128" t="n">
-        <v>26.65653558074877</v>
+        <v>26.65653579305426</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>184364021596199.8</v>
+        <v>0.0002105829462690373</v>
       </c>
       <c r="C129" t="n">
-        <v>4180068319935.626</v>
+        <v>4.774527553362556e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>119.8295656595521</v>
+        <v>119.8295660448611</v>
       </c>
       <c r="E129" t="n">
-        <v>1.769590845201303e-23</v>
+        <v>1.769590515471942e-23</v>
       </c>
       <c r="F129" t="n">
-        <v>19.97159427659201</v>
+        <v>19.97159434081019</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>257225892561434.7</v>
+        <v>0.0002938067079038556</v>
       </c>
       <c r="C130" t="n">
-        <v>5672158343889.621</v>
+        <v>6.478811885779609e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>113.9010310324923</v>
+        <v>113.9010310933809</v>
       </c>
       <c r="E130" t="n">
-        <v>3.103982638510424e-22</v>
+        <v>3.103982547272214e-22</v>
       </c>
       <c r="F130" t="n">
-        <v>18.98350517208205</v>
+        <v>18.98350518223016</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>258216537963258.3</v>
+        <v>0.000294938235880876</v>
       </c>
       <c r="C131" t="n">
-        <v>5850151773342.9</v>
+        <v>6.682118262786258e-06</v>
       </c>
       <c r="D131" t="n">
-        <v>107.3330502484403</v>
+        <v>107.3330494230961</v>
       </c>
       <c r="E131" t="n">
-        <v>7.370255078818979e-21</v>
+        <v>7.370258009080595e-21</v>
       </c>
       <c r="F131" t="n">
-        <v>17.88884170807338</v>
+        <v>17.88884157051602</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>238692097381457.8</v>
+        <v>0.0002726371700638242</v>
       </c>
       <c r="C132" t="n">
-        <v>5347909632542.519</v>
+        <v>6.108450859507489e-06</v>
       </c>
       <c r="D132" t="n">
-        <v>125.9763470100689</v>
+        <v>125.9763457013456</v>
       </c>
       <c r="E132" t="n">
-        <v>9.033567802858913e-25</v>
+        <v>9.033573529366494e-25</v>
       </c>
       <c r="F132" t="n">
-        <v>20.99605783501149</v>
+        <v>20.99605761689093</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>237854381140679.8</v>
+        <v>0.0002716803192754202</v>
       </c>
       <c r="C133" t="n">
-        <v>5301036230817.587</v>
+        <v>6.054911456442992e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>99.0502911997265</v>
+        <v>99.05029125517009</v>
       </c>
       <c r="E133" t="n">
-        <v>3.959659069586525e-19</v>
+        <v>3.959658964161073e-19</v>
       </c>
       <c r="F133" t="n">
-        <v>16.50838186662108</v>
+        <v>16.50838187586168</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>233825663869077.1</v>
+        <v>0.0002670786669965268</v>
       </c>
       <c r="C134" t="n">
-        <v>5271345323730.01</v>
+        <v>6.020998115118107e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>104.2998214878086</v>
+        <v>104.2998221937002</v>
       </c>
       <c r="E134" t="n">
-        <v>3.174755802858162e-20</v>
+        <v>3.174754724491138e-20</v>
       </c>
       <c r="F134" t="n">
-        <v>17.38330358130143</v>
+        <v>17.38330369895003</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>223945490849770.8</v>
+        <v>0.0002557934069628201</v>
       </c>
       <c r="C135" t="n">
-        <v>5209342807616.406</v>
+        <v>5.95017805441808e-06</v>
       </c>
       <c r="D135" t="n">
-        <v>85.03949513550275</v>
+        <v>85.03949538077919</v>
       </c>
       <c r="E135" t="n">
-        <v>3.239516844043227e-16</v>
+        <v>3.239516465002886e-16</v>
       </c>
       <c r="F135" t="n">
-        <v>14.17324918925046</v>
+        <v>14.17324923012986</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>202143550224494.8</v>
+        <v>0.0002308909514354935</v>
       </c>
       <c r="C136" t="n">
-        <v>4670329085552.839</v>
+        <v>5.334509684511911e-06</v>
       </c>
       <c r="D136" t="n">
-        <v>91.18479635663935</v>
+        <v>91.18479604385898</v>
       </c>
       <c r="E136" t="n">
-        <v>1.718989403226441e-17</v>
+        <v>1.718989660525066e-17</v>
       </c>
       <c r="F136" t="n">
-        <v>15.19746605943989</v>
+        <v>15.19746600730983</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>152189261508821.9</v>
+        <v>0.000173832523143823</v>
       </c>
       <c r="C137" t="n">
-        <v>3760318803679.239</v>
+        <v>4.295084288386755e-06</v>
       </c>
       <c r="D137" t="n">
-        <v>118.7414415377131</v>
+        <v>118.741440875529</v>
       </c>
       <c r="E137" t="n">
-        <v>2.994783651496757e-23</v>
+        <v>2.994784610206307e-23</v>
       </c>
       <c r="F137" t="n">
-        <v>19.79024025628552</v>
+        <v>19.7902401459215</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>104520913640230.7</v>
+        <v>0.0001193851257184459</v>
       </c>
       <c r="C138" t="n">
-        <v>2608131481904.971</v>
+        <v>2.979041174275729e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>131.0068305663455</v>
+        <v>131.0068302715702</v>
       </c>
       <c r="E138" t="n">
-        <v>7.888315725342769e-26</v>
+        <v>7.888316853026262e-26</v>
       </c>
       <c r="F138" t="n">
-        <v>21.83447176105757</v>
+        <v>21.83447171192836</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>196172092634525.1</v>
+        <v>0.0002240702760913497</v>
       </c>
       <c r="C139" t="n">
-        <v>4230816690540.062</v>
+        <v>4.832492991553422e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>191.6318626165767</v>
+        <v>191.6318637857337</v>
       </c>
       <c r="E139" t="n">
-        <v>1.144404993620582e-38</v>
+        <v>1.144404338444728e-38</v>
       </c>
       <c r="F139" t="n">
-        <v>31.93864376942946</v>
+        <v>31.93864396428894</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>195444047847180.6</v>
+        <v>0.0002232386936637719</v>
       </c>
       <c r="C140" t="n">
-        <v>4267601995438.37</v>
+        <v>4.874509634858337e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>197.1245130111359</v>
+        <v>197.1245138512299</v>
       </c>
       <c r="E140" t="n">
-        <v>7.765316331274552e-40</v>
+        <v>7.765313134993148e-40</v>
       </c>
       <c r="F140" t="n">
-        <v>32.85408550185598</v>
+        <v>32.85408564187166</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>190576567671781.8</v>
+        <v>0.0002176789958130921</v>
       </c>
       <c r="C141" t="n">
-        <v>4008308224722.154</v>
+        <v>4.578340974853301e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>222.927549666306</v>
+        <v>222.9275490513672</v>
       </c>
       <c r="E141" t="n">
-        <v>2.471310477815298e-45</v>
+        <v>2.471311224155902e-45</v>
       </c>
       <c r="F141" t="n">
-        <v>37.154591611051</v>
+        <v>37.1545915085612</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>160797322598729.4</v>
+        <v>0.0001836647606728776</v>
       </c>
       <c r="C142" t="n">
-        <v>3524765339032.215</v>
+        <v>4.0260321002733e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>311.1782665476488</v>
+        <v>311.1782656370428</v>
       </c>
       <c r="E142" t="n">
-        <v>3.288583938372338e-64</v>
+        <v>3.288585416551589e-64</v>
       </c>
       <c r="F142" t="n">
-        <v>51.86304442460813</v>
+        <v>51.86304427284046</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>160966346128866.6</v>
+        <v>0.0001838578215904189</v>
       </c>
       <c r="C143" t="n">
-        <v>3582177140207.089</v>
+        <v>4.091608595473137e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>318.1365654258536</v>
+        <v>318.1365664506708</v>
       </c>
       <c r="E143" t="n">
-        <v>1.059546685903709e-65</v>
+        <v>1.059546149766401e-65</v>
       </c>
       <c r="F143" t="n">
-        <v>53.02276090430894</v>
+        <v>53.0227610751118</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>260567877561979</v>
+        <v>0.0002976239653164189</v>
       </c>
       <c r="C144" t="n">
-        <v>6270465630894.198</v>
+        <v>7.162206124343366e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>391.673984675034</v>
+        <v>391.673985269896</v>
       </c>
       <c r="E144" t="n">
-        <v>1.722937523039835e-81</v>
+        <v>1.722937015791655e-81</v>
       </c>
       <c r="F144" t="n">
-        <v>65.27899744583901</v>
+        <v>65.27899754498266</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>339037926080279.4</v>
+        <v>0.0003872534598528778</v>
       </c>
       <c r="C145" t="n">
-        <v>7747856153565.212</v>
+        <v>8.849700494772257e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>424.5043027882829</v>
+        <v>424.5043038839073</v>
       </c>
       <c r="E145" t="n">
-        <v>1.502547720665598e-88</v>
+        <v>1.502546905271349e-88</v>
       </c>
       <c r="F145" t="n">
-        <v>70.75071713138048</v>
+        <v>70.75071731398455</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>330273593640417.3</v>
+        <v>0.0003772427275707542</v>
       </c>
       <c r="C146" t="n">
-        <v>7897679886633.096</v>
+        <v>9.020831097982113e-06</v>
       </c>
       <c r="D146" t="n">
-        <v>405.2520963542283</v>
+        <v>405.2520970289817</v>
       </c>
       <c r="E146" t="n">
-        <v>2.076215987435109e-84</v>
+        <v>2.076215293848103e-84</v>
       </c>
       <c r="F146" t="n">
-        <v>67.54201605903805</v>
+        <v>67.54201617149694</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>339282368141022.3</v>
+        <v>0.0003875326655518559</v>
       </c>
       <c r="C147" t="n">
-        <v>8232759758313.16</v>
+        <v>9.403563612737583e-06</v>
       </c>
       <c r="D147" t="n">
-        <v>386.7969803013513</v>
+        <v>386.7969796431349</v>
       </c>
       <c r="E147" t="n">
-        <v>1.925174898520373e-80</v>
+        <v>1.925175525593043e-80</v>
       </c>
       <c r="F147" t="n">
-        <v>64.46616338355855</v>
+        <v>64.46616327385581</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>332745759563945.5</v>
+        <v>0.0003800664673567532</v>
       </c>
       <c r="C148" t="n">
-        <v>8107427699902.524</v>
+        <v>9.260407728543873e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>392.5675451499966</v>
+        <v>392.5675446561673</v>
       </c>
       <c r="E148" t="n">
-        <v>1.107145181951777e-81</v>
+        <v>1.107145452550915e-81</v>
       </c>
       <c r="F148" t="n">
-        <v>65.42792419166609</v>
+        <v>65.42792410936121</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>337421823501353.2</v>
+        <v>0.0003854075274272148</v>
       </c>
       <c r="C149" t="n">
-        <v>8103749914177.44</v>
+        <v>9.256206915286062e-06</v>
       </c>
       <c r="D149" t="n">
-        <v>368.6496388678059</v>
+        <v>368.6496387554718</v>
       </c>
       <c r="E149" t="n">
-        <v>1.526152254044179e-76</v>
+        <v>1.526152338838628e-76</v>
       </c>
       <c r="F149" t="n">
-        <v>61.44160647796766</v>
+        <v>61.4416064592453</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>628066902083646.6</v>
+        <v>0.0007173860569437401</v>
       </c>
       <c r="C150" t="n">
-        <v>13836870272684.62</v>
+        <v>1.580465038619912e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>301.2088993629984</v>
+        <v>301.2088982695351</v>
       </c>
       <c r="E150" t="n">
-        <v>4.505379196139487e-62</v>
+        <v>4.505381626879468e-62</v>
       </c>
       <c r="F150" t="n">
-        <v>50.2014832271664</v>
+        <v>50.20148304492252</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>694598019101243</v>
+        <v>0.0007933787512741431</v>
       </c>
       <c r="C151" t="n">
-        <v>14961575292024.43</v>
+        <v>1.708930286763955e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>259.0890458531948</v>
+        <v>259.0890463714848</v>
       </c>
       <c r="E151" t="n">
-        <v>4.677796565210786e-53</v>
+        <v>4.677795371554026e-53</v>
       </c>
       <c r="F151" t="n">
-        <v>43.18150764219913</v>
+        <v>43.1815077285808</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>650954227592987.9</v>
+        <v>0.0007435282536789171</v>
       </c>
       <c r="C152" t="n">
-        <v>14211222695669.19</v>
+        <v>1.623224053656923e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>262.9930720972653</v>
+        <v>262.9930719012323</v>
       </c>
       <c r="E152" t="n">
-        <v>6.842011434150038e-54</v>
+        <v>6.842012094657671e-54</v>
       </c>
       <c r="F152" t="n">
-        <v>43.83217868287755</v>
+        <v>43.83217865020539</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>622826500742975.1</v>
+        <v>0.0007114004037787277</v>
       </c>
       <c r="C153" t="n">
-        <v>13586563306268.72</v>
+        <v>1.551874656262629e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>273.1735735908366</v>
+        <v>273.173575085779</v>
       </c>
       <c r="E153" t="n">
-        <v>4.542119918787667e-56</v>
+        <v>4.542116573034696e-56</v>
       </c>
       <c r="F153" t="n">
-        <v>45.5289289318061</v>
+        <v>45.52892918096317</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>629184934614076</v>
+        <v>0.0007186630876589722</v>
       </c>
       <c r="C154" t="n">
-        <v>13811577071735.38</v>
+        <v>1.577576016428679e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>271.1489746009644</v>
+        <v>271.1489739568711</v>
       </c>
       <c r="E154" t="n">
-        <v>1.231631316999473e-55</v>
+        <v>1.231631707834107e-55</v>
       </c>
       <c r="F154" t="n">
-        <v>45.19149576682739</v>
+        <v>45.19149565947853</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>598415889997317.1</v>
+        <v>0.0006835182918108676</v>
       </c>
       <c r="C155" t="n">
-        <v>13151897701246.21</v>
+        <v>1.502226595874472e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>261.6808077652601</v>
+        <v>261.6808080391863</v>
       </c>
       <c r="E155" t="n">
-        <v>1.305649547051629e-53</v>
+        <v>1.305649370938425e-53</v>
       </c>
       <c r="F155" t="n">
-        <v>43.61346796087668</v>
+        <v>43.61346800653106</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>569697982318499.5</v>
+        <v>0.0006507163298596525</v>
       </c>
       <c r="C156" t="n">
-        <v>12393645566849.42</v>
+        <v>1.415618064522824e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>246.9821758184193</v>
+        <v>246.9821760567708</v>
       </c>
       <c r="E156" t="n">
-        <v>1.810408196437554e-50</v>
+        <v>1.8104079841468e-50</v>
       </c>
       <c r="F156" t="n">
-        <v>41.16369596973655</v>
+        <v>41.1636960094618</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>487249699606851.3</v>
+        <v>0.0005565428453162455</v>
       </c>
       <c r="C157" t="n">
-        <v>10396606283809.42</v>
+        <v>1.187513680572276e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>198.021222298117</v>
+        <v>198.0212228220682</v>
       </c>
       <c r="E157" t="n">
-        <v>5.004302025638152e-40</v>
+        <v>5.004300740847967e-40</v>
       </c>
       <c r="F157" t="n">
-        <v>33.00353704968617</v>
+        <v>33.00353713701137</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>360953736800364.6</v>
+        <v>0.0004122859798610797</v>
       </c>
       <c r="C158" t="n">
-        <v>8004929653841.542</v>
+        <v>9.143333155513673e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>149.3910612664625</v>
+        <v>149.3910611112693</v>
       </c>
       <c r="E158" t="n">
-        <v>1.040709435318109e-29</v>
+        <v>1.04070951394029e-29</v>
       </c>
       <c r="F158" t="n">
-        <v>24.89851021107708</v>
+        <v>24.89851018521155</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>210435798840398.9</v>
+        <v>0.0002403624637803538</v>
       </c>
       <c r="C159" t="n">
-        <v>4742879244399.605</v>
+        <v>5.41737740441042e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>124.8758502843775</v>
+        <v>124.8758505840624</v>
       </c>
       <c r="E159" t="n">
-        <v>1.539322071578928e-24</v>
+        <v>1.539321848193195e-24</v>
       </c>
       <c r="F159" t="n">
-        <v>20.81264171406291</v>
+        <v>20.8126417640104</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>221438437232198.6</v>
+        <v>0.0002529298184399724</v>
       </c>
       <c r="C160" t="n">
-        <v>5227560504248.198</v>
+        <v>5.970986540300891e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>143.4329552122697</v>
+        <v>143.4329558467077</v>
       </c>
       <c r="E160" t="n">
-        <v>1.889066779692437e-28</v>
+        <v>1.88906619692329e-28</v>
       </c>
       <c r="F160" t="n">
-        <v>23.90549253537829</v>
+        <v>23.90549264111796</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>121569171069225.7</v>
+        <v>0.0001388578637871606</v>
       </c>
       <c r="C161" t="n">
-        <v>2978255902519.95</v>
+        <v>3.401802028943199e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>84.20019468364131</v>
+        <v>84.20019479456154</v>
       </c>
       <c r="E161" t="n">
-        <v>4.834151661065312e-16</v>
+        <v>4.834151405396954e-16</v>
       </c>
       <c r="F161" t="n">
-        <v>14.03336578060689</v>
+        <v>14.03336579909359</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>106406994202686.9</v>
+        <v>0.0001215394312515443</v>
       </c>
       <c r="C162" t="n">
-        <v>2737314947993.129</v>
+        <v>3.126596182409692e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>71.54089370485167</v>
+        <v>71.54089338227949</v>
       </c>
       <c r="E162" t="n">
-        <v>1.97415489854508e-13</v>
+        <v>1.97415519964317e-13</v>
       </c>
       <c r="F162" t="n">
-        <v>11.92348228414195</v>
+        <v>11.92348223037992</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>107753970898220.6</v>
+        <v>0.0001230779653442466</v>
       </c>
       <c r="C163" t="n">
-        <v>2708626189072.642</v>
+        <v>3.093827513614657e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>100.9155101716117</v>
+        <v>100.9155096700644</v>
       </c>
       <c r="E163" t="n">
-        <v>1.616259372197805e-19</v>
+        <v>1.616259761765783e-19</v>
       </c>
       <c r="F163" t="n">
-        <v>16.81925169526862</v>
+        <v>16.81925161167739</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>105320789771666.6</v>
+        <v>0.0001202987546877918</v>
       </c>
       <c r="C164" t="n">
-        <v>2654492193482.952</v>
+        <v>3.031994972131343e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>112.9239259176538</v>
+        <v>112.9239272117186</v>
       </c>
       <c r="E164" t="n">
-        <v>4.974431779680054e-22</v>
+        <v>4.974428673054566e-22</v>
       </c>
       <c r="F164" t="n">
-        <v>18.82065431960897</v>
+        <v>18.82065453528644</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>104456940899816.3</v>
+        <v>0.0001193120552528599</v>
       </c>
       <c r="C165" t="n">
-        <v>2705039024381.283</v>
+        <v>3.089730208629089e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>132.7150130726179</v>
+        <v>132.7150128022662</v>
       </c>
       <c r="E165" t="n">
-        <v>3.444600007360099e-26</v>
+        <v>3.444600459164447e-26</v>
       </c>
       <c r="F165" t="n">
-        <v>22.11916884543632</v>
+        <v>22.1191688003777</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>109426120075695.7</v>
+        <v>0.0001249879154470789</v>
       </c>
       <c r="C166" t="n">
-        <v>2930807862525.148</v>
+        <v>3.347606264704696e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>118.3718739666626</v>
+        <v>118.3718739971235</v>
       </c>
       <c r="E166" t="n">
-        <v>3.580585881867978e-23</v>
+        <v>3.58058582914584e-23</v>
       </c>
       <c r="F166" t="n">
-        <v>19.72864566111044</v>
+        <v>19.72864566618724</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>106617809290808.9</v>
+        <v>0.0001217802268495413</v>
       </c>
       <c r="C167" t="n">
-        <v>2610755890445.081</v>
+        <v>2.982038805705442e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>152.2738017518469</v>
+        <v>152.2738023070226</v>
       </c>
       <c r="E167" t="n">
-        <v>2.557004194959197e-30</v>
+        <v>2.557003503566289e-30</v>
       </c>
       <c r="F167" t="n">
-        <v>25.37896695864114</v>
+        <v>25.37896705117044</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>109074307821905.9</v>
+        <v>0.0001245860710339638</v>
       </c>
       <c r="C168" t="n">
-        <v>2600938387603.276</v>
+        <v>2.970825128714047e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>184.595013008328</v>
+        <v>184.5950123146095</v>
       </c>
       <c r="E168" t="n">
-        <v>3.584777462133166e-37</v>
+        <v>3.584778678894873e-37</v>
       </c>
       <c r="F168" t="n">
-        <v>30.765835501388</v>
+        <v>30.76583538576824</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>114943478706301.8</v>
+        <v>0.0001312899131711445</v>
       </c>
       <c r="C169" t="n">
-        <v>2638613379229.315</v>
+        <v>3.013857986098196e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>212.7100905542701</v>
+        <v>212.7100906867584</v>
       </c>
       <c r="E169" t="n">
-        <v>3.726004007037545e-43</v>
+        <v>3.726003764809567e-43</v>
       </c>
       <c r="F169" t="n">
-        <v>35.45168175904502</v>
+        <v>35.4516817811264</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>114353088419663.3</v>
+        <v>0.0001306155619201276</v>
       </c>
       <c r="C170" t="n">
-        <v>2749414803857.823</v>
+        <v>3.140416792096713e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>240.1244348394017</v>
+        <v>240.1244348683261</v>
       </c>
       <c r="E170" t="n">
-        <v>5.280297280566616e-49</v>
+        <v>5.280297205463232e-49</v>
       </c>
       <c r="F170" t="n">
-        <v>40.02073913990028</v>
+        <v>40.02073914472103</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>123933199805114.2</v>
+        <v>0.0001415580877814102</v>
       </c>
       <c r="C171" t="n">
-        <v>2746180100974.804</v>
+        <v>3.136722073668759e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>312.9035369353011</v>
+        <v>312.9035372377497</v>
       </c>
       <c r="E171" t="n">
-        <v>1.403275291997034e-64</v>
+        <v>1.403275082483154e-64</v>
       </c>
       <c r="F171" t="n">
-        <v>52.15058948921686</v>
+        <v>52.15058953962495</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>148000873959779</v>
+        <v>0.0001690484932337146</v>
       </c>
       <c r="C172" t="n">
-        <v>3333516353847.933</v>
+        <v>3.807585060806992e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>387.4746495443116</v>
+        <v>387.4746492346537</v>
       </c>
       <c r="E172" t="n">
-        <v>1.376666575369704e-80</v>
+        <v>1.376666786328555e-80</v>
       </c>
       <c r="F172" t="n">
-        <v>64.57910825738527</v>
+        <v>64.57910820577561</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>182392061064026.3</v>
+        <v>0.000208330547761041</v>
       </c>
       <c r="C173" t="n">
-        <v>4429329077910.055</v>
+        <v>5.059236387383256e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>511.8473891854825</v>
+        <v>511.8473882138325</v>
       </c>
       <c r="E173" t="n">
-        <v>2.356875005668895e-107</v>
+        <v>2.356876141784794e-107</v>
       </c>
       <c r="F173" t="n">
-        <v>85.30789819758041</v>
+        <v>85.30789803563874</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>223259610851420.6</v>
+        <v>0.0002550099861855442</v>
       </c>
       <c r="C174" t="n">
-        <v>5217218075531.49</v>
+        <v>5.959173280877672e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>635.0079243665369</v>
+        <v>635.0079228478648</v>
       </c>
       <c r="E174" t="n">
-        <v>6.531083036486091e-134</v>
+        <v>6.531087964634026e-134</v>
       </c>
       <c r="F174" t="n">
-        <v>105.8346540610895</v>
+        <v>105.8346538079775</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>243146634500830.6</v>
+        <v>0.000277725199069637</v>
       </c>
       <c r="C175" t="n">
-        <v>6078083451766.096</v>
+        <v>6.94246474472512e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>631.0688294530746</v>
+        <v>631.0688300734158</v>
       </c>
       <c r="E175" t="n">
-        <v>4.623395462141943e-133</v>
+        <v>4.623394037161484e-133</v>
       </c>
       <c r="F175" t="n">
-        <v>105.1781382421791</v>
+        <v>105.1781383455693</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>301082150160618.2</v>
+        <v>0.0003438998870492421</v>
       </c>
       <c r="C176" t="n">
-        <v>7870823037102.179</v>
+        <v>8.990154853246447e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>681.0311973458703</v>
+        <v>681.0311971301484</v>
       </c>
       <c r="E176" t="n">
-        <v>7.616392415634289e-144</v>
+        <v>7.616393232334929e-144</v>
       </c>
       <c r="F176" t="n">
-        <v>113.505199557645</v>
+        <v>113.5051995216914</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>380636227466760.9</v>
+        <v>0.0004347675725830006</v>
       </c>
       <c r="C177" t="n">
-        <v>9819551313856.457</v>
+        <v>1.121601722597525e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>730.6596785930162</v>
+        <v>730.6596801538549</v>
       </c>
       <c r="E177" t="n">
-        <v>1.465495706347804e-154</v>
+        <v>1.465494568891087e-154</v>
       </c>
       <c r="F177" t="n">
-        <v>121.776613098836</v>
+        <v>121.7766133589758</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>417917577553522.8</v>
+        <v>0.0004773508083672442</v>
       </c>
       <c r="C178" t="n">
-        <v>11120647773447.72</v>
+        <v>1.270214628354978e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>686.3933827154782</v>
+        <v>686.3933824453641</v>
       </c>
       <c r="E178" t="n">
-        <v>5.298559170668446e-145</v>
+        <v>5.298559882118234e-145</v>
       </c>
       <c r="F178" t="n">
-        <v>114.3988971192464</v>
+        <v>114.3988970742273</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>470659406239995.8</v>
+        <v>0.0005375932003344823</v>
       </c>
       <c r="C179" t="n">
-        <v>12323799047466.83</v>
+        <v>1.407640107051141e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>674.1434845308968</v>
+        <v>674.1434837677148</v>
       </c>
       <c r="E179" t="n">
-        <v>2.336651133904991e-142</v>
+        <v>2.336652020275393e-142</v>
       </c>
       <c r="F179" t="n">
-        <v>112.3572474218161</v>
+        <v>112.3572472946191</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>577683296742322.4</v>
+        <v>0.0006598967182685283</v>
       </c>
       <c r="C180" t="n">
-        <v>14791379263470.89</v>
+        <v>1.155166592209085e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>661.4202769399432</v>
+        <v>1346.569172975841</v>
       </c>
       <c r="E180" t="n">
-        <v>1.302876334339496e-139</v>
+        <v>4.961917288267461e-280</v>
       </c>
       <c r="F180" t="n">
-        <v>110.2367128233239</v>
+        <v>103.5822440750647</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>577781055030902.9</v>
+        <v>0.001075461089178302</v>
       </c>
       <c r="C181" t="n">
-        <v>13859135341697.56</v>
+        <v>2.58528000269332e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>685.1488736410043</v>
+        <v>522.7979073090086</v>
       </c>
       <c r="E181" t="n">
-        <v>9.836210577982105e-145</v>
+        <v>1.029858036150177e-109</v>
       </c>
       <c r="F181" t="n">
-        <v>114.1914789401674</v>
+        <v>87.13298455150142</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>941559301080756.1</v>
+        <v>0.001362091186132733</v>
       </c>
       <c r="C182" t="n">
-        <v>22633960985203</v>
+        <v>3.216154372258643e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>522.7979061705237</v>
+        <v>469.444351604958</v>
       </c>
       <c r="E182" t="n">
-        <v>1.029858617920998e-109</v>
+        <v>3.200611572447897e-98</v>
       </c>
       <c r="F182" t="n">
-        <v>87.13298436175394</v>
+        <v>78.240725267493</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>1192502118384947</v>
+        <v>0.001742421046063315</v>
       </c>
       <c r="C183" t="n">
-        <v>28157225696885</v>
+        <v>3.891339109773651e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>469.444353138225</v>
+        <v>504.7455658664378</v>
       </c>
       <c r="E183" t="n">
-        <v>3.200609139570934e-98</v>
+        <v>7.987110297928664e-106</v>
       </c>
       <c r="F183" t="n">
-        <v>78.24072552303751</v>
+        <v>84.12426097773964</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>1525478474860812</v>
+        <v>0.001948395373039602</v>
       </c>
       <c r="C184" t="n">
-        <v>34068424885549.38</v>
+        <v>4.39153065609789e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>504.745564867296</v>
+        <v>554.1974354901531</v>
       </c>
       <c r="E184" t="n">
-        <v>7.98711425656203e-106</v>
+        <v>1.757638404902895e-116</v>
       </c>
       <c r="F184" t="n">
-        <v>84.124260811216</v>
+        <v>92.36623924835885</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>1705807680236196</v>
+        <v>0.00194800611347645</v>
       </c>
       <c r="C185" t="n">
-        <v>38447569835492.73</v>
+        <v>4.246017247509423e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>554.1974367135682</v>
+        <v>523.1823368825526</v>
       </c>
       <c r="E185" t="n">
-        <v>1.757637337474706e-116</v>
+        <v>8.510117671802493e-110</v>
       </c>
       <c r="F185" t="n">
-        <v>92.36623945226137</v>
+        <v>87.1970561470921</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>1705466884598958</v>
+        <v>0.001931753062417822</v>
       </c>
       <c r="C186" t="n">
-        <v>37173609279001.22</v>
+        <v>4.228290657898864e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>523.1823379655601</v>
+        <v>494.0614366108798</v>
       </c>
       <c r="E186" t="n">
-        <v>8.510113098641051e-110</v>
+        <v>1.599227264013367e-103</v>
       </c>
       <c r="F186" t="n">
-        <v>87.19705632759336</v>
+        <v>82.34357276847996</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>1691237441733093</v>
+        <v>0.001998692017509478</v>
       </c>
       <c r="C187" t="n">
-        <v>37018414120059.88</v>
+        <v>4.335695720736178e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>494.061437262272</v>
+        <v>454.1723399396053</v>
       </c>
       <c r="E187" t="n">
-        <v>1.599226747351231e-103</v>
+        <v>6.207342701945131e-95</v>
       </c>
       <c r="F187" t="n">
-        <v>82.34357287704533</v>
+        <v>75.69538998993421</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>1749842068394939</v>
+        <v>0.001587542917230739</v>
       </c>
       <c r="C188" t="n">
-        <v>37958738540145.06</v>
+        <v>3.396452620264176e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>454.1723419372562</v>
+        <v>463.1723556350574</v>
       </c>
       <c r="E188" t="n">
-        <v>6.207336556261128e-95</v>
+        <v>7.17045516859252e-97</v>
       </c>
       <c r="F188" t="n">
-        <v>75.69539032287604</v>
+        <v>77.19539260584291</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>1389883662154455</v>
+        <v>0.001235339855467842</v>
       </c>
       <c r="C189" t="n">
-        <v>29735725333837.03</v>
+        <v>2.661045844545511e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>463.1723551256201</v>
+        <v>415.0076548180616</v>
       </c>
       <c r="E189" t="n">
-        <v>7.170456979336287e-97</v>
+        <v>1.657451540027635e-86</v>
       </c>
       <c r="F189" t="n">
-        <v>77.19539252093669</v>
+        <v>69.16794246967693</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>1081532137800761</v>
+        <v>0.000933696391338131</v>
       </c>
       <c r="C190" t="n">
-        <v>23297286058997.11</v>
+        <v>2.00127817681682e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>415.0076562319924</v>
+        <v>333.2002118040918</v>
       </c>
       <c r="E190" t="n">
-        <v>1.657450379506612e-86</v>
+        <v>6.223394972170823e-69</v>
       </c>
       <c r="F190" t="n">
-        <v>69.16794270533207</v>
+        <v>55.5333686340153</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>817445215491878</v>
+        <v>0.0006791844018745743</v>
       </c>
       <c r="C191" t="n">
-        <v>17521062362663.29</v>
+        <v>1.458527424059231e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>333.2002124684226</v>
+        <v>271.1121054864346</v>
       </c>
       <c r="E191" t="n">
-        <v>6.223392929641721e-69</v>
+        <v>1.254207829927288e-55</v>
       </c>
       <c r="F191" t="n">
-        <v>55.53336874473711</v>
+        <v>45.18535091440577</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>594621597264753</v>
+        <v>0.0004984251441309678</v>
       </c>
       <c r="C192" t="n">
-        <v>12769314258809.64</v>
+        <v>1.09724737636002e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>271.1121050157804</v>
+        <v>229.1543734218501</v>
       </c>
       <c r="E192" t="n">
-        <v>1.254208120753885e-55</v>
+        <v>1.160130413704093e-46</v>
       </c>
       <c r="F192" t="n">
-        <v>45.1853508359634</v>
+        <v>38.19239557030836</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>436368023834927.8</v>
+        <v>0.0003967418787587953</v>
       </c>
       <c r="C193" t="n">
-        <v>9606330554906.658</v>
+        <v>6.257321883530308e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>229.1543738212665</v>
+        <v>365.5176931363961</v>
       </c>
       <c r="E193" t="n">
-        <v>1.160130186025481e-46</v>
+        <v>4.199025879578236e-70</v>
       </c>
       <c r="F193" t="n">
-        <v>38.19239563687776</v>
+        <v>28.11674562587663</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>340507438002477.7</v>
+        <v>0.0003693672189754635</v>
       </c>
       <c r="C194" t="n">
-        <v>7784947289085.07</v>
+        <v>7.903631209120664e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>192.5933822268094</v>
+        <v>154.530668390432</v>
       </c>
       <c r="E194" t="n">
-        <v>7.146451389700869e-39</v>
+        <v>8.516703011340383e-31</v>
       </c>
       <c r="F194" t="n">
-        <v>32.09889703780156</v>
+        <v>25.75511139840533</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>354052204508360.2</v>
+        <v>0.0003368137676075145</v>
       </c>
       <c r="C195" t="n">
-        <v>7710408042644.762</v>
+        <v>7.280934343129848e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>171.396183035936</v>
+        <v>165.7246851534321</v>
       </c>
       <c r="E195" t="n">
-        <v>2.274252065991025e-34</v>
+        <v>3.626666264550446e-33</v>
       </c>
       <c r="F195" t="n">
-        <v>28.56603050598934</v>
+        <v>27.62078085890534</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>323378636505407.6</v>
+        <v>0.0003393790475712694</v>
       </c>
       <c r="C196" t="n">
-        <v>6919578545232.656</v>
+        <v>7.172771720277912e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>154.5306684529727</v>
+        <v>155.8711434547713</v>
       </c>
       <c r="E196" t="n">
-        <v>8.516702751824646e-31</v>
+        <v>4.431966533633767e-31</v>
       </c>
       <c r="F196" t="n">
-        <v>25.75511140882878</v>
+        <v>25.97852390912855</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>294878297912940.7</v>
+        <v>0.0003039844667308681</v>
       </c>
       <c r="C197" t="n">
-        <v>6374411420495.769</v>
+        <v>6.44475263921081e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>165.724684701118</v>
+        <v>143.7398260883905</v>
       </c>
       <c r="E197" t="n">
-        <v>3.626667065188863e-33</v>
+        <v>1.627202627694654e-28</v>
       </c>
       <c r="F197" t="n">
-        <v>27.62078078351967</v>
+        <v>23.95663768139842</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>297124184114020.7</v>
+        <v>0.0002997412402147739</v>
       </c>
       <c r="C198" t="n">
-        <v>6279715738304.983</v>
+        <v>6.254500577208286e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>155.8711433782834</v>
+        <v>153.3157177877327</v>
       </c>
       <c r="E198" t="n">
-        <v>4.431966698835745e-31</v>
+        <v>1.539315790828467e-30</v>
       </c>
       <c r="F198" t="n">
-        <v>25.97852389638058</v>
+        <v>25.55261963128879</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>266136455299916.5</v>
+        <v>0.000295503436266447</v>
       </c>
       <c r="C199" t="n">
-        <v>5642339698288.567</v>
+        <v>6.136814536933745e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>143.7398261426438</v>
+        <v>142.6624934277899</v>
       </c>
       <c r="E199" t="n">
-        <v>1.627202584765351e-28</v>
+        <v>2.747502353649507e-28</v>
       </c>
       <c r="F199" t="n">
-        <v>23.95663769044064</v>
+        <v>23.77708223796499</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>262421537684311.8</v>
+        <v>0.0003083152018301991</v>
       </c>
       <c r="C200" t="n">
-        <v>5475775233096.657</v>
+        <v>6.852036796867104e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>153.3157182658432</v>
+        <v>136.436019941453</v>
       </c>
       <c r="E200" t="n">
-        <v>1.539315432322437e-30</v>
+        <v>5.659701960002405e-27</v>
       </c>
       <c r="F200" t="n">
-        <v>25.55261971097386</v>
+        <v>22.73933665690883</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>258711367354368.9</v>
+        <v>0.0002874572431500949</v>
       </c>
       <c r="C201" t="n">
-        <v>5372741851943.372</v>
+        <v>5.944467009409289e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>142.6624930725615</v>
+        <v>165.5288751790827</v>
       </c>
       <c r="E201" t="n">
-        <v>2.747502828154288e-28</v>
+        <v>3.990365776811281e-33</v>
       </c>
       <c r="F201" t="n">
-        <v>23.77708217876024</v>
+        <v>27.58814586318045</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>269927985932423.6</v>
+        <v>0.0003561945944279973</v>
       </c>
       <c r="C202" t="n">
-        <v>5998914363800.061</v>
+        <v>7.937526885714002e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>136.4360200775488</v>
+        <v>160.9222468509933</v>
       </c>
       <c r="E202" t="n">
-        <v>5.659701585997431e-27</v>
+        <v>3.776715966335507e-32</v>
       </c>
       <c r="F202" t="n">
-        <v>22.73933667959146</v>
+        <v>26.82037447516555</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>251666976742043.6</v>
+        <v>0.0003398312185177554</v>
       </c>
       <c r="C203" t="n">
-        <v>5204342823006.813</v>
+        <v>7.589515397816748e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>165.5288748591665</v>
+        <v>171.3242210555383</v>
       </c>
       <c r="E203" t="n">
-        <v>3.990366399864653e-33</v>
+        <v>2.355615695119673e-34</v>
       </c>
       <c r="F203" t="n">
-        <v>27.58814580986109</v>
+        <v>28.55403684258972</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>311846087979182.4</v>
+        <v>0.0003399624317145012</v>
       </c>
       <c r="C204" t="n">
-        <v>6949253984781.926</v>
+        <v>7.589836385012887e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>160.9222466835339</v>
+        <v>164.1990726806235</v>
       </c>
       <c r="E204" t="n">
-        <v>3.776716274796318e-32</v>
+        <v>7.635799081259528e-33</v>
       </c>
       <c r="F204" t="n">
-        <v>26.82037444725565</v>
+        <v>27.36651211343724</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>297520056740164.1</v>
+        <v>0.0003306364014536785</v>
       </c>
       <c r="C205" t="n">
-        <v>6644572151519.895</v>
+        <v>7.434238057694064e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>171.3242224462646</v>
+        <v>194.0649092514466</v>
       </c>
       <c r="E205" t="n">
-        <v>2.355614094908993e-34</v>
+        <v>3.476124613398827e-39</v>
       </c>
       <c r="F205" t="n">
-        <v>28.55403707437744</v>
+        <v>32.34415154190777</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>297634933387461.6</v>
+        <v>0.0003290922261424332</v>
       </c>
       <c r="C206" t="n">
-        <v>6644853179871.997</v>
+        <v>7.439605830919633e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>164.1990727446556</v>
+        <v>175.2295999902967</v>
       </c>
       <c r="E206" t="n">
-        <v>7.635798842673959e-33</v>
+        <v>3.49473024854437e-35</v>
       </c>
       <c r="F206" t="n">
-        <v>27.36651212410927</v>
+        <v>29.20493333171611</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>289470053883297.8</v>
+        <v>0.0003297014065332903</v>
       </c>
       <c r="C207" t="n">
-        <v>6508627850511.086</v>
+        <v>6.974079604156593e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>194.0649087563328</v>
+        <v>175.4520308638531</v>
       </c>
       <c r="E207" t="n">
-        <v>3.476125456383231e-39</v>
+        <v>3.134748501870791e-35</v>
       </c>
       <c r="F207" t="n">
-        <v>32.3441514593888</v>
+        <v>29.24200514397552</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>288118137816150.3</v>
+        <v>0.0003285258702307172</v>
       </c>
       <c r="C208" t="n">
-        <v>6513327291786.436</v>
+        <v>7.259313426336835e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>175.2296002261092</v>
+        <v>170.2060181919295</v>
       </c>
       <c r="E208" t="n">
-        <v>3.494729845792423e-35</v>
+        <v>4.067223095300528e-34</v>
       </c>
       <c r="F208" t="n">
-        <v>29.2049333710182</v>
+        <v>28.36766969865492</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>288651471754773.4</v>
+        <v>0.0002908479317305189</v>
       </c>
       <c r="C209" t="n">
-        <v>6105762064576.426</v>
+        <v>6.03207049000698e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>175.4520305733472</v>
+        <v>189.5192518072024</v>
       </c>
       <c r="E209" t="n">
-        <v>3.134748946939915e-35</v>
+        <v>3.219582862366177e-38</v>
       </c>
       <c r="F209" t="n">
-        <v>29.24200509555786</v>
+        <v>31.58654196786706</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>287622297047007.4</v>
+        <v>0.0002536064540960768</v>
       </c>
       <c r="C210" t="n">
-        <v>6355482447572.441</v>
+        <v>5.233812257992512e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>170.2060182568542</v>
+        <v>156.5142269435023</v>
       </c>
       <c r="E210" t="n">
-        <v>4.067222966335432e-34</v>
+        <v>3.239538067603233e-31</v>
       </c>
       <c r="F210" t="n">
-        <v>28.36766970947569</v>
+        <v>26.08570449058371</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>254635502981600.1</v>
+        <v>0.0002437986724122633</v>
       </c>
       <c r="C211" t="n">
-        <v>5281039110677.123</v>
+        <v>4.963773843763405e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>189.5192511620194</v>
+        <v>149.4153996960445</v>
       </c>
       <c r="E211" t="n">
-        <v>3.219583879286795e-38</v>
+        <v>1.028452107681201e-29</v>
       </c>
       <c r="F211" t="n">
-        <v>31.58654186033656</v>
+        <v>24.90256661600742</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>222030827584103.2</v>
+        <v>0.0002505269190298843</v>
       </c>
       <c r="C212" t="n">
-        <v>4582169133857.864</v>
+        <v>5.081638835891363e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>156.514227208754</v>
+        <v>166.8384748513902</v>
       </c>
       <c r="E212" t="n">
-        <v>3.239537648796851e-31</v>
+        <v>2.105713545855102e-33</v>
       </c>
       <c r="F212" t="n">
-        <v>26.08570453479233</v>
+        <v>27.8064124752317</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>213444177572229.9</v>
+        <v>0.0002433730752510813</v>
       </c>
       <c r="C213" t="n">
-        <v>4345752228328.008</v>
+        <v>4.899845063932935e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>149.4153998453155</v>
+        <v>149.6302719374906</v>
       </c>
       <c r="E213" t="n">
-        <v>1.028452032949582e-29</v>
+        <v>9.263106914154193e-30</v>
       </c>
       <c r="F213" t="n">
-        <v>24.90256664088592</v>
+        <v>24.93837865624843</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>219334714295106.2</v>
+        <v>0.0002393684827766842</v>
       </c>
       <c r="C214" t="n">
-        <v>4448942275767.974</v>
+        <v>4.793831471525397e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>166.838475414426</v>
+        <v>142.0471708379596</v>
       </c>
       <c r="E214" t="n">
-        <v>2.105712967101264e-33</v>
+        <v>3.705543871527139e-28</v>
       </c>
       <c r="F214" t="n">
-        <v>27.806412569071</v>
+        <v>23.67452847299327</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>213071570051559</v>
+        <v>0.0002367072221599989</v>
       </c>
       <c r="C215" t="n">
-        <v>4289782993405.983</v>
+        <v>4.693923284796055e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>149.630271686905</v>
+        <v>139.5221223989171</v>
       </c>
       <c r="E215" t="n">
-        <v>9.263108044143438e-30</v>
+        <v>1.264158342526292e-27</v>
       </c>
       <c r="F215" t="n">
-        <v>24.93837861448417</v>
+        <v>23.25368706648619</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>209565574914244</v>
+        <v>0.0002415488612184573</v>
       </c>
       <c r="C216" t="n">
-        <v>4196968777133.451</v>
+        <v>4.823148301361856e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>142.0471700419494</v>
+        <v>150.6475622444114</v>
       </c>
       <c r="E216" t="n">
-        <v>3.705545305406704e-28</v>
+        <v>5.644972209512361e-30</v>
       </c>
       <c r="F216" t="n">
-        <v>23.6745283403249</v>
+        <v>25.10792704073523</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>207235658072981</v>
+        <v>0.0002559677334003926</v>
       </c>
       <c r="C217" t="n">
-        <v>4109499791322.203</v>
+        <v>5.073264378827353e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>139.5221227787325</v>
+        <v>128.2517698929065</v>
       </c>
       <c r="E217" t="n">
-        <v>1.26415810923704e-27</v>
+        <v>2.999588519634062e-25</v>
       </c>
       <c r="F217" t="n">
-        <v>23.25368712978875</v>
+        <v>21.37529498215108</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>211474482025753.8</v>
+        <v>0.0002567554529785965</v>
       </c>
       <c r="C218" t="n">
-        <v>4222635476054.001</v>
+        <v>5.115404615069524e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>150.6475628577779</v>
+        <v>133.6001068258093</v>
       </c>
       <c r="E218" t="n">
-        <v>5.644970523651532e-30</v>
+        <v>2.241970813763865e-26</v>
       </c>
       <c r="F218" t="n">
-        <v>25.10792714296298</v>
+        <v>22.26668447096823</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>224098112352767.5</v>
+        <v>0.0002443915715978272</v>
       </c>
       <c r="C219" t="n">
-        <v>4441610492647.124</v>
+        <v>4.920050564221931e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>128.251770088645</v>
+        <v>164.3863183639572</v>
       </c>
       <c r="E219" t="n">
-        <v>2.999588235079763e-25</v>
+        <v>6.969032651173821e-33</v>
       </c>
       <c r="F219" t="n">
-        <v>21.37529501477417</v>
+        <v>27.39771972732619</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>224787755658480.5</v>
+        <v>0.0002494441329073043</v>
       </c>
       <c r="C220" t="n">
-        <v>4478503995946.623</v>
+        <v>5.005976070165127e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>133.6001073796518</v>
+        <v>199.0113833240187</v>
       </c>
       <c r="E220" t="n">
-        <v>2.241970211224748e-26</v>
+        <v>3.080502050855706e-40</v>
       </c>
       <c r="F220" t="n">
-        <v>22.26668456327531</v>
+        <v>33.16856388733645</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>213963256900471.2</v>
+        <v>0.0002601804371297046</v>
       </c>
       <c r="C221" t="n">
-        <v>4307472776937.046</v>
+        <v>5.263279198214615e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>164.386318792244</v>
+        <v>215.5435466441049</v>
       </c>
       <c r="E221" t="n">
-        <v>6.969031194673706e-33</v>
+        <v>9.275827621094324e-44</v>
       </c>
       <c r="F221" t="n">
-        <v>27.39771979870733</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>218386741965492.5</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4382700013275.607</v>
-      </c>
-      <c r="D222" t="n">
-        <v>199.0113830837759</v>
-      </c>
-      <c r="E222" t="n">
-        <v>3.080502413527157e-40</v>
-      </c>
-      <c r="F222" t="n">
-        <v>33.16856384729599</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>227786307600113.9</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4607967250693.078</v>
-      </c>
-      <c r="D223" t="n">
-        <v>215.5435463589346</v>
-      </c>
-      <c r="E223" t="n">
-        <v>9.275828919372973e-44</v>
-      </c>
-      <c r="F223" t="n">
-        <v>35.92392439315577</v>
+        <v>35.92392444068415</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/a1/a0/a1_a0Fit.xlsx
+++ b/legendre_out/DATA/a1/a0/a1_a0Fit.xlsx
@@ -398,19 +398,19 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>2.727400246433873e-05</v>
+        <v>2.726777347387017e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>6.139123436368996e-07</v>
+        <v>6.187291804932688e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>234.5452378786044</v>
+        <v>254.4534260955005</v>
       </c>
       <c r="E2" t="n">
-        <v>8.201970321687798e-48</v>
+        <v>4.582410688373888e-52</v>
       </c>
       <c r="F2" t="n">
-        <v>39.0908729797674</v>
+        <v>42.40890434925009</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>2.572547935398246e-05</v>
+        <v>2.524081774535264e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>6.340309626561014e-07</v>
+        <v>6.286511175813598e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>232.2259010969374</v>
+        <v>245.1502898183282</v>
       </c>
       <c r="E3" t="n">
-        <v>2.564471120108096e-47</v>
+        <v>4.458118900554012e-50</v>
       </c>
       <c r="F3" t="n">
-        <v>38.70431684948957</v>
+        <v>40.85838163638802</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>2.459057184127591e-05</v>
+        <v>2.479620928197865e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16592083880648e-07</v>
+        <v>6.18873349463091e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>183.9360048415794</v>
+        <v>188.4023684032726</v>
       </c>
       <c r="E4" t="n">
-        <v>4.948701804966184e-37</v>
+        <v>5.562219629988727e-38</v>
       </c>
       <c r="F4" t="n">
-        <v>30.65600080692991</v>
+        <v>31.40039473387876</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +458,19 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>2.34041191099761e-05</v>
+        <v>2.263007255307621e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>6.070543502900894e-07</v>
+        <v>6.007424093859725e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>174.3062387603948</v>
+        <v>213.2890362142361</v>
       </c>
       <c r="E5" t="n">
-        <v>5.48759977561445e-35</v>
+        <v>2.804565449035302e-43</v>
       </c>
       <c r="F5" t="n">
-        <v>29.05103979339913</v>
+        <v>35.54817270237267</v>
       </c>
     </row>
     <row r="6">
@@ -478,19 +478,19 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>2.354516854437204e-05</v>
+        <v>2.318508688232764e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>6.474032962545439e-07</v>
+        <v>6.421221245542541e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>152.0427572493962</v>
+        <v>157.8109094126703</v>
       </c>
       <c r="E6" t="n">
-        <v>2.861544731224367e-30</v>
+        <v>1.721818229832317e-31</v>
       </c>
       <c r="F6" t="n">
-        <v>25.34045954156604</v>
+        <v>26.30181823544504</v>
       </c>
     </row>
     <row r="7">
@@ -498,19 +498,19 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>2.248272369641747e-05</v>
+        <v>2.351027877683289e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>6.381458026676349e-07</v>
+        <v>6.529552726612487e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>179.8312080683729</v>
+        <v>144.5995712682732</v>
       </c>
       <c r="E7" t="n">
-        <v>3.685095364357832e-36</v>
+        <v>1.071169734595915e-28</v>
       </c>
       <c r="F7" t="n">
-        <v>29.97186801139548</v>
+        <v>24.0999285447122</v>
       </c>
     </row>
     <row r="8">
@@ -518,19 +518,19 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>2.222249314291962e-05</v>
+        <v>2.142863070358748e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>5.765478586383128e-07</v>
+        <v>5.658233675261187e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>155.326287990506</v>
+        <v>186.5114122593876</v>
       </c>
       <c r="E8" t="n">
-        <v>5.779734637610322e-31</v>
+        <v>1.403445687708692e-37</v>
       </c>
       <c r="F8" t="n">
-        <v>25.88771466508434</v>
+        <v>31.0852353765646</v>
       </c>
     </row>
     <row r="9">
@@ -538,19 +538,19 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>1.891632633580073e-05</v>
+        <v>1.897599012566188e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>5.050647988428335e-07</v>
+        <v>5.069361127876871e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>187.6903352835112</v>
+        <v>180.3433911304222</v>
       </c>
       <c r="E9" t="n">
-        <v>7.881524629758559e-38</v>
+        <v>2.868616578821018e-36</v>
       </c>
       <c r="F9" t="n">
-        <v>31.28172254725186</v>
+        <v>30.05723185507037</v>
       </c>
     </row>
     <row r="10">
@@ -558,19 +558,19 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>1.729786725838625e-05</v>
+        <v>1.782331284072039e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>5.167223637588821e-07</v>
+        <v>5.225332398268891e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>96.63852062251358</v>
+        <v>90.09827989863304</v>
       </c>
       <c r="E10" t="n">
-        <v>1.260066600173379e-18</v>
+        <v>2.890845713429148e-17</v>
       </c>
       <c r="F10" t="n">
-        <v>16.10642010375226</v>
+        <v>15.01637998310551</v>
       </c>
     </row>
     <row r="11">
@@ -578,19 +578,19 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>1.190347014776923e-05</v>
+        <v>1.188524073093194e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>4.130712814024881e-07</v>
+        <v>4.104118278369049e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>83.34144573684468</v>
+        <v>82.01201868437329</v>
       </c>
       <c r="E11" t="n">
-        <v>7.2795320118884e-16</v>
+        <v>1.371372163948491e-15</v>
       </c>
       <c r="F11" t="n">
-        <v>13.89024095614078</v>
+        <v>13.66866978072888</v>
       </c>
     </row>
     <row r="12">
@@ -598,19 +598,19 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>7.601315937108247e-06</v>
+        <v>7.102691513793236e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>2.921057076021696e-07</v>
+        <v>2.846609733525746e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>83.79842317323303</v>
+        <v>104.3683244645053</v>
       </c>
       <c r="E12" t="n">
-        <v>5.854747355895173e-16</v>
+        <v>3.071810788888656e-20</v>
       </c>
       <c r="F12" t="n">
-        <v>13.9664038622055</v>
+        <v>17.39472074408422</v>
       </c>
     </row>
     <row r="13">
@@ -618,19 +618,19 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>5.728498978533194e-06</v>
+        <v>5.610695003317081e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>2.497922009421267e-07</v>
+        <v>2.451294565132608e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>43.8077289445133</v>
+        <v>57.65124342451313</v>
       </c>
       <c r="E13" t="n">
-        <v>8.070253053761394e-08</v>
+        <v>1.348430297684295e-10</v>
       </c>
       <c r="F13" t="n">
-        <v>7.301288157418884</v>
+        <v>9.608540570752188</v>
       </c>
     </row>
     <row r="14">
@@ -638,19 +638,19 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>2.113827730860427e-05</v>
+        <v>2.132358310532541e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>5.199437176675013e-07</v>
+        <v>5.273194552864719e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>145.4280659218524</v>
+        <v>164.9806034425899</v>
       </c>
       <c r="E14" t="n">
-        <v>7.158911528620814e-29</v>
+        <v>5.214606195667412e-33</v>
       </c>
       <c r="F14" t="n">
-        <v>24.2380109869754</v>
+        <v>27.49676724043166</v>
       </c>
     </row>
     <row r="15">
@@ -658,19 +658,19 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>3.530901127533907e-05</v>
+        <v>3.464470315311127e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>7.995594417058946e-07</v>
+        <v>7.935835651372865e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>157.6440941935261</v>
+        <v>175.9200605269892</v>
       </c>
       <c r="E15" t="n">
-        <v>1.867685627555111e-31</v>
+        <v>2.49378466995882e-35</v>
       </c>
       <c r="F15" t="n">
-        <v>26.27401569892102</v>
+        <v>29.32001008783154</v>
       </c>
     </row>
     <row r="16">
@@ -678,19 +678,19 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>4.832367371462087e-05</v>
+        <v>4.84312530098057e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>1.093487767539573e-06</v>
+        <v>1.094828415117258e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>175.5297255553118</v>
+        <v>171.057910562627</v>
       </c>
       <c r="E16" t="n">
-        <v>3.017947514733429e-35</v>
+        <v>2.682857487892898e-34</v>
       </c>
       <c r="F16" t="n">
-        <v>29.25495425921862</v>
+        <v>28.50965176043783</v>
       </c>
     </row>
     <row r="17">
@@ -698,19 +698,19 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>4.623951713973269e-05</v>
+        <v>4.606772377063771e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1.054848403576278e-06</v>
+        <v>1.063997321521138e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>149.1841520137972</v>
+        <v>156.0860727457625</v>
       </c>
       <c r="E17" t="n">
-        <v>1.150989979489194e-29</v>
+        <v>3.991229423242217e-31</v>
       </c>
       <c r="F17" t="n">
-        <v>24.86402533563287</v>
+        <v>26.01434545762709</v>
       </c>
     </row>
     <row r="18">
@@ -718,19 +718,19 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>4.589107595192033e-05</v>
+        <v>4.592860044283195e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>1.088843006749896e-06</v>
+        <v>1.078496181814288e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>187.420131619244</v>
+        <v>180.1065865958381</v>
       </c>
       <c r="E18" t="n">
-        <v>8.99593305406237e-38</v>
+        <v>3.220811770885422e-36</v>
       </c>
       <c r="F18" t="n">
-        <v>31.23668860320734</v>
+        <v>30.01776443263968</v>
       </c>
     </row>
     <row r="19">
@@ -738,19 +738,19 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>4.502658845311544e-05</v>
+        <v>4.568866981059343e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>1.085462673318865e-06</v>
+        <v>1.093763901575524e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>184.2951664506869</v>
+        <v>170.0704386794363</v>
       </c>
       <c r="E19" t="n">
-        <v>4.15122547535196e-37</v>
+        <v>4.345649410841474e-34</v>
       </c>
       <c r="F19" t="n">
-        <v>30.71586107511449</v>
+        <v>28.34507311323938</v>
       </c>
     </row>
     <row r="20">
@@ -758,19 +758,19 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>4.58238125179382e-05</v>
+        <v>4.562754966028739e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>1.135283849441812e-06</v>
+        <v>1.126869944276016e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>163.6358987247489</v>
+        <v>162.7789370519957</v>
       </c>
       <c r="E20" t="n">
-        <v>1.005074688182337e-32</v>
+        <v>1.526793547713082e-32</v>
       </c>
       <c r="F20" t="n">
-        <v>27.27264978745815</v>
+        <v>27.12982284199929</v>
       </c>
     </row>
     <row r="21">
@@ -778,19 +778,19 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>4.881257335518599e-05</v>
+        <v>4.826519827683299e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.259667832944927e-06</v>
+        <v>1.252099087919007e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>163.7568834496773</v>
+        <v>177.2780411309291</v>
       </c>
       <c r="E21" t="n">
-        <v>9.474601493821354e-33</v>
+        <v>1.284046473938476e-35</v>
       </c>
       <c r="F21" t="n">
-        <v>27.29281390827954</v>
+        <v>29.54634018848818</v>
       </c>
     </row>
     <row r="22">
@@ -798,19 +798,19 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>5.056724025021315e-05</v>
+        <v>5.198241941676657e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>1.747860932539455e-06</v>
+        <v>1.810360484247519e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>299.3599371455877</v>
+        <v>284.7695021649219</v>
       </c>
       <c r="E22" t="n">
-        <v>1.121800867099855e-61</v>
+        <v>1.496529764999346e-58</v>
       </c>
       <c r="F22" t="n">
-        <v>49.89332285759795</v>
+        <v>47.46158369415365</v>
       </c>
     </row>
     <row r="23">
@@ -818,19 +818,19 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>6.001929490845022e-05</v>
+        <v>6.080115399149934e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>2.289800380526791e-06</v>
+        <v>2.300870873595736e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>266.2428115915428</v>
+        <v>241.3724540252026</v>
       </c>
       <c r="E23" t="n">
-        <v>1.380696995758207e-54</v>
+        <v>2.858378592463107e-49</v>
       </c>
       <c r="F23" t="n">
-        <v>44.3738019319238</v>
+        <v>40.22874233753377</v>
       </c>
     </row>
     <row r="24">
@@ -838,19 +838,19 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>5.991257950245699e-05</v>
+        <v>6.48060042200705e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>2.642492661508035e-06</v>
+        <v>2.758249321609942e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>344.8120180769604</v>
+        <v>312.4162463819596</v>
       </c>
       <c r="E24" t="n">
-        <v>2.005092260694364e-71</v>
+        <v>1.784890640122425e-64</v>
       </c>
       <c r="F24" t="n">
-        <v>57.46866967949341</v>
+        <v>52.06937439699326</v>
       </c>
     </row>
     <row r="25">
@@ -858,19 +858,19 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>5.918453770405424e-05</v>
+        <v>6.220631353315127e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>2.44082364701379e-06</v>
+        <v>2.536803781494513e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>389.5071165860406</v>
+        <v>364.25820300705</v>
       </c>
       <c r="E25" t="n">
-        <v>5.035063711914737e-81</v>
+        <v>1.339164433133298e-75</v>
       </c>
       <c r="F25" t="n">
-        <v>64.9178527643401</v>
+        <v>60.709700501175</v>
       </c>
     </row>
     <row r="26">
@@ -878,19 +878,19 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>6.247833258450553e-05</v>
+        <v>5.913886414290844e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>2.635234562884885e-06</v>
+        <v>2.552015962373134e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>301.8128591725383</v>
+        <v>331.3092437194904</v>
       </c>
       <c r="E26" t="n">
-        <v>3.344348166821541e-62</v>
+        <v>1.583916162770679e-68</v>
       </c>
       <c r="F26" t="n">
-        <v>50.30214319542304</v>
+        <v>55.21820728658174</v>
       </c>
     </row>
     <row r="27">
@@ -898,19 +898,19 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>5.336420823937853e-05</v>
+        <v>5.985135274715957e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>2.500066434903547e-06</v>
+        <v>2.693042256258732e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>346.6498609111989</v>
+        <v>307.1304733546351</v>
       </c>
       <c r="E27" t="n">
-        <v>8.084300036112953e-72</v>
+        <v>2.424805608747722e-63</v>
       </c>
       <c r="F27" t="n">
-        <v>57.77497681853315</v>
+        <v>51.18841222577251</v>
       </c>
     </row>
     <row r="28">
@@ -918,19 +918,19 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>5.533200464387216e-05</v>
+        <v>5.747448676421692e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>2.513040363735319e-06</v>
+        <v>2.525324523516358e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>315.2738871163097</v>
+        <v>308.8689408904572</v>
       </c>
       <c r="E28" t="n">
-        <v>4.354529103891538e-65</v>
+        <v>1.02812122647616e-63</v>
       </c>
       <c r="F28" t="n">
-        <v>52.54564785271828</v>
+        <v>51.4781568150762</v>
       </c>
     </row>
     <row r="29">
@@ -938,19 +938,19 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>6.103849854046171e-05</v>
+        <v>6.735417614307892e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>2.497230118417123e-06</v>
+        <v>2.683342098381576e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>320.3157855643935</v>
+        <v>280.3529671341129</v>
       </c>
       <c r="E29" t="n">
-        <v>3.612441455275848e-66</v>
+        <v>1.320210579519431e-57</v>
       </c>
       <c r="F29" t="n">
-        <v>53.38596426073226</v>
+        <v>46.72549452235216</v>
       </c>
     </row>
     <row r="30">
@@ -958,19 +958,19 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>4.981847289792562e-05</v>
+        <v>5.530341531215552e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>2.219118514185189e-06</v>
+        <v>2.355775999358247e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>368.0558723906107</v>
+        <v>312.8594407749401</v>
       </c>
       <c r="E30" t="n">
-        <v>2.047104879585154e-76</v>
+        <v>1.434156697230995e-64</v>
       </c>
       <c r="F30" t="n">
-        <v>61.34264539843512</v>
+        <v>52.14324012915669</v>
       </c>
     </row>
     <row r="31">
@@ -978,19 +978,19 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>4.147699924752561e-05</v>
+        <v>4.040867399783606e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>2.065507907565229e-06</v>
+        <v>2.066842812838857e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>379.8632190502541</v>
+        <v>388.4696836584678</v>
       </c>
       <c r="E31" t="n">
-        <v>5.949598086932757e-79</v>
+        <v>8.413487388688879e-81</v>
       </c>
       <c r="F31" t="n">
-        <v>63.31053650837569</v>
+        <v>64.7449472764113</v>
       </c>
     </row>
     <row r="32">
@@ -998,19 +998,19 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>4.064981649037981e-05</v>
+        <v>4.274489139294459e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>2.123638004090793e-06</v>
+        <v>2.205222385867055e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>347.330377821415</v>
+        <v>325.3228288871102</v>
       </c>
       <c r="E32" t="n">
-        <v>5.775155904513064e-72</v>
+        <v>3.047362417420809e-67</v>
       </c>
       <c r="F32" t="n">
-        <v>57.88839630356917</v>
+        <v>54.22047148118503</v>
       </c>
     </row>
     <row r="33">
@@ -1018,19 +1018,19 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>3.756142668959934e-05</v>
+        <v>3.806946617077594e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>2.002031094629075e-06</v>
+        <v>2.013022051091201e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>368.5188524289603</v>
+        <v>369.4107346809992</v>
       </c>
       <c r="E33" t="n">
-        <v>1.628138116256968e-76</v>
+        <v>1.047393068883889e-76</v>
       </c>
       <c r="F33" t="n">
-        <v>61.41980873816004</v>
+        <v>61.56845578016654</v>
       </c>
     </row>
     <row r="34">
@@ -1038,19 +1038,19 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>3.594616623441705e-05</v>
+        <v>3.74745093288029e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>2.062787797007292e-06</v>
+        <v>2.054972444142143e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>315.98447683602</v>
+        <v>298.0532328008088</v>
       </c>
       <c r="E34" t="n">
-        <v>3.066067440985775e-65</v>
+        <v>2.137414586312581e-61</v>
       </c>
       <c r="F34" t="n">
-        <v>52.66407947267</v>
+        <v>49.6755388001348</v>
       </c>
     </row>
     <row r="35">
@@ -1058,19 +1058,19 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>3.596449708349171e-05</v>
+        <v>3.610852551103437e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>1.846414405848238e-06</v>
+        <v>1.874109253665317e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>343.6965107700835</v>
+        <v>326.9315297378897</v>
       </c>
       <c r="E35" t="n">
-        <v>3.479889894199901e-71</v>
+        <v>1.376757387259059e-67</v>
       </c>
       <c r="F35" t="n">
-        <v>57.28275179501392</v>
+        <v>54.48858828964828</v>
       </c>
     </row>
     <row r="36">
@@ -1078,19 +1078,19 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>3.569336605938968e-05</v>
+        <v>3.248623585822747e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>1.765082171659311e-06</v>
+        <v>1.696137582816069e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>299.2185618536927</v>
+        <v>325.4990901851938</v>
       </c>
       <c r="E36" t="n">
-        <v>1.202838920011873e-61</v>
+        <v>2.793296511566008e-67</v>
       </c>
       <c r="F36" t="n">
-        <v>49.86976030894878</v>
+        <v>54.24984836419898</v>
       </c>
     </row>
     <row r="37">
@@ -1098,19 +1098,19 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>3.131262771602165e-05</v>
+        <v>2.994227624846506e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>1.44772779748008e-06</v>
+        <v>1.371615554889312e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>341.2243665092543</v>
+        <v>349.844137911842</v>
       </c>
       <c r="E37" t="n">
-        <v>1.180731774166331e-70</v>
+        <v>1.666999133785055e-72</v>
       </c>
       <c r="F37" t="n">
-        <v>56.87072775154238</v>
+        <v>58.30735631864033</v>
       </c>
     </row>
     <row r="38">
@@ -1118,19 +1118,19 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>2.649186673234089e-05</v>
+        <v>3.060245570530368e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1.202598783113371e-06</v>
+        <v>1.294672442046174e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>376.2756731507566</v>
+        <v>299.2853396906597</v>
       </c>
       <c r="E38" t="n">
-        <v>3.510061426537272e-78</v>
+        <v>1.163856345175084e-61</v>
       </c>
       <c r="F38" t="n">
-        <v>62.71261219179276</v>
+        <v>49.88088994844329</v>
       </c>
     </row>
     <row r="39">
@@ -1138,19 +1138,19 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>2.769150910470835e-05</v>
+        <v>3.00504987607634e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>1.0175795320934e-06</v>
+        <v>1.090122115832223e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>291.3833826632005</v>
+        <v>233.2432865014224</v>
       </c>
       <c r="E39" t="n">
-        <v>5.737247874374373e-60</v>
+        <v>1.55539158584074e-47</v>
       </c>
       <c r="F39" t="n">
-        <v>48.56389711053342</v>
+        <v>38.8738810835704</v>
       </c>
     </row>
     <row r="40">
@@ -1158,19 +1158,19 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>2.151348712852503e-05</v>
+        <v>2.88394774872318e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>1.086936122323717e-06</v>
+        <v>1.272295324671982e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>382.810445943523</v>
+        <v>273.8985431415572</v>
       </c>
       <c r="E40" t="n">
-        <v>1.384150473633405e-79</v>
+        <v>3.177742516042346e-56</v>
       </c>
       <c r="F40" t="n">
-        <v>63.80174099058717</v>
+        <v>45.64975719025954</v>
       </c>
     </row>
     <row r="41">
@@ -1178,19 +1178,19 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>2.933626345125193e-05</v>
+        <v>2.814071708132003e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>9.790341211794317e-07</v>
+        <v>9.680572692930306e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>136.2830356003322</v>
+        <v>161.7123417879577</v>
       </c>
       <c r="E41" t="n">
-        <v>6.096119753792275e-27</v>
+        <v>2.568909581747828e-32</v>
       </c>
       <c r="F41" t="n">
-        <v>22.71383926672204</v>
+        <v>26.95205696465962</v>
       </c>
     </row>
     <row r="42">
@@ -1198,19 +1198,19 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>3.447917231037363e-05</v>
+        <v>3.378052765763543e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>9.47177510289284e-07</v>
+        <v>9.238110015454125e-07</v>
       </c>
       <c r="D42" t="n">
-        <v>107.8013784646071</v>
+        <v>130.2817255116479</v>
       </c>
       <c r="E42" t="n">
-        <v>5.881630774595435e-21</v>
+        <v>1.121222331566466e-25</v>
       </c>
       <c r="F42" t="n">
-        <v>17.96689641076784</v>
+        <v>21.71362091860799</v>
       </c>
     </row>
     <row r="43">
@@ -1218,19 +1218,19 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>3.241683356191752e-05</v>
+        <v>3.276724673566567e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>8.476322983125719e-07</v>
+        <v>8.525961233448325e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>134.655763887535</v>
+        <v>133.748646898755</v>
       </c>
       <c r="E43" t="n">
-        <v>1.343171064995246e-26</v>
+        <v>2.086054431907082e-26</v>
       </c>
       <c r="F43" t="n">
-        <v>22.44262731458917</v>
+        <v>22.2914411497925</v>
       </c>
     </row>
     <row r="44">
@@ -1238,19 +1238,19 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>3.036160755138494e-05</v>
+        <v>3.038585665162685e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>7.711395601549677e-07</v>
+        <v>7.764744235679689e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>119.5353850278965</v>
+        <v>109.2626791120042</v>
       </c>
       <c r="E44" t="n">
-        <v>2.040112106629496e-23</v>
+        <v>2.908439517471765e-21</v>
       </c>
       <c r="F44" t="n">
-        <v>19.92256417131608</v>
+        <v>18.21044651866736</v>
       </c>
     </row>
     <row r="45">
@@ -1258,19 +1258,19 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>2.891995769553256e-05</v>
+        <v>2.888229714981589e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>7.364162556050866e-07</v>
+        <v>7.366297912523733e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>70.09415360796302</v>
+        <v>76.85968571909498</v>
       </c>
       <c r="E45" t="n">
-        <v>3.911038992183248e-13</v>
+        <v>1.588658875747177e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>11.6823589346605</v>
+        <v>12.80994761984916</v>
       </c>
     </row>
     <row r="46">
@@ -1278,19 +1278,19 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>2.836138695260023e-05</v>
+        <v>2.817486815398068e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>6.959798401641878e-07</v>
+        <v>7.051331081012529e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>74.04063778379253</v>
+        <v>78.48917572384194</v>
       </c>
       <c r="E46" t="n">
-        <v>6.047580169641538e-14</v>
+        <v>7.327318705213281e-15</v>
       </c>
       <c r="F46" t="n">
-        <v>12.34010629729875</v>
+        <v>13.08152928730699</v>
       </c>
     </row>
     <row r="47">
@@ -1298,19 +1298,19 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>2.390124521433324e-05</v>
+        <v>2.415396215251905e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>6.138917887353858e-07</v>
+        <v>6.199339191480869e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>50.77837340459627</v>
+        <v>52.79571976873396</v>
       </c>
       <c r="E47" t="n">
-        <v>3.281417737320619e-09</v>
+        <v>1.289842199592534e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>8.463062234099377</v>
+        <v>8.799286628122326</v>
       </c>
     </row>
     <row r="48">
@@ -1318,19 +1318,19 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>2.449892133678339e-05</v>
+        <v>2.454174838115603e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>6.39349626639449e-07</v>
+        <v>6.406321633019359e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>51.68652454366247</v>
+        <v>43.18879523944649</v>
       </c>
       <c r="E48" t="n">
-        <v>2.156039406013925e-09</v>
+        <v>1.070270839675938e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>8.614420757277079</v>
+        <v>7.198132539907749</v>
       </c>
     </row>
     <row r="49">
@@ -1338,19 +1338,19 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>2.62457462147748e-05</v>
+        <v>2.554598397801093e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>7.007965922406407e-07</v>
+        <v>6.93235054278464e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>46.316789850334</v>
+        <v>43.41795057920507</v>
       </c>
       <c r="E49" t="n">
-        <v>2.560274459126774e-08</v>
+        <v>9.64091464479648e-08</v>
       </c>
       <c r="F49" t="n">
-        <v>7.719464975055666</v>
+        <v>7.236325096534178</v>
       </c>
     </row>
     <row r="50">
@@ -1358,19 +1358,19 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>2.766810311121095e-05</v>
+        <v>2.787808929803258e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>8.050217047326532e-07</v>
+        <v>7.965792890417614e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>37.01288670877239</v>
+        <v>35.54363321738148</v>
       </c>
       <c r="E50" t="n">
-        <v>1.75073266512172e-06</v>
+        <v>3.380737372581465e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>6.168814451462065</v>
+        <v>5.923938869563579</v>
       </c>
     </row>
     <row r="51">
@@ -1378,19 +1378,19 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>2.725735669068216e-05</v>
+        <v>2.726710455691901e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>7.712864084597532e-07</v>
+        <v>7.760095358842104e-07</v>
       </c>
       <c r="D51" t="n">
-        <v>45.5320217073442</v>
+        <v>48.62129587077385</v>
       </c>
       <c r="E51" t="n">
-        <v>3.668579385472812e-08</v>
+        <v>8.877152298597641e-09</v>
       </c>
       <c r="F51" t="n">
-        <v>7.588670284557367</v>
+        <v>8.103549311795641</v>
       </c>
     </row>
     <row r="52">
@@ -1398,19 +1398,19 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>2.334006411462981e-05</v>
+        <v>2.352060991042322e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0729440103211e-06</v>
+        <v>1.067688150494895e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>33.71117338351657</v>
+        <v>34.34191050785697</v>
       </c>
       <c r="E52" t="n">
-        <v>7.648742092521885e-06</v>
+        <v>5.778135614825102e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>5.618528897252761</v>
+        <v>5.723651751309496</v>
       </c>
     </row>
     <row r="53">
@@ -1418,19 +1418,19 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>2.296619607299587e-05</v>
+        <v>2.501757864295405e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>1.180773528166797e-06</v>
+        <v>1.229910951126264e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>55.976181225745</v>
+        <v>30.72999858854508</v>
       </c>
       <c r="E53" t="n">
-        <v>2.943421325966203e-10</v>
+        <v>2.854211753943933e-05</v>
       </c>
       <c r="F53" t="n">
-        <v>9.329363537624166</v>
+        <v>5.12166643142418</v>
       </c>
     </row>
     <row r="54">
@@ -1438,19 +1438,19 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>1.541377004750352e-05</v>
+        <v>1.424651367511539e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>1.872172622436307e-06</v>
+        <v>1.796643897769082e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>4.163086717027941</v>
+        <v>7.989278493255016</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6546170099060262</v>
+        <v>0.2388898437045396</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6938477861713235</v>
+        <v>1.331546415542503</v>
       </c>
     </row>
     <row r="55">
@@ -1458,19 +1458,19 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>1.526692908358674e-05</v>
+        <v>1.352504217312601e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>2.23208892372205e-06</v>
+        <v>2.093054883556503e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>2.493394256169324</v>
+        <v>3.514863828250096</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8692062197194004</v>
+        <v>0.7419910890351564</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4155657093615541</v>
+        <v>0.5858106380416827</v>
       </c>
     </row>
     <row r="56">
@@ -1478,19 +1478,19 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>1.5209773779402e-05</v>
+        <v>1.593210178348642e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>1.933085698735549e-06</v>
+        <v>2.060345067261108e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>9.800134004150365</v>
+        <v>8.107644087052423</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1333250802707505</v>
+        <v>0.2303226563778263</v>
       </c>
       <c r="F56" t="n">
-        <v>1.633355667358394</v>
+        <v>1.351274014508737</v>
       </c>
     </row>
     <row r="57">
@@ -1498,19 +1498,19 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>1.769468505036879e-05</v>
+        <v>2.072226367379184e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>1.956146519529825e-06</v>
+        <v>2.154363134459408e-06</v>
       </c>
       <c r="D57" t="n">
-        <v>28.93304217575065</v>
+        <v>15.71088451026387</v>
       </c>
       <c r="E57" t="n">
-        <v>6.263783335652687e-05</v>
+        <v>0.01539282795562569</v>
       </c>
       <c r="F57" t="n">
-        <v>4.822173695958442</v>
+        <v>2.618480751710644</v>
       </c>
     </row>
     <row r="58">
@@ -1518,19 +1518,19 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>2.915614954050165e-05</v>
+        <v>2.921400791704107e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>1.562668233976499e-06</v>
+        <v>1.565319771707984e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>38.10214601772082</v>
+        <v>42.88096796532643</v>
       </c>
       <c r="E58" t="n">
-        <v>1.07287278747603e-06</v>
+        <v>1.231436797183794e-07</v>
       </c>
       <c r="F58" t="n">
-        <v>6.350357669620137</v>
+        <v>7.146827994221073</v>
       </c>
     </row>
     <row r="59">
@@ -1538,19 +1538,19 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>3.232175739819144e-05</v>
+        <v>3.170968034083004e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>1.484026308615173e-06</v>
+        <v>1.444589138926506e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>53.6147080893165</v>
+        <v>62.60634939611947</v>
       </c>
       <c r="E59" t="n">
-        <v>8.821951933360137e-10</v>
+        <v>1.327640132572373e-11</v>
       </c>
       <c r="F59" t="n">
-        <v>8.93578468155275</v>
+        <v>10.43439156601991</v>
       </c>
     </row>
     <row r="60">
@@ -1558,19 +1558,19 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>3.15633249371902e-05</v>
+        <v>3.304904407402102e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>1.471174409805798e-06</v>
+        <v>1.547167364057876e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>52.37103086508804</v>
+        <v>51.02350389047865</v>
       </c>
       <c r="E60" t="n">
-        <v>1.570390029208478e-09</v>
+        <v>2.929889300190867e-09</v>
       </c>
       <c r="F60" t="n">
-        <v>8.728505144181341</v>
+        <v>8.503917315079775</v>
       </c>
     </row>
     <row r="61">
@@ -1578,19 +1578,19 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>3.288636850652857e-05</v>
+        <v>3.357849751052094e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>1.142225432438131e-06</v>
+        <v>1.147825029923921e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>125.0299183516864</v>
+        <v>105.1084710907112</v>
       </c>
       <c r="E61" t="n">
-        <v>1.428656711033417e-24</v>
+        <v>2.151268179634172e-20</v>
       </c>
       <c r="F61" t="n">
-        <v>20.83831972528107</v>
+        <v>17.51807851511854</v>
       </c>
     </row>
     <row r="62">
@@ -1598,19 +1598,19 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>3.65032446674452e-05</v>
+        <v>3.678530410398458e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.023774732803742e-06</v>
+        <v>1.026596060357464e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>165.2919925153549</v>
+        <v>150.4131764909988</v>
       </c>
       <c r="E62" t="n">
-        <v>4.479424921090133e-33</v>
+        <v>6.327374501805162e-30</v>
       </c>
       <c r="F62" t="n">
-        <v>27.54866541922582</v>
+        <v>25.06886274849981</v>
       </c>
     </row>
     <row r="63">
@@ -1618,19 +1618,19 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>3.911095062885212e-05</v>
+        <v>3.861503958755967e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1.004946201231575e-06</v>
+        <v>9.996806646740405e-07</v>
       </c>
       <c r="D63" t="n">
-        <v>148.8798563180369</v>
+        <v>169.3293303085264</v>
       </c>
       <c r="E63" t="n">
-        <v>1.334746550849212e-29</v>
+        <v>6.240734916473174e-34</v>
       </c>
       <c r="F63" t="n">
-        <v>24.81330938633948</v>
+        <v>28.22155505142107</v>
       </c>
     </row>
     <row r="64">
@@ -1638,19 +1638,19 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>4.093498153824688e-05</v>
+        <v>4.086545914714324e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>9.767921807597637e-07</v>
+        <v>9.748646954791618e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>198.2313073429138</v>
+        <v>196.2797744144091</v>
       </c>
       <c r="E64" t="n">
-        <v>4.514772241383493e-40</v>
+        <v>1.174625867510763e-39</v>
       </c>
       <c r="F64" t="n">
-        <v>33.03855122381896</v>
+        <v>32.71329573573485</v>
       </c>
     </row>
     <row r="65">
@@ -1658,19 +1658,19 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>4.480286376982092e-05</v>
+        <v>4.671251664120953e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.274109146588609e-06</v>
+        <v>1.308772267699526e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>236.6863254197078</v>
+        <v>184.0874004197083</v>
       </c>
       <c r="E65" t="n">
-        <v>2.862945267163804e-48</v>
+        <v>4.595396816711021e-37</v>
       </c>
       <c r="F65" t="n">
-        <v>39.44772090328463</v>
+        <v>30.68123340328472</v>
       </c>
     </row>
     <row r="66">
@@ -1678,19 +1678,19 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>4.73165321486532e-05</v>
+        <v>4.54134846512722e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>1.853568161874661e-06</v>
+        <v>1.821607637608027e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>120.8539176369592</v>
+        <v>140.1798424078217</v>
       </c>
       <c r="E66" t="n">
-        <v>1.078222381177846e-23</v>
+        <v>9.183452421319042e-28</v>
       </c>
       <c r="F66" t="n">
-        <v>20.14231960615987</v>
+        <v>23.36330706797028</v>
       </c>
     </row>
     <row r="67">
@@ -1698,19 +1698,19 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>4.171389338876312e-05</v>
+        <v>3.928230259702049e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>2.067392958619688e-06</v>
+        <v>1.988123460502893e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>77.3497970051512</v>
+        <v>87.79160462604304</v>
       </c>
       <c r="E67" t="n">
-        <v>1.258874563293235e-14</v>
+        <v>8.707473568052741e-17</v>
       </c>
       <c r="F67" t="n">
-        <v>12.89163283419187</v>
+        <v>14.63193410434051</v>
       </c>
     </row>
     <row r="68">
@@ -1718,19 +1718,19 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>3.519734946741994e-05</v>
+        <v>3.727157814977149e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>2.660952899634135e-06</v>
+        <v>2.766747197957506e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>55.39270359196238</v>
+        <v>49.16768732552966</v>
       </c>
       <c r="E68" t="n">
-        <v>3.861692556351751e-10</v>
+        <v>6.901396104277906e-09</v>
       </c>
       <c r="F68" t="n">
-        <v>9.232117265327064</v>
+        <v>8.194614554254942</v>
       </c>
     </row>
     <row r="69">
@@ -1738,19 +1738,19 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>3.519288245620058e-05</v>
+        <v>4.436483376535305e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>2.133261549289255e-06</v>
+        <v>2.524059452283542e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>109.7532550282824</v>
+        <v>61.87769030060726</v>
       </c>
       <c r="E69" t="n">
-        <v>2.295899842003311e-21</v>
+        <v>1.868375783141564e-11</v>
       </c>
       <c r="F69" t="n">
-        <v>18.2922091713804</v>
+        <v>10.31294838343454</v>
       </c>
     </row>
     <row r="70">
@@ -1758,19 +1758,19 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>2.024954671429672e-05</v>
+        <v>3.136284165961726e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>2.706285286576983e-06</v>
+        <v>3.550853665924367e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>56.30513732952321</v>
+        <v>32.86019018311701</v>
       </c>
       <c r="E70" t="n">
-        <v>2.525394014443852e-10</v>
+        <v>1.115570538847835e-05</v>
       </c>
       <c r="F70" t="n">
-        <v>9.384189554920535</v>
+        <v>5.476698363852834</v>
       </c>
     </row>
     <row r="71">
@@ -1778,19 +1778,19 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>2.620208026105283e-05</v>
+        <v>2.632925789557561e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>4.238969089821452e-06</v>
+        <v>4.34548282121702e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>10.9858096872433</v>
+        <v>9.679314988362199</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08881599246702722</v>
+        <v>0.1388226622902836</v>
       </c>
       <c r="F71" t="n">
-        <v>1.830968281207216</v>
+        <v>1.613219164727033</v>
       </c>
     </row>
     <row r="72">
@@ -1798,19 +1798,19 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>3.632600164964425e-05</v>
+        <v>3.754499394414863e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>2.256209177844464e-06</v>
+        <v>2.285256357106444e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>36.24934212705469</v>
+        <v>27.2487489214861</v>
       </c>
       <c r="E72" t="n">
-        <v>2.465466474788886e-06</v>
+        <v>0.0001300648206880711</v>
       </c>
       <c r="F72" t="n">
-        <v>6.041557021175781</v>
+        <v>4.541458153581017</v>
       </c>
     </row>
     <row r="73">
@@ -1818,19 +1818,19 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>1.192374258294052e-05</v>
+        <v>9.346668539569419e-06</v>
       </c>
       <c r="C73" t="n">
-        <v>2.706782644704111e-06</v>
+        <v>2.216181725853923e-06</v>
       </c>
       <c r="D73" t="n">
-        <v>1.582205698199372</v>
+        <v>9.851721972855529</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9538481320449822</v>
+        <v>0.1310368186246612</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2637009496998953</v>
+        <v>1.641953662142588</v>
       </c>
     </row>
     <row r="74">
@@ -1838,19 +1838,19 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>5.986802007384027e-06</v>
+        <v>7.91427664061718e-06</v>
       </c>
       <c r="C74" t="n">
-        <v>2.025234114589265e-06</v>
+        <v>2.102052995152382e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>5.365167415500533</v>
+        <v>9.455529659645279</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4979004443094062</v>
+        <v>0.1495333921423556</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8941945692500889</v>
+        <v>1.57592160994088</v>
       </c>
     </row>
     <row r="75">
@@ -1858,19 +1858,19 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>7.731435372765217e-06</v>
+        <v>8.780485669315349e-06</v>
       </c>
       <c r="C75" t="n">
-        <v>1.876169347616817e-06</v>
+        <v>2.210861822663553e-06</v>
       </c>
       <c r="D75" t="n">
-        <v>15.31841967056076</v>
+        <v>10.68441582811322</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01791957362845105</v>
+        <v>0.09863351592744939</v>
       </c>
       <c r="F75" t="n">
-        <v>2.553069945093461</v>
+        <v>1.780735971352204</v>
       </c>
     </row>
     <row r="76">
@@ -1878,19 +1878,19 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>2.414057108636979e-05</v>
+        <v>3.009945744202306e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>1.924570218326323e-06</v>
+        <v>2.224842794631964e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>85.37673460504763</v>
+        <v>43.43060087146053</v>
       </c>
       <c r="E76" t="n">
-        <v>2.75807931232107e-16</v>
+        <v>9.585454030829415e-08</v>
       </c>
       <c r="F76" t="n">
-        <v>14.22945576750794</v>
+        <v>7.238433478576756</v>
       </c>
     </row>
     <row r="77">
@@ -1898,19 +1898,19 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>5.282832420555639e-05</v>
+        <v>4.626927510931661e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>2.734359085186335e-06</v>
+        <v>2.568011363967746e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>293.6574617351678</v>
+        <v>331.5011851787439</v>
       </c>
       <c r="E77" t="n">
-        <v>1.868959856514805e-60</v>
+        <v>1.44063068570081e-68</v>
       </c>
       <c r="F77" t="n">
-        <v>48.94291028919464</v>
+        <v>55.25019752979065</v>
       </c>
     </row>
     <row r="78">
@@ -1918,19 +1918,19 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>4.336702372667119e-05</v>
+        <v>5.093705534456606e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>3.355254112319165e-06</v>
+        <v>3.803133705871402e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>780.4066634971069</v>
+        <v>742.9546538675251</v>
       </c>
       <c r="E78" t="n">
-        <v>2.634050719546953e-165</v>
+        <v>3.240556359076474e-157</v>
       </c>
       <c r="F78" t="n">
-        <v>130.0677772495178</v>
+        <v>123.8257756445875</v>
       </c>
     </row>
     <row r="79">
@@ -1938,19 +1938,19 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>7.73601072739966e-06</v>
+        <v>7.210263012884279e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>1.551910085745422e-06</v>
+        <v>5.247812703540476e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>743.4287947585103</v>
+        <v>589.6721235846016</v>
       </c>
       <c r="E79" t="n">
-        <v>2.559846024951723e-157</v>
+        <v>3.939149730688021e-124</v>
       </c>
       <c r="F79" t="n">
-        <v>123.9047991264184</v>
+        <v>98.27868726410027</v>
       </c>
     </row>
     <row r="80">
@@ -1958,19 +1958,19 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>5.679975915392753e-05</v>
+        <v>5.760399816038778e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>3.600861550685329e-06</v>
+        <v>3.606545770908098e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>667.7655416136557</v>
+        <v>665.8736080100432</v>
       </c>
       <c r="E80" t="n">
-        <v>5.563069960364994e-141</v>
+        <v>1.424576151683872e-140</v>
       </c>
       <c r="F80" t="n">
-        <v>111.2942569356093</v>
+        <v>110.9789346683405</v>
       </c>
     </row>
     <row r="81">
@@ -1978,19 +1978,19 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>5.946174251860212e-05</v>
+        <v>6.717795257353342e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>3.027323662660462e-06</v>
+        <v>3.178616744799572e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>392.5391436146581</v>
+        <v>350.5921708088269</v>
       </c>
       <c r="E81" t="n">
-        <v>1.122818000829463e-81</v>
+        <v>1.151719513497853e-72</v>
       </c>
       <c r="F81" t="n">
-        <v>65.42319060244301</v>
+        <v>58.43202846813782</v>
       </c>
     </row>
     <row r="82">
@@ -1998,19 +1998,19 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>9.184475680090211e-05</v>
+        <v>9.046209220208274e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>3.071434554563247e-06</v>
+        <v>3.018593990067024e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>224.7309767250195</v>
+        <v>237.8958712979587</v>
       </c>
       <c r="E82" t="n">
-        <v>1.019187221763111e-45</v>
+        <v>1.579623763927069e-48</v>
       </c>
       <c r="F82" t="n">
-        <v>37.45516278750326</v>
+        <v>39.64931188299311</v>
       </c>
     </row>
     <row r="83">
@@ -2018,19 +2018,19 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>8.896143505037294e-05</v>
+        <v>8.968411246976674e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>2.840714751499625e-06</v>
+        <v>2.845176521641018e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>381.9972296627503</v>
+        <v>382.4813873690966</v>
       </c>
       <c r="E83" t="n">
-        <v>2.069824407775751e-79</v>
+        <v>1.628899998742173e-79</v>
       </c>
       <c r="F83" t="n">
-        <v>63.66620494379171</v>
+        <v>63.74689789484944</v>
       </c>
     </row>
     <row r="84">
@@ -2038,19 +2038,19 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>8.845652881064956e-05</v>
+        <v>8.843504352187529e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>2.371471489656561e-06</v>
+        <v>2.367809144287736e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>431.6673102084559</v>
+        <v>434.143742823213</v>
       </c>
       <c r="E84" t="n">
-        <v>4.323815975027124e-90</v>
+        <v>1.267834329952109e-90</v>
       </c>
       <c r="F84" t="n">
-        <v>71.94455170140932</v>
+        <v>72.3572904705355</v>
       </c>
     </row>
     <row r="85">
@@ -2058,19 +2058,19 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>7.662063688908593e-05</v>
+        <v>7.77202707667104e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1.909393984503625e-06</v>
+        <v>1.922142072706358e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>266.7126094048846</v>
+        <v>254.6936815681203</v>
       </c>
       <c r="E85" t="n">
-        <v>1.095476092729449e-54</v>
+        <v>4.071331764670128e-52</v>
       </c>
       <c r="F85" t="n">
-        <v>44.45210156748077</v>
+        <v>42.44894692802004</v>
       </c>
     </row>
     <row r="86">
@@ -2078,19 +2078,19 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>5.645497589602192e-05</v>
+        <v>5.660507848336956e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1.433356020942941e-06</v>
+        <v>1.434674217734399e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>272.6449641867979</v>
+        <v>264.8432028107814</v>
       </c>
       <c r="E86" t="n">
-        <v>5.893517682707797e-56</v>
+        <v>2.750907093975025e-54</v>
       </c>
       <c r="F86" t="n">
-        <v>45.44082736446632</v>
+        <v>44.1405338017969</v>
       </c>
     </row>
     <row r="87">
@@ -2098,19 +2098,19 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>5.284665441267198e-05</v>
+        <v>5.271859272889447e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.224250901359153e-06</v>
+        <v>1.223755705088378e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>221.0866477352071</v>
+        <v>213.8070222557506</v>
       </c>
       <c r="E87" t="n">
-        <v>6.102903535923886e-45</v>
+        <v>2.175071197562471e-43</v>
       </c>
       <c r="F87" t="n">
-        <v>36.84777462253451</v>
+        <v>35.63450370929176</v>
       </c>
     </row>
     <row r="88">
@@ -2118,19 +2118,19 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>5.793092853418918e-05</v>
+        <v>5.781097812653798e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1.393067872246807e-06</v>
+        <v>1.388214571344265e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>221.622245363756</v>
+        <v>220.5754325121079</v>
       </c>
       <c r="E88" t="n">
-        <v>4.691542380720301e-45</v>
+        <v>7.844277305062777e-45</v>
       </c>
       <c r="F88" t="n">
-        <v>36.93704089395934</v>
+        <v>36.76257208535132</v>
       </c>
     </row>
     <row r="89">
@@ -2138,19 +2138,19 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>8.139945823182306e-05</v>
+        <v>8.278615321766271e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1.949862491985636e-06</v>
+        <v>1.97015733061482e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>331.5478680524644</v>
+        <v>312.4984912718278</v>
       </c>
       <c r="E89" t="n">
-        <v>1.407787726070677e-68</v>
+        <v>1.71387651404733e-64</v>
       </c>
       <c r="F89" t="n">
-        <v>55.25797800874407</v>
+        <v>52.08308187863796</v>
       </c>
     </row>
     <row r="90">
@@ -2158,19 +2158,19 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001348421680023479</v>
+        <v>0.0001365828411977611</v>
       </c>
       <c r="C90" t="n">
-        <v>3.338373949267843e-06</v>
+        <v>3.366190241057797e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>468.6327164994571</v>
+        <v>462.7520683057106</v>
       </c>
       <c r="E90" t="n">
-        <v>4.786087971532454e-98</v>
+        <v>8.831324458028087e-97</v>
       </c>
       <c r="F90" t="n">
-        <v>78.10545274990952</v>
+        <v>77.12534471761843</v>
       </c>
     </row>
     <row r="91">
@@ -2178,19 +2178,19 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001453271166983162</v>
+        <v>0.0001454769306634687</v>
       </c>
       <c r="C91" t="n">
-        <v>3.543033585245212e-06</v>
+        <v>3.542726511886297e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>433.9566825714056</v>
+        <v>430.8131645690597</v>
       </c>
       <c r="E91" t="n">
-        <v>1.390943593486982e-90</v>
+        <v>6.601310464807099e-90</v>
       </c>
       <c r="F91" t="n">
-        <v>72.32611376190093</v>
+        <v>71.80219409484327</v>
       </c>
     </row>
     <row r="92">
@@ -2198,19 +2198,19 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001495488048296227</v>
+        <v>0.0001509746583695505</v>
       </c>
       <c r="C92" t="n">
-        <v>3.673784871789406e-06</v>
+        <v>3.691440794005426e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>388.4221401965901</v>
+        <v>380.9618708585069</v>
       </c>
       <c r="E92" t="n">
-        <v>8.613788754708674e-81</v>
+        <v>3.454727247745521e-79</v>
       </c>
       <c r="F92" t="n">
-        <v>64.73702336609834</v>
+        <v>63.49364514308448</v>
       </c>
     </row>
     <row r="93">
@@ -2218,19 +2218,19 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001416325990313062</v>
+        <v>0.0001420475390969934</v>
       </c>
       <c r="C93" t="n">
-        <v>3.648860326999522e-06</v>
+        <v>3.663694587180433e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>236.6213036808515</v>
+        <v>226.1619614561793</v>
       </c>
       <c r="E93" t="n">
-        <v>2.955940611560198e-48</v>
+        <v>5.046426205196622e-46</v>
       </c>
       <c r="F93" t="n">
-        <v>39.43688394680858</v>
+        <v>37.69366024269655</v>
       </c>
     </row>
     <row r="94">
@@ -2238,19 +2238,19 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001157664644607826</v>
+        <v>0.0001147255430397057</v>
       </c>
       <c r="C94" t="n">
-        <v>3.96348282947e-06</v>
+        <v>3.94533046286817e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>110.0572537794526</v>
+        <v>119.7962152225705</v>
       </c>
       <c r="E94" t="n">
-        <v>1.982893006684045e-21</v>
+        <v>1.798361831212687e-23</v>
       </c>
       <c r="F94" t="n">
-        <v>18.34287562990876</v>
+        <v>19.96603587042842</v>
       </c>
     </row>
     <row r="95">
@@ -2258,19 +2258,19 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.000195825863682488</v>
+        <v>0.0001928834963373277</v>
       </c>
       <c r="C95" t="n">
-        <v>5.343756232714146e-06</v>
+        <v>5.293881556498483e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>112.6462396326668</v>
+        <v>117.8832421499978</v>
       </c>
       <c r="E95" t="n">
-        <v>5.687765068644652e-22</v>
+        <v>4.534475299545251e-23</v>
       </c>
       <c r="F95" t="n">
-        <v>18.77437327211113</v>
+        <v>19.64720702499963</v>
       </c>
     </row>
     <row r="96">
@@ -2278,19 +2278,19 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0003926421540550551</v>
+        <v>0.0003938345184145932</v>
       </c>
       <c r="C96" t="n">
-        <v>8.778123358870487e-06</v>
+        <v>8.804112575002047e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>165.4794670530507</v>
+        <v>166.9771991567879</v>
       </c>
       <c r="E96" t="n">
-        <v>4.087759882857047e-33</v>
+        <v>1.967836285707398e-33</v>
       </c>
       <c r="F96" t="n">
-        <v>27.57991117550846</v>
+        <v>27.82953319279798</v>
       </c>
     </row>
     <row r="97">
@@ -2298,19 +2298,19 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0003441656760989368</v>
+        <v>0.0003441074469672479</v>
       </c>
       <c r="C97" t="n">
-        <v>7.624048563274463e-06</v>
+        <v>7.618869545456945e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>187.0060896215595</v>
+        <v>190.5264740150476</v>
       </c>
       <c r="E97" t="n">
-        <v>1.101675853139158e-37</v>
+        <v>1.966254052293092e-38</v>
       </c>
       <c r="F97" t="n">
-        <v>31.16768160359326</v>
+        <v>31.75441233584126</v>
       </c>
     </row>
     <row r="98">
@@ -2318,19 +2318,19 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002262954770494073</v>
+        <v>0.000226902319979244</v>
       </c>
       <c r="C98" t="n">
-        <v>4.97711369168592e-06</v>
+        <v>4.978931418428656e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>202.793788848148</v>
+        <v>198.7513042880733</v>
       </c>
       <c r="E98" t="n">
-        <v>4.824732753116812e-41</v>
+        <v>3.499230131222994e-40</v>
       </c>
       <c r="F98" t="n">
-        <v>33.79896480802466</v>
+        <v>33.12521738134554</v>
       </c>
     </row>
     <row r="99">
@@ -2338,19 +2338,19 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001491490066306397</v>
+        <v>0.000149121307884355</v>
       </c>
       <c r="C99" t="n">
-        <v>3.257243151858473e-06</v>
+        <v>3.259211279557342e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>154.6848037058876</v>
+        <v>156.986242850696</v>
       </c>
       <c r="E99" t="n">
-        <v>7.900529181298466e-31</v>
+        <v>2.573761643493163e-31</v>
       </c>
       <c r="F99" t="n">
-        <v>25.78080061764793</v>
+        <v>26.16437380844934</v>
       </c>
     </row>
     <row r="100">
@@ -2358,19 +2358,19 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>7.566803008084176e-05</v>
+        <v>7.516287945944822e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>1.705057281008271e-06</v>
+        <v>1.700350742959569e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>115.6761917080121</v>
+        <v>121.2552052201135</v>
       </c>
       <c r="E100" t="n">
-        <v>1.317185013738238e-22</v>
+        <v>8.87976803714186e-24</v>
       </c>
       <c r="F100" t="n">
-        <v>19.27936528466869</v>
+        <v>20.20920087001892</v>
       </c>
     </row>
     <row r="101">
@@ -2378,19 +2378,19 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>5.482359314156512e-05</v>
+        <v>5.506984652122546e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.190867955034377e-06</v>
+        <v>1.197045780994544e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>76.23147080494228</v>
+        <v>82.34845492183779</v>
       </c>
       <c r="E101" t="n">
-        <v>2.140440683596809e-14</v>
+        <v>1.168338245598245e-15</v>
       </c>
       <c r="F101" t="n">
-        <v>12.70524513415705</v>
+        <v>13.72474248697296</v>
       </c>
     </row>
     <row r="102">
@@ -2398,19 +2398,19 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>5.65795786152024e-05</v>
+        <v>5.625212517971882e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>1.211985170255171e-06</v>
+        <v>1.208355710326998e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>78.6881250362497</v>
+        <v>81.67915473390016</v>
       </c>
       <c r="E102" t="n">
-        <v>6.66632918640528e-15</v>
+        <v>1.606902431660537e-15</v>
       </c>
       <c r="F102" t="n">
-        <v>13.11468750604162</v>
+        <v>13.61319245565003</v>
       </c>
     </row>
     <row r="103">
@@ -2418,19 +2418,19 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>6.05040212182396e-05</v>
+        <v>6.061531568484335e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>1.312342732001728e-06</v>
+        <v>1.311549624537906e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>92.47823579466997</v>
+        <v>77.70616796820646</v>
       </c>
       <c r="E103" t="n">
-        <v>9.254956580304499e-18</v>
+        <v>1.062887370938646e-14</v>
       </c>
       <c r="F103" t="n">
-        <v>15.41303929911166</v>
+        <v>12.95102799470108</v>
       </c>
     </row>
     <row r="104">
@@ -2438,19 +2438,19 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>6.338001568392502e-05</v>
+        <v>6.334505231884244e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>1.337296392600432e-06</v>
+        <v>1.339549825101759e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>125.4000701074538</v>
+        <v>119.964963715919</v>
       </c>
       <c r="E104" t="n">
-        <v>1.194200159052292e-24</v>
+        <v>1.657433371576665e-23</v>
       </c>
       <c r="F104" t="n">
-        <v>20.90001168457563</v>
+        <v>19.99416061931984</v>
       </c>
     </row>
     <row r="105">
@@ -2458,19 +2458,19 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>6.819485328554842e-05</v>
+        <v>6.794815506294589e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>1.575188882565892e-06</v>
+        <v>1.571053760726123e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>101.8992066642283</v>
+        <v>104.7379925910572</v>
       </c>
       <c r="E105" t="n">
-        <v>1.007311489200688e-19</v>
+        <v>2.571191428294505e-20</v>
       </c>
       <c r="F105" t="n">
-        <v>16.98320111070472</v>
+        <v>17.45633209850953</v>
       </c>
     </row>
     <row r="106">
@@ -2478,19 +2478,19 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>6.726667289100071e-05</v>
+        <v>6.708478714405752e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.558059914035411e-06</v>
+        <v>1.555567531478545e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>146.4289263261697</v>
+        <v>153.56570165889</v>
       </c>
       <c r="E106" t="n">
-        <v>4.399350880446234e-29</v>
+        <v>1.36282808074846e-30</v>
       </c>
       <c r="F106" t="n">
-        <v>24.40482105436161</v>
+        <v>25.594283609815</v>
       </c>
     </row>
     <row r="107">
@@ -2498,19 +2498,19 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>6.958959846306467e-05</v>
+        <v>6.949318364689096e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1.694673210374751e-06</v>
+        <v>1.684811240133434e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>92.81674481070225</v>
+        <v>90.76830532183232</v>
       </c>
       <c r="E107" t="n">
-        <v>7.86997282518722e-18</v>
+        <v>2.098089465962907e-17</v>
       </c>
       <c r="F107" t="n">
-        <v>15.46945746845037</v>
+        <v>15.12805088697205</v>
       </c>
     </row>
     <row r="108">
@@ -2518,19 +2518,19 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>7.083998581188827e-05</v>
+        <v>7.035899832115269e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1.558164861695074e-06</v>
+        <v>1.55168610674635e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>111.6578069204573</v>
+        <v>108.3037973188216</v>
       </c>
       <c r="E108" t="n">
-        <v>9.163435109607635e-22</v>
+        <v>4.617032411494721e-21</v>
       </c>
       <c r="F108" t="n">
-        <v>18.60963448674288</v>
+        <v>18.05063288647027</v>
       </c>
     </row>
     <row r="109">
@@ -2538,19 +2538,19 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>7.133002418656861e-05</v>
+        <v>7.151366105211599e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1.692033025277567e-06</v>
+        <v>1.696846980726794e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>142.8978188458127</v>
+        <v>142.9049013635966</v>
       </c>
       <c r="E109" t="n">
-        <v>2.450469728267669e-28</v>
+        <v>2.44204599600249e-28</v>
       </c>
       <c r="F109" t="n">
-        <v>23.81630314096877</v>
+        <v>23.81748356059943</v>
       </c>
     </row>
     <row r="110">
@@ -2558,19 +2558,19 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>7.222773880975925e-05</v>
+        <v>7.162537110289197e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.608359274180814e-06</v>
+        <v>1.601187623544516e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>122.4717672614575</v>
+        <v>126.6595243794494</v>
       </c>
       <c r="E110" t="n">
-        <v>4.928984810058468e-24</v>
+        <v>6.48832460273959e-25</v>
       </c>
       <c r="F110" t="n">
-        <v>20.41196121024291</v>
+        <v>21.10992072990824</v>
       </c>
     </row>
     <row r="111">
@@ -2578,19 +2578,19 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>7.096045239683601e-05</v>
+        <v>7.085237267077314e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1.611843758801597e-06</v>
+        <v>1.60822636501017e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>139.0813434617289</v>
+        <v>139.005322166114</v>
       </c>
       <c r="E111" t="n">
-        <v>1.566052997077538e-27</v>
+        <v>1.624973192711367e-27</v>
       </c>
       <c r="F111" t="n">
-        <v>23.18022391028815</v>
+        <v>23.16755369435232</v>
       </c>
     </row>
     <row r="112">
@@ -2598,19 +2598,19 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>7.242598152884197e-05</v>
+        <v>7.261669421746698e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>1.73556221416906e-06</v>
+        <v>1.739149529568831e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>167.5125686750932</v>
+        <v>157.2884806158138</v>
       </c>
       <c r="E112" t="n">
-        <v>1.515242567058045e-33</v>
+        <v>2.221199740109185e-31</v>
       </c>
       <c r="F112" t="n">
-        <v>27.91876144584887</v>
+        <v>26.21474676930231</v>
       </c>
     </row>
     <row r="113">
@@ -2618,19 +2618,19 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>7.011604069365169e-05</v>
+        <v>7.062431186928629e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1.628596474890854e-06</v>
+        <v>1.644320784686828e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>157.3398794712107</v>
+        <v>149.9441004871661</v>
       </c>
       <c r="E113" t="n">
-        <v>2.166240540976972e-31</v>
+        <v>7.950697285295899e-30</v>
       </c>
       <c r="F113" t="n">
-        <v>26.22331324520178</v>
+        <v>24.99068341452768</v>
       </c>
     </row>
     <row r="114">
@@ -2638,19 +2638,19 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>7.258935074309674e-05</v>
+        <v>7.210950986230519e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>1.666527091452635e-06</v>
+        <v>1.66858216401494e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>150.7247993692418</v>
+        <v>161.2558514781554</v>
       </c>
       <c r="E114" t="n">
-        <v>5.436623833466693e-30</v>
+        <v>3.209589303203211e-32</v>
       </c>
       <c r="F114" t="n">
-        <v>25.12079989487364</v>
+        <v>26.87597524635923</v>
       </c>
     </row>
     <row r="115">
@@ -2658,19 +2658,19 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>7.257962333165128e-05</v>
+        <v>7.183244457624225e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>1.701378953177164e-06</v>
+        <v>1.694599965891934e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>153.6676858232054</v>
+        <v>165.2895298037755</v>
       </c>
       <c r="E115" t="n">
-        <v>1.296775012962055e-30</v>
+        <v>4.484812058018573e-33</v>
       </c>
       <c r="F115" t="n">
-        <v>25.61128097053424</v>
+        <v>27.54825496729592</v>
       </c>
     </row>
     <row r="116">
@@ -2678,19 +2678,19 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>7.220480354477602e-05</v>
+        <v>7.328381262241091e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>1.712535588271829e-06</v>
+        <v>1.730400637379154e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>183.9068222896309</v>
+        <v>172.29142734396</v>
       </c>
       <c r="E116" t="n">
-        <v>5.019863134764213e-37</v>
+        <v>1.468625826712577e-34</v>
       </c>
       <c r="F116" t="n">
-        <v>30.65113704827182</v>
+        <v>28.71523789066001</v>
       </c>
     </row>
     <row r="117">
@@ -2698,19 +2698,19 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>8.022179969329507e-05</v>
+        <v>8.152317000094222e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>1.922199566499868e-06</v>
+        <v>1.952942374319676e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>147.6793571674287</v>
+        <v>135.5405462579003</v>
       </c>
       <c r="E117" t="n">
-        <v>2.39412272703852e-29</v>
+        <v>8.741936865238419e-27</v>
       </c>
       <c r="F117" t="n">
-        <v>24.61322619457145</v>
+        <v>22.59009104298338</v>
       </c>
     </row>
     <row r="118">
@@ -2718,19 +2718,19 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>7.430845218637616e-05</v>
+        <v>7.467892870159656e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1.680020837799979e-06</v>
+        <v>1.684515339832799e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>172.8868351844449</v>
+        <v>169.6293116410872</v>
       </c>
       <c r="E118" t="n">
-        <v>1.097948038283924e-34</v>
+        <v>5.390324330307516e-34</v>
       </c>
       <c r="F118" t="n">
-        <v>28.81447253074081</v>
+        <v>28.27155194018121</v>
       </c>
     </row>
     <row r="119">
@@ -2738,19 +2738,19 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>7.49133180520414e-05</v>
+        <v>7.464807051256369e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1.765117996074295e-06</v>
+        <v>1.760816677820714e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>168.2188320234904</v>
+        <v>173.2062762799468</v>
       </c>
       <c r="E119" t="n">
-        <v>1.073321741966491e-33</v>
+        <v>9.392926183212533e-35</v>
       </c>
       <c r="F119" t="n">
-        <v>28.03647200391508</v>
+        <v>28.86771271332448</v>
       </c>
     </row>
     <row r="120">
@@ -2758,19 +2758,19 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>7.577182795727889e-05</v>
+        <v>7.595901811979215e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1.730616614759947e-06</v>
+        <v>1.733495502010114e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>180.8903427002505</v>
+        <v>178.5241673414702</v>
       </c>
       <c r="E120" t="n">
-        <v>2.195354507563307e-36</v>
+        <v>6.982382483386848e-36</v>
       </c>
       <c r="F120" t="n">
-        <v>30.14839045004176</v>
+        <v>29.75402789024503</v>
       </c>
     </row>
     <row r="121">
@@ -2778,19 +2778,19 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>8.282954087522037e-05</v>
+        <v>8.328529690685319e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>1.938564053932522e-06</v>
+        <v>1.945629842848592e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>175.8796035204108</v>
+        <v>163.0223080740221</v>
       </c>
       <c r="E121" t="n">
-        <v>2.543586863853901e-35</v>
+        <v>1.355859540995005e-32</v>
       </c>
       <c r="F121" t="n">
-        <v>29.3132672534018</v>
+        <v>27.17038467900369</v>
       </c>
     </row>
     <row r="122">
@@ -2798,19 +2798,19 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>7.784902026003319e-05</v>
+        <v>7.744667879394151e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1.7448328248184e-06</v>
+        <v>1.739751168451798e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>200.3359913782496</v>
+        <v>207.253598369575</v>
       </c>
       <c r="E122" t="n">
-        <v>1.60949983142884e-40</v>
+        <v>5.416870974383179e-42</v>
       </c>
       <c r="F122" t="n">
-        <v>33.38933189637493</v>
+        <v>34.54226639492916</v>
       </c>
     </row>
     <row r="123">
@@ -2818,19 +2818,19 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>7.756005646169653e-05</v>
+        <v>7.773401484011901e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>1.698458410666269e-06</v>
+        <v>1.702105841307842e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>244.8428456448583</v>
+        <v>245.4478439649807</v>
       </c>
       <c r="E123" t="n">
-        <v>5.185984479863246e-50</v>
+        <v>3.851089545452301e-50</v>
       </c>
       <c r="F123" t="n">
-        <v>40.80714094080972</v>
+        <v>40.90797399416346</v>
       </c>
     </row>
     <row r="124">
@@ -2838,19 +2838,19 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>9.000614854562284e-05</v>
+        <v>9.019422203993658e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>2.031660622427492e-06</v>
+        <v>2.037372622543982e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>155.2826460855277</v>
+        <v>154.1857655858127</v>
       </c>
       <c r="E124" t="n">
-        <v>5.903963715713603e-31</v>
+        <v>1.007512704079031e-30</v>
       </c>
       <c r="F124" t="n">
-        <v>25.88044101425461</v>
+        <v>25.69762759763545</v>
       </c>
     </row>
     <row r="125">
@@ -2858,19 +2858,19 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>9.0850449986081e-05</v>
+        <v>9.035247089177359e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>2.020044542876431e-06</v>
+        <v>2.014092462017304e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>232.3895165745227</v>
+        <v>241.0090763587524</v>
       </c>
       <c r="E125" t="n">
-        <v>2.366331846993071e-47</v>
+        <v>3.417656753591139e-49</v>
       </c>
       <c r="F125" t="n">
-        <v>38.73158609575379</v>
+        <v>40.16817939312539</v>
       </c>
     </row>
     <row r="126">
@@ -2878,19 +2878,19 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0001043349257565752</v>
+        <v>0.0001051235709290459</v>
       </c>
       <c r="C126" t="n">
-        <v>2.311644976998176e-06</v>
+        <v>2.324814969826656e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>185.2161287301893</v>
+        <v>179.9561621145062</v>
       </c>
       <c r="E126" t="n">
-        <v>2.645298958543183e-37</v>
+        <v>3.466665355415864e-36</v>
       </c>
       <c r="F126" t="n">
-        <v>30.86935478836488</v>
+        <v>29.99269368575104</v>
       </c>
     </row>
     <row r="127">
@@ -2898,19 +2898,19 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0001032650654634875</v>
+        <v>0.0001026093843322477</v>
       </c>
       <c r="C127" t="n">
-        <v>2.268966722208166e-06</v>
+        <v>2.26240695405421e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>174.1388681521615</v>
+        <v>183.5733742933066</v>
       </c>
       <c r="E127" t="n">
-        <v>5.955272564430338e-35</v>
+        <v>5.909354497712525e-37</v>
       </c>
       <c r="F127" t="n">
-        <v>29.02314469202691</v>
+        <v>30.59556238221776</v>
       </c>
     </row>
     <row r="128">
@@ -2918,19 +2918,19 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001264786506427353</v>
+        <v>0.0001261703625817793</v>
       </c>
       <c r="C128" t="n">
-        <v>2.851904325709934e-06</v>
+        <v>2.849822518005252e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>159.9392147583256</v>
+        <v>163.5609107245127</v>
       </c>
       <c r="E128" t="n">
-        <v>6.099877372614091e-32</v>
+        <v>1.042529870079055e-32</v>
       </c>
       <c r="F128" t="n">
-        <v>26.65653579305426</v>
+        <v>27.26015178741878</v>
       </c>
     </row>
     <row r="129">
@@ -2938,19 +2938,19 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0002105829462690373</v>
+        <v>0.0002127235697203129</v>
       </c>
       <c r="C129" t="n">
-        <v>4.774527553362556e-06</v>
+        <v>4.804829836862449e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>119.8295660448611</v>
+        <v>109.1010510679895</v>
       </c>
       <c r="E129" t="n">
-        <v>1.769590515471942e-23</v>
+        <v>3.144089049192755e-21</v>
       </c>
       <c r="F129" t="n">
-        <v>19.97159434081019</v>
+        <v>18.18350851133158</v>
       </c>
     </row>
     <row r="130">
@@ -2958,19 +2958,19 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002938067079038556</v>
+        <v>0.0002940983043190682</v>
       </c>
       <c r="C130" t="n">
-        <v>6.478811885779609e-06</v>
+        <v>6.473827111220903e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>113.9010310933809</v>
+        <v>107.3573076463598</v>
       </c>
       <c r="E130" t="n">
-        <v>3.103982547272214e-22</v>
+        <v>7.284633674633894e-21</v>
       </c>
       <c r="F130" t="n">
-        <v>18.98350518223016</v>
+        <v>17.89288460772663</v>
       </c>
     </row>
     <row r="131">
@@ -2978,19 +2978,19 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.000294938235880876</v>
+        <v>0.0002963915692830937</v>
       </c>
       <c r="C131" t="n">
-        <v>6.682118262786258e-06</v>
+        <v>6.752865589627816e-06</v>
       </c>
       <c r="D131" t="n">
-        <v>107.3330494230961</v>
+        <v>104.8467084424181</v>
       </c>
       <c r="E131" t="n">
-        <v>7.370258009080595e-21</v>
+        <v>2.440118896259657e-20</v>
       </c>
       <c r="F131" t="n">
-        <v>17.88884157051602</v>
+        <v>17.47445140706968</v>
       </c>
     </row>
     <row r="132">
@@ -2998,19 +2998,19 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002726371700638242</v>
+        <v>0.0002750574050161631</v>
       </c>
       <c r="C132" t="n">
-        <v>6.108450859507489e-06</v>
+        <v>6.140994025169584e-06</v>
       </c>
       <c r="D132" t="n">
-        <v>125.9763457013456</v>
+        <v>117.0168032321316</v>
       </c>
       <c r="E132" t="n">
-        <v>9.033573529366494e-25</v>
+        <v>6.892443737174936e-23</v>
       </c>
       <c r="F132" t="n">
-        <v>20.99605761689093</v>
+        <v>19.50280053868859</v>
       </c>
     </row>
     <row r="133">
@@ -3018,19 +3018,19 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002716803192754202</v>
+        <v>0.0002727878374735707</v>
       </c>
       <c r="C133" t="n">
-        <v>6.054911456442992e-06</v>
+        <v>6.076192486026731e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>99.05029125517009</v>
+        <v>102.2374234514671</v>
       </c>
       <c r="E133" t="n">
-        <v>3.959658964161073e-19</v>
+        <v>8.561360329407416e-20</v>
       </c>
       <c r="F133" t="n">
-        <v>16.50838187586168</v>
+        <v>17.03957057524451</v>
       </c>
     </row>
     <row r="134">
@@ -3038,19 +3038,19 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0002670786669965268</v>
+        <v>0.0002663417087619048</v>
       </c>
       <c r="C134" t="n">
-        <v>6.020998115118107e-06</v>
+        <v>6.011482518193158e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>104.2998221937002</v>
+        <v>104.7378926330046</v>
       </c>
       <c r="E134" t="n">
-        <v>3.174754724491138e-20</v>
+        <v>2.57131512286016e-20</v>
       </c>
       <c r="F134" t="n">
-        <v>17.38330369895003</v>
+        <v>17.45631543883411</v>
       </c>
     </row>
     <row r="135">
@@ -3058,19 +3058,19 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002557934069628201</v>
+        <v>0.0002567141169472474</v>
       </c>
       <c r="C135" t="n">
-        <v>5.95017805441808e-06</v>
+        <v>5.963039170237159e-06</v>
       </c>
       <c r="D135" t="n">
-        <v>85.03949538077919</v>
+        <v>87.06175306840241</v>
       </c>
       <c r="E135" t="n">
-        <v>3.239516465002886e-16</v>
+        <v>1.233934123167223e-16</v>
       </c>
       <c r="F135" t="n">
-        <v>14.17324923012986</v>
+        <v>14.51029217806707</v>
       </c>
     </row>
     <row r="136">
@@ -3078,19 +3078,19 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002308909514354935</v>
+        <v>0.0002292727902545837</v>
       </c>
       <c r="C136" t="n">
-        <v>5.334509684511911e-06</v>
+        <v>5.314488340953524e-06</v>
       </c>
       <c r="D136" t="n">
-        <v>91.18479604385898</v>
+        <v>99.92833813486222</v>
       </c>
       <c r="E136" t="n">
-        <v>1.718989660525066e-17</v>
+        <v>2.597192594000925e-19</v>
       </c>
       <c r="F136" t="n">
-        <v>15.19746600730983</v>
+        <v>16.65472302247704</v>
       </c>
     </row>
     <row r="137">
@@ -3098,19 +3098,19 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.000173832523143823</v>
+        <v>0.0001760782074332</v>
       </c>
       <c r="C137" t="n">
-        <v>4.295084288386755e-06</v>
+        <v>4.343780545284081e-06</v>
       </c>
       <c r="D137" t="n">
-        <v>118.741440875529</v>
+        <v>116.3826236528921</v>
       </c>
       <c r="E137" t="n">
-        <v>2.994784610206307e-23</v>
+        <v>9.363630168148099e-23</v>
       </c>
       <c r="F137" t="n">
-        <v>19.7902401459215</v>
+        <v>19.39710394214868</v>
       </c>
     </row>
     <row r="138">
@@ -3118,19 +3118,19 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001193851257184459</v>
+        <v>0.0001186923292996752</v>
       </c>
       <c r="C138" t="n">
-        <v>2.979041174275729e-06</v>
+        <v>2.968197232897801e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>131.0068302715702</v>
+        <v>139.6323756951009</v>
       </c>
       <c r="E138" t="n">
-        <v>7.888316853026262e-26</v>
+        <v>1.19821997370765e-27</v>
       </c>
       <c r="F138" t="n">
-        <v>21.83447171192836</v>
+        <v>23.27206261585015</v>
       </c>
     </row>
     <row r="139">
@@ -3138,19 +3138,19 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002240702760913497</v>
+        <v>0.0002242415114636101</v>
       </c>
       <c r="C139" t="n">
-        <v>4.832492991553422e-06</v>
+        <v>4.8371563914722e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>191.6318637857337</v>
+        <v>193.8707513519255</v>
       </c>
       <c r="E139" t="n">
-        <v>1.144404338444728e-38</v>
+        <v>3.822924417674516e-39</v>
       </c>
       <c r="F139" t="n">
-        <v>31.93864396428894</v>
+        <v>32.31179189198758</v>
       </c>
     </row>
     <row r="140">
@@ -3158,19 +3158,19 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002232386936637719</v>
+        <v>0.0002248190696712356</v>
       </c>
       <c r="C140" t="n">
-        <v>4.874509634858337e-06</v>
+        <v>4.900924633113889e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>197.1245138512299</v>
+        <v>196.0995827229693</v>
       </c>
       <c r="E140" t="n">
-        <v>7.765313134993148e-40</v>
+        <v>1.283033685914797e-39</v>
       </c>
       <c r="F140" t="n">
-        <v>32.85408564187166</v>
+        <v>32.68326378716154</v>
       </c>
     </row>
     <row r="141">
@@ -3178,19 +3178,19 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0002176789958130921</v>
+        <v>0.0002171816986588765</v>
       </c>
       <c r="C141" t="n">
-        <v>4.578340974853301e-06</v>
+        <v>4.572607329455332e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>222.9275490513672</v>
+        <v>224.8720318843744</v>
       </c>
       <c r="E141" t="n">
-        <v>2.471311224155902e-45</v>
+        <v>9.509646926208932e-46</v>
       </c>
       <c r="F141" t="n">
-        <v>37.1545915085612</v>
+        <v>37.47867198072907</v>
       </c>
     </row>
     <row r="142">
@@ -3198,19 +3198,19 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001836647606728776</v>
+        <v>0.0001848747369475536</v>
       </c>
       <c r="C142" t="n">
-        <v>4.0260321002733e-06</v>
+        <v>4.044470781362988e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>311.1782656370428</v>
+        <v>304.1507954880355</v>
       </c>
       <c r="E142" t="n">
-        <v>3.288585416551589e-64</v>
+        <v>1.05509911261821e-62</v>
       </c>
       <c r="F142" t="n">
-        <v>51.86304427284046</v>
+        <v>50.69179924800591</v>
       </c>
     </row>
     <row r="143">
@@ -3218,19 +3218,19 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0001838578215904189</v>
+        <v>0.000184306681952297</v>
       </c>
       <c r="C143" t="n">
-        <v>4.091608595473137e-06</v>
+        <v>4.094815947700288e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>318.1365664506708</v>
+        <v>309.487554040713</v>
       </c>
       <c r="E143" t="n">
-        <v>1.059546149766401e-65</v>
+        <v>7.576015338071896e-64</v>
       </c>
       <c r="F143" t="n">
-        <v>53.0227610751118</v>
+        <v>51.5812590067855</v>
       </c>
     </row>
     <row r="144">
@@ -3238,19 +3238,19 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002976239653164189</v>
+        <v>0.0003008241976000569</v>
       </c>
       <c r="C144" t="n">
-        <v>7.162206124343366e-06</v>
+        <v>7.213990684417804e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>391.673985269896</v>
+        <v>379.2144891682191</v>
       </c>
       <c r="E144" t="n">
-        <v>1.722937015791655e-81</v>
+        <v>8.201262499798129e-79</v>
       </c>
       <c r="F144" t="n">
-        <v>65.27899754498266</v>
+        <v>63.20241486136985</v>
       </c>
     </row>
     <row r="145">
@@ -3258,19 +3258,19 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003872534598528778</v>
+        <v>0.0003871833847868312</v>
       </c>
       <c r="C145" t="n">
-        <v>8.849700494772257e-06</v>
+        <v>8.855811431111162e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>424.5043038839073</v>
+        <v>426.0302198770363</v>
       </c>
       <c r="E145" t="n">
-        <v>1.502546905271349e-88</v>
+        <v>7.056373348279767e-89</v>
       </c>
       <c r="F145" t="n">
-        <v>70.75071731398455</v>
+        <v>71.00503664617271</v>
       </c>
     </row>
     <row r="146">
@@ -3278,19 +3278,19 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0003772427275707542</v>
+        <v>0.0003763060309441143</v>
       </c>
       <c r="C146" t="n">
-        <v>9.020831097982113e-06</v>
+        <v>8.985027793825512e-06</v>
       </c>
       <c r="D146" t="n">
-        <v>405.2520970289817</v>
+        <v>407.1260735135233</v>
       </c>
       <c r="E146" t="n">
-        <v>2.076215293848103e-84</v>
+        <v>8.209772527987225e-85</v>
       </c>
       <c r="F146" t="n">
-        <v>67.54201617149694</v>
+        <v>67.85434558558721</v>
       </c>
     </row>
     <row r="147">
@@ -3298,19 +3298,19 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0003875326655518559</v>
+        <v>0.0003915698985011313</v>
       </c>
       <c r="C147" t="n">
-        <v>9.403563612737583e-06</v>
+        <v>9.497294053787027e-06</v>
       </c>
       <c r="D147" t="n">
-        <v>386.7969796431349</v>
+        <v>377.7131463983287</v>
       </c>
       <c r="E147" t="n">
-        <v>1.925175525593043e-80</v>
+        <v>1.723716015562852e-78</v>
       </c>
       <c r="F147" t="n">
-        <v>64.46616327385581</v>
+        <v>62.95219106638811</v>
       </c>
     </row>
     <row r="148">
@@ -3318,19 +3318,19 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0003800664673567532</v>
+        <v>0.0003856730575119219</v>
       </c>
       <c r="C148" t="n">
-        <v>9.260407728543873e-06</v>
+        <v>9.318397860298483e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>392.5675446561673</v>
+        <v>373.8679469761893</v>
       </c>
       <c r="E148" t="n">
-        <v>1.107145452550915e-81</v>
+        <v>1.1550471865563e-77</v>
       </c>
       <c r="F148" t="n">
-        <v>65.42792410936121</v>
+        <v>62.31132449603155</v>
       </c>
     </row>
     <row r="149">
@@ -3338,19 +3338,19 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0003854075274272148</v>
+        <v>0.0003828905726446566</v>
       </c>
       <c r="C149" t="n">
-        <v>9.256206915286062e-06</v>
+        <v>9.222626933668163e-06</v>
       </c>
       <c r="D149" t="n">
-        <v>368.6496387554718</v>
+        <v>380.093880699479</v>
       </c>
       <c r="E149" t="n">
-        <v>1.526152338838628e-76</v>
+        <v>5.30792258411311e-79</v>
       </c>
       <c r="F149" t="n">
-        <v>61.4416064592453</v>
+        <v>63.34898011657983</v>
       </c>
     </row>
     <row r="150">
@@ -3358,19 +3358,19 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0007173860569437401</v>
+        <v>0.0007164639986469721</v>
       </c>
       <c r="C150" t="n">
-        <v>1.580465038619912e-05</v>
+        <v>1.578347484743518e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>301.2088982695351</v>
+        <v>303.5989352417986</v>
       </c>
       <c r="E150" t="n">
-        <v>4.505381626879468e-62</v>
+        <v>1.38535521434511e-62</v>
       </c>
       <c r="F150" t="n">
-        <v>50.20148304492252</v>
+        <v>50.59982254029976</v>
       </c>
     </row>
     <row r="151">
@@ -3378,19 +3378,19 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0007933787512741431</v>
+        <v>0.0007925605359859177</v>
       </c>
       <c r="C151" t="n">
-        <v>1.708930286763955e-05</v>
+        <v>1.707580915930792e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>259.0890463714848</v>
+        <v>260.3174117427703</v>
       </c>
       <c r="E151" t="n">
-        <v>4.677795371554026e-53</v>
+        <v>2.554946223922259e-53</v>
       </c>
       <c r="F151" t="n">
-        <v>43.1815077285808</v>
+        <v>43.38623529046172</v>
       </c>
     </row>
     <row r="152">
@@ -3398,19 +3398,19 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0007435282536789171</v>
+        <v>0.0007438963493392649</v>
       </c>
       <c r="C152" t="n">
-        <v>1.623224053656923e-05</v>
+        <v>1.623944129976564e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>262.9930719012323</v>
+        <v>264.1621884031243</v>
       </c>
       <c r="E152" t="n">
-        <v>6.842012094657671e-54</v>
+        <v>3.847130123609309e-54</v>
       </c>
       <c r="F152" t="n">
-        <v>43.83217865020539</v>
+        <v>44.02703140052071</v>
       </c>
     </row>
     <row r="153">
@@ -3418,19 +3418,19 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0007114004037787277</v>
+        <v>0.0007109233795170483</v>
       </c>
       <c r="C153" t="n">
-        <v>1.551874656262629e-05</v>
+        <v>1.552791040131661e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>273.173575085779</v>
+        <v>277.7617430249337</v>
       </c>
       <c r="E153" t="n">
-        <v>4.542116573034696e-56</v>
+        <v>4.7349207947551e-57</v>
       </c>
       <c r="F153" t="n">
-        <v>45.52892918096317</v>
+        <v>46.29362383748895</v>
       </c>
     </row>
     <row r="154">
@@ -3438,19 +3438,19 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0007186630876589722</v>
+        <v>0.00071923366820942</v>
       </c>
       <c r="C154" t="n">
-        <v>1.577576016428679e-05</v>
+        <v>1.578936537192967e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>271.1489739568711</v>
+        <v>270.4602034414954</v>
       </c>
       <c r="E154" t="n">
-        <v>1.231631707834107e-55</v>
+        <v>1.729229366011333e-55</v>
       </c>
       <c r="F154" t="n">
-        <v>45.19149565947853</v>
+        <v>45.07670057358256</v>
       </c>
     </row>
     <row r="155">
@@ -3458,19 +3458,19 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006835182918108676</v>
+        <v>0.0006878526096083562</v>
       </c>
       <c r="C155" t="n">
-        <v>1.502226595874472e-05</v>
+        <v>1.508446351555752e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>261.6808080391863</v>
+        <v>254.8529084681904</v>
       </c>
       <c r="E155" t="n">
-        <v>1.305649370938425e-53</v>
+        <v>3.764431483564685e-52</v>
       </c>
       <c r="F155" t="n">
-        <v>43.61346800653106</v>
+        <v>42.4754847446984</v>
       </c>
     </row>
     <row r="156">
@@ -3478,19 +3478,19 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0006507163298596525</v>
+        <v>0.0006545130251542374</v>
       </c>
       <c r="C156" t="n">
-        <v>1.415618064522824e-05</v>
+        <v>1.420620233918052e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>246.9821760567708</v>
+        <v>238.2305385624627</v>
       </c>
       <c r="E156" t="n">
-        <v>1.8104079841468e-50</v>
+        <v>1.339961696532226e-48</v>
       </c>
       <c r="F156" t="n">
-        <v>41.1636960094618</v>
+        <v>39.70508976041044</v>
       </c>
     </row>
     <row r="157">
@@ -3498,19 +3498,19 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005565428453162455</v>
+        <v>0.0005577896392293095</v>
       </c>
       <c r="C157" t="n">
-        <v>1.187513680572276e-05</v>
+        <v>1.189805829301676e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>198.0212228220682</v>
+        <v>196.2895593389218</v>
       </c>
       <c r="E157" t="n">
-        <v>5.004300740847967e-40</v>
+        <v>1.169008448630336e-39</v>
       </c>
       <c r="F157" t="n">
-        <v>33.00353713701137</v>
+        <v>32.71492655648697</v>
       </c>
     </row>
     <row r="158">
@@ -3518,19 +3518,19 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0004122859798610797</v>
+        <v>0.0004115614616633365</v>
       </c>
       <c r="C158" t="n">
-        <v>9.143333155513673e-06</v>
+        <v>9.139388182280706e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>149.3910611112693</v>
+        <v>152.0516709482194</v>
       </c>
       <c r="E158" t="n">
-        <v>1.04070951394029e-29</v>
+        <v>2.849149283664395e-30</v>
       </c>
       <c r="F158" t="n">
-        <v>24.89851018521155</v>
+        <v>25.34194515803657</v>
       </c>
     </row>
     <row r="159">
@@ -3538,19 +3538,19 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002403624637803538</v>
+        <v>0.000240467034707913</v>
       </c>
       <c r="C159" t="n">
-        <v>5.41737740441042e-06</v>
+        <v>5.413859977931322e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>124.8758505840624</v>
+        <v>125.138181008112</v>
       </c>
       <c r="E159" t="n">
-        <v>1.539321848193195e-24</v>
+        <v>1.355684761915396e-24</v>
       </c>
       <c r="F159" t="n">
-        <v>20.8126417640104</v>
+        <v>20.856363501352</v>
       </c>
     </row>
     <row r="160">
@@ -3558,19 +3558,19 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002529298184399724</v>
+        <v>0.0002531522085646636</v>
       </c>
       <c r="C160" t="n">
-        <v>5.970986540300891e-06</v>
+        <v>5.979447326184471e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>143.4329558467077</v>
+        <v>144.2330938250931</v>
       </c>
       <c r="E160" t="n">
-        <v>1.88906619692329e-28</v>
+        <v>1.280159846397709e-28</v>
       </c>
       <c r="F160" t="n">
-        <v>23.90549264111796</v>
+        <v>24.03884897084886</v>
       </c>
     </row>
     <row r="161">
@@ -3578,19 +3578,19 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001388578637871606</v>
+        <v>0.0001393067899152411</v>
       </c>
       <c r="C161" t="n">
-        <v>3.401802028943199e-06</v>
+        <v>3.412368016909879e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>84.20019479456154</v>
+        <v>82.58661605265395</v>
       </c>
       <c r="E161" t="n">
-        <v>4.834151405396954e-16</v>
+        <v>1.043038232138403e-15</v>
       </c>
       <c r="F161" t="n">
-        <v>14.03336579909359</v>
+        <v>13.76443600877566</v>
       </c>
     </row>
     <row r="162">
@@ -3598,19 +3598,19 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001215394312515443</v>
+        <v>0.0001214550962840888</v>
       </c>
       <c r="C162" t="n">
-        <v>3.126596182409692e-06</v>
+        <v>3.139587019023179e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>71.54089338227949</v>
+        <v>71.33913256756081</v>
       </c>
       <c r="E162" t="n">
-        <v>1.97415519964317e-13</v>
+        <v>2.171743847405336e-13</v>
       </c>
       <c r="F162" t="n">
-        <v>11.92348223037992</v>
+        <v>11.8898554279268</v>
       </c>
     </row>
     <row r="163">
@@ -3618,19 +3618,19 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001230779653442466</v>
+        <v>0.0001231685302752439</v>
       </c>
       <c r="C163" t="n">
-        <v>3.093827513614657e-06</v>
+        <v>3.081782113848988e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>100.9155096700644</v>
+        <v>95.43693075233449</v>
       </c>
       <c r="E163" t="n">
-        <v>1.616259761765783e-19</v>
+        <v>2.242197915916402e-18</v>
       </c>
       <c r="F163" t="n">
-        <v>16.81925161167739</v>
+        <v>15.90615512538908</v>
       </c>
     </row>
     <row r="164">
@@ -3638,19 +3638,19 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001202987546877918</v>
+        <v>0.0001204922154367313</v>
       </c>
       <c r="C164" t="n">
-        <v>3.031994972131343e-06</v>
+        <v>3.040068890448947e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>112.9239272117186</v>
+        <v>111.6017165575392</v>
       </c>
       <c r="E164" t="n">
-        <v>4.974428673054566e-22</v>
+        <v>9.41476648914648e-22</v>
       </c>
       <c r="F164" t="n">
-        <v>18.82065453528644</v>
+        <v>18.6002860929232</v>
       </c>
     </row>
     <row r="165">
@@ -3658,19 +3658,19 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001193120552528599</v>
+        <v>0.0001189466644444569</v>
       </c>
       <c r="C165" t="n">
-        <v>3.089730208629089e-06</v>
+        <v>3.076648549394052e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>132.7150128022662</v>
+        <v>134.4279769333051</v>
       </c>
       <c r="E165" t="n">
-        <v>3.444600459164447e-26</v>
+        <v>1.500188793323588e-26</v>
       </c>
       <c r="F165" t="n">
-        <v>22.1191688003777</v>
+        <v>22.40466282221751</v>
       </c>
     </row>
     <row r="166">
@@ -3678,19 +3678,19 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001249879154470789</v>
+        <v>0.0001268998038123617</v>
       </c>
       <c r="C166" t="n">
-        <v>3.347606264704696e-06</v>
+        <v>3.389489276413982e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>118.3718739971235</v>
+        <v>109.3836366822953</v>
       </c>
       <c r="E166" t="n">
-        <v>3.58058582914584e-23</v>
+        <v>2.743708005052431e-21</v>
       </c>
       <c r="F166" t="n">
-        <v>19.72864566618724</v>
+        <v>18.23060611371588</v>
       </c>
     </row>
     <row r="167">
@@ -3698,19 +3698,19 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001217802268495413</v>
+        <v>0.0001216877222636807</v>
       </c>
       <c r="C167" t="n">
-        <v>2.982038805705442e-06</v>
+        <v>2.972116994977715e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>152.2738023070226</v>
+        <v>150.2481288563094</v>
       </c>
       <c r="E167" t="n">
-        <v>2.557003503566289e-30</v>
+        <v>6.856811958073445e-30</v>
       </c>
       <c r="F167" t="n">
-        <v>25.37896705117044</v>
+        <v>25.04135480938491</v>
       </c>
     </row>
     <row r="168">
@@ -3718,19 +3718,19 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001245860710339638</v>
+        <v>0.0001233304776135548</v>
       </c>
       <c r="C168" t="n">
-        <v>2.970825128714047e-06</v>
+        <v>2.953523003059093e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>184.5950123146095</v>
+        <v>192.0588988920094</v>
       </c>
       <c r="E168" t="n">
-        <v>3.584778678894873e-37</v>
+        <v>9.28460155573649e-39</v>
       </c>
       <c r="F168" t="n">
-        <v>30.76583538576824</v>
+        <v>32.00981648200158</v>
       </c>
     </row>
     <row r="169">
@@ -3738,19 +3738,19 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001312899131711445</v>
+        <v>0.0001312314218710103</v>
       </c>
       <c r="C169" t="n">
-        <v>3.013857986098196e-06</v>
+        <v>3.003621036090829e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>212.7100906867584</v>
+        <v>212.7654123501607</v>
       </c>
       <c r="E169" t="n">
-        <v>3.726003764809567e-43</v>
+        <v>3.626219533667271e-43</v>
       </c>
       <c r="F169" t="n">
-        <v>35.4516817811264</v>
+        <v>35.46090205836012</v>
       </c>
     </row>
     <row r="170">
@@ -3758,19 +3758,19 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001306155619201276</v>
+        <v>0.0001320992355971477</v>
       </c>
       <c r="C170" t="n">
-        <v>3.140416792096713e-06</v>
+        <v>3.162480139322787e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>240.1244348683261</v>
+        <v>231.9372444267834</v>
       </c>
       <c r="E170" t="n">
-        <v>5.280297205463232e-49</v>
+        <v>2.955342324164158e-47</v>
       </c>
       <c r="F170" t="n">
-        <v>40.02073914472103</v>
+        <v>38.65620740446389</v>
       </c>
     </row>
     <row r="171">
@@ -3778,19 +3778,19 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001415580877814102</v>
+        <v>0.0001421023157291605</v>
       </c>
       <c r="C171" t="n">
-        <v>3.136722073668759e-06</v>
+        <v>3.146568241581716e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>312.9035372377497</v>
+        <v>311.000656731495</v>
       </c>
       <c r="E171" t="n">
-        <v>1.403275082483154e-64</v>
+        <v>3.5899111391644e-64</v>
       </c>
       <c r="F171" t="n">
-        <v>52.15058953962495</v>
+        <v>51.83344278858251</v>
       </c>
     </row>
     <row r="172">
@@ -3798,19 +3798,19 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001690484932337146</v>
+        <v>0.0001697583511165346</v>
       </c>
       <c r="C172" t="n">
-        <v>3.807585060806992e-06</v>
+        <v>3.821659964841449e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>387.4746492346537</v>
+        <v>385.1491155023693</v>
       </c>
       <c r="E172" t="n">
-        <v>1.376666786328555e-80</v>
+        <v>4.351213161475221e-80</v>
       </c>
       <c r="F172" t="n">
-        <v>64.57910820577561</v>
+        <v>64.19151925039488</v>
       </c>
     </row>
     <row r="173">
@@ -3818,19 +3818,19 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>0.000208330547761041</v>
+        <v>0.0002119346311046781</v>
       </c>
       <c r="C173" t="n">
-        <v>5.059236387383256e-06</v>
+        <v>5.111455461897042e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>511.8473882138325</v>
+        <v>494.3223572782069</v>
       </c>
       <c r="E173" t="n">
-        <v>2.356876141784794e-107</v>
+        <v>1.405104805186745e-103</v>
       </c>
       <c r="F173" t="n">
-        <v>85.30789803563874</v>
+        <v>82.38705954636782</v>
       </c>
     </row>
     <row r="174">
@@ -3838,19 +3838,19 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0002550099861855442</v>
+        <v>0.0002562278698993116</v>
       </c>
       <c r="C174" t="n">
-        <v>5.959173280877672e-06</v>
+        <v>5.970844736506506e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>635.0079228478648</v>
+        <v>629.1030375183134</v>
       </c>
       <c r="E174" t="n">
-        <v>6.531087964634026e-134</v>
+        <v>1.227795519137398e-132</v>
       </c>
       <c r="F174" t="n">
-        <v>105.8346538079775</v>
+        <v>104.8505062530522</v>
       </c>
     </row>
     <row r="175">
@@ -3858,19 +3858,19 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.000277725199069637</v>
+        <v>0.0002750565474226522</v>
       </c>
       <c r="C175" t="n">
-        <v>6.94246474472512e-06</v>
+        <v>6.915306004595158e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>631.0688300734158</v>
+        <v>644.0654277666716</v>
       </c>
       <c r="E175" t="n">
-        <v>4.623394037161484e-133</v>
+        <v>7.251645185800897e-136</v>
       </c>
       <c r="F175" t="n">
-        <v>105.1781383455693</v>
+        <v>107.3442379611119</v>
       </c>
     </row>
     <row r="176">
@@ -3878,19 +3878,19 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0003438998870492421</v>
+        <v>0.0003435985474415623</v>
       </c>
       <c r="C176" t="n">
-        <v>8.990154853246447e-06</v>
+        <v>8.99726102478242e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>681.0311971301484</v>
+        <v>684.1757175397227</v>
       </c>
       <c r="E176" t="n">
-        <v>7.616393232334929e-144</v>
+        <v>1.595566843630559e-144</v>
       </c>
       <c r="F176" t="n">
-        <v>113.5051995216914</v>
+        <v>114.0292862566204</v>
       </c>
     </row>
     <row r="177">
@@ -3898,19 +3898,19 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0004347675725830006</v>
+        <v>0.0004345961466804491</v>
       </c>
       <c r="C177" t="n">
-        <v>1.121601722597525e-05</v>
+        <v>1.121399533802333e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>730.6596801538549</v>
+        <v>728.5389980130496</v>
       </c>
       <c r="E177" t="n">
-        <v>1.465494568891087e-154</v>
+        <v>4.206944020099015e-154</v>
       </c>
       <c r="F177" t="n">
-        <v>121.7766133589758</v>
+        <v>121.4231663355083</v>
       </c>
     </row>
     <row r="178">
@@ -3918,19 +3918,19 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004773508083672442</v>
+        <v>0.0004875383123101187</v>
       </c>
       <c r="C178" t="n">
-        <v>1.270214628354978e-05</v>
+        <v>1.295164873215193e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>686.3933824453641</v>
+        <v>671.3489465024871</v>
       </c>
       <c r="E178" t="n">
-        <v>5.298559882118234e-145</v>
+        <v>9.371794684863652e-142</v>
       </c>
       <c r="F178" t="n">
-        <v>114.3988970742273</v>
+        <v>111.8914910837479</v>
       </c>
     </row>
     <row r="179">
@@ -3938,19 +3938,19 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0005375932003344823</v>
+        <v>0.0005435320124021768</v>
       </c>
       <c r="C179" t="n">
-        <v>1.407640107051141e-05</v>
+        <v>1.412414486860041e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>674.1434837677148</v>
+        <v>655.7438548103833</v>
       </c>
       <c r="E179" t="n">
-        <v>2.336652020275393e-142</v>
+        <v>2.188057767925181e-138</v>
       </c>
       <c r="F179" t="n">
-        <v>112.3572472946191</v>
+        <v>109.2906424683972</v>
       </c>
     </row>
     <row r="180">
@@ -3958,19 +3958,19 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0006598967182685283</v>
+        <v>0.000669723619311764</v>
       </c>
       <c r="C180" t="n">
-        <v>1.155166592209085e-05</v>
+        <v>1.170293920076952e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>1346.569172975841</v>
+        <v>1316.958578972298</v>
       </c>
       <c r="E180" t="n">
-        <v>4.961917288267461e-280</v>
+        <v>1.181618987863969e-273</v>
       </c>
       <c r="F180" t="n">
-        <v>103.5822440750647</v>
+        <v>101.3045060747922</v>
       </c>
     </row>
     <row r="181">
@@ -3978,19 +3978,19 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.001075461089178302</v>
+        <v>0.001082161053452199</v>
       </c>
       <c r="C181" t="n">
-        <v>2.58528000269332e-05</v>
+        <v>2.59442750772101e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>522.7979073090086</v>
+        <v>514.062342425173</v>
       </c>
       <c r="E181" t="n">
-        <v>1.029858036150177e-109</v>
+        <v>7.854192472499005e-108</v>
       </c>
       <c r="F181" t="n">
-        <v>87.13298455150142</v>
+        <v>85.67705707086218</v>
       </c>
     </row>
     <row r="182">
@@ -3998,19 +3998,19 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001362091186132733</v>
+        <v>0.001377077254094644</v>
       </c>
       <c r="C182" t="n">
-        <v>3.216154372258643e-05</v>
+        <v>3.247244256310733e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>469.444351604958</v>
+        <v>464.2985209014235</v>
       </c>
       <c r="E182" t="n">
-        <v>3.200611572447897e-98</v>
+        <v>4.103016717306595e-97</v>
       </c>
       <c r="F182" t="n">
-        <v>78.240725267493</v>
+        <v>77.38308681690391</v>
       </c>
     </row>
     <row r="183">
@@ -4018,19 +4018,19 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001742421046063315</v>
+        <v>0.001740228692404034</v>
       </c>
       <c r="C183" t="n">
-        <v>3.891339109773651e-05</v>
+        <v>3.892273186217522e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>504.7455658664378</v>
+        <v>508.7413917716477</v>
       </c>
       <c r="E183" t="n">
-        <v>7.987110297928664e-106</v>
+        <v>1.100345831600071e-106</v>
       </c>
       <c r="F183" t="n">
-        <v>84.12426097773964</v>
+        <v>84.79023196194127</v>
       </c>
     </row>
     <row r="184">
@@ -4038,19 +4038,19 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001948395373039602</v>
+        <v>0.001951036151445906</v>
       </c>
       <c r="C184" t="n">
-        <v>4.39153065609789e-05</v>
+        <v>4.40233159092249e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>554.1974354901531</v>
+        <v>556.1662037704737</v>
       </c>
       <c r="E184" t="n">
-        <v>1.757638404902895e-116</v>
+        <v>6.614332205066744e-117</v>
       </c>
       <c r="F184" t="n">
-        <v>92.36623924835885</v>
+        <v>92.69436729507895</v>
       </c>
     </row>
     <row r="185">
@@ -4058,19 +4058,19 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.00194800611347645</v>
+        <v>0.001943954078837488</v>
       </c>
       <c r="C185" t="n">
-        <v>4.246017247509423e-05</v>
+        <v>4.243083909612275e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>523.1823368825526</v>
+        <v>526.3770755871074</v>
       </c>
       <c r="E185" t="n">
-        <v>8.510117671802493e-110</v>
+        <v>1.74371099139988e-110</v>
       </c>
       <c r="F185" t="n">
-        <v>87.1970561470921</v>
+        <v>87.72951259785123</v>
       </c>
     </row>
     <row r="186">
@@ -4078,19 +4078,19 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001931753062417822</v>
+        <v>0.001938903853598708</v>
       </c>
       <c r="C186" t="n">
-        <v>4.228290657898864e-05</v>
+        <v>4.239238863580961e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>494.0614366108798</v>
+        <v>491.3977084185447</v>
       </c>
       <c r="E186" t="n">
-        <v>1.599227264013367e-103</v>
+        <v>5.993145368680572e-103</v>
       </c>
       <c r="F186" t="n">
-        <v>82.34357276847996</v>
+        <v>81.89961806975745</v>
       </c>
     </row>
     <row r="187">
@@ -4098,19 +4098,19 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001998692017509478</v>
+        <v>0.00200351469535258</v>
       </c>
       <c r="C187" t="n">
-        <v>4.335695720736178e-05</v>
+        <v>4.343948986731762e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>454.1723399396053</v>
+        <v>451.8908990144101</v>
       </c>
       <c r="E187" t="n">
-        <v>6.207342701945131e-95</v>
+        <v>1.922912234131004e-94</v>
       </c>
       <c r="F187" t="n">
-        <v>75.69538998993421</v>
+        <v>75.31514983573503</v>
       </c>
     </row>
     <row r="188">
@@ -4118,19 +4118,19 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001587542917230739</v>
+        <v>0.001587316478252855</v>
       </c>
       <c r="C188" t="n">
-        <v>3.396452620264176e-05</v>
+        <v>3.397894985097593e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>463.1723556350574</v>
+        <v>466.1222956114765</v>
       </c>
       <c r="E188" t="n">
-        <v>7.17045516859252e-97</v>
+        <v>1.661369198083109e-97</v>
       </c>
       <c r="F188" t="n">
-        <v>77.19539260584291</v>
+        <v>77.68704926857941</v>
       </c>
     </row>
     <row r="189">
@@ -4138,19 +4138,19 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001235339855467842</v>
+        <v>0.00123526694946611</v>
       </c>
       <c r="C189" t="n">
-        <v>2.661045844545511e-05</v>
+        <v>2.661671861314457e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>415.0076548180616</v>
+        <v>416.6147647706098</v>
       </c>
       <c r="E189" t="n">
-        <v>1.657451540027635e-86</v>
+        <v>7.478289965788029e-87</v>
       </c>
       <c r="F189" t="n">
-        <v>69.16794246967693</v>
+        <v>69.43579412843496</v>
       </c>
     </row>
     <row r="190">
@@ -4158,19 +4158,19 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.000933696391338131</v>
+        <v>0.0009383486733011771</v>
       </c>
       <c r="C190" t="n">
-        <v>2.00127817681682e-05</v>
+        <v>2.009169954083468e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>333.2002118040918</v>
+        <v>328.7110307577461</v>
       </c>
       <c r="E190" t="n">
-        <v>6.223394972170823e-69</v>
+        <v>5.716495403801044e-68</v>
       </c>
       <c r="F190" t="n">
-        <v>55.5333686340153</v>
+        <v>54.78517179295768</v>
       </c>
     </row>
     <row r="191">
@@ -4178,19 +4178,19 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0006791844018745743</v>
+        <v>0.0006798006958222306</v>
       </c>
       <c r="C191" t="n">
-        <v>1.458527424059231e-05</v>
+        <v>1.460403693879855e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>271.1121054864346</v>
+        <v>270.9232124136128</v>
       </c>
       <c r="E191" t="n">
-        <v>1.254207829927288e-55</v>
+        <v>1.37653163859963e-55</v>
       </c>
       <c r="F191" t="n">
-        <v>45.18535091440577</v>
+        <v>45.15386873560212</v>
       </c>
     </row>
     <row r="192">
@@ -4198,19 +4198,19 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0004984251441309678</v>
+        <v>0.0004999619052070635</v>
       </c>
       <c r="C192" t="n">
-        <v>1.09724737636002e-05</v>
+        <v>1.099907958715654e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>229.1543734218501</v>
+        <v>229.5205237448141</v>
       </c>
       <c r="E192" t="n">
-        <v>1.160130413704093e-46</v>
+        <v>9.691096994655027e-47</v>
       </c>
       <c r="F192" t="n">
-        <v>38.19239557030836</v>
+        <v>38.25342062413568</v>
       </c>
     </row>
     <row r="193">
@@ -4218,19 +4218,19 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0003967418787587953</v>
+        <v>0.000397422473751974</v>
       </c>
       <c r="C193" t="n">
-        <v>6.257321883530308e-06</v>
+        <v>6.266988615127086e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>365.5176931363961</v>
+        <v>367.0924880773848</v>
       </c>
       <c r="E193" t="n">
-        <v>4.199025879578236e-70</v>
+        <v>1.956131485743399e-70</v>
       </c>
       <c r="F193" t="n">
-        <v>28.11674562587663</v>
+        <v>28.23788369826037</v>
       </c>
     </row>
     <row r="194">
@@ -4238,19 +4238,19 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003693672189754635</v>
+        <v>0.0003695986451242272</v>
       </c>
       <c r="C194" t="n">
-        <v>7.903631209120664e-06</v>
+        <v>7.912400527784355e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>154.530668390432</v>
+        <v>156.6978408449671</v>
       </c>
       <c r="E194" t="n">
-        <v>8.516703011340383e-31</v>
+        <v>2.962219371529764e-31</v>
       </c>
       <c r="F194" t="n">
-        <v>25.75511139840533</v>
+        <v>26.11630680749452</v>
       </c>
     </row>
     <row r="195">
@@ -4258,19 +4258,19 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003368137676075145</v>
+        <v>0.0003391117422810142</v>
       </c>
       <c r="C195" t="n">
-        <v>7.280934343129848e-06</v>
+        <v>7.317358627357941e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>165.7246851534321</v>
+        <v>159.7189829145034</v>
       </c>
       <c r="E195" t="n">
-        <v>3.626666264550446e-33</v>
+        <v>6.79144153908231e-32</v>
       </c>
       <c r="F195" t="n">
-        <v>27.62078085890534</v>
+        <v>26.61983048575057</v>
       </c>
     </row>
     <row r="196">
@@ -4278,19 +4278,19 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003393790475712694</v>
+        <v>0.0003399227165732748</v>
       </c>
       <c r="C196" t="n">
-        <v>7.172771720277912e-06</v>
+        <v>7.179280561774631e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>155.8711434547713</v>
+        <v>152.1079481385963</v>
       </c>
       <c r="E196" t="n">
-        <v>4.431966533633767e-31</v>
+        <v>2.772119606683379e-30</v>
       </c>
       <c r="F196" t="n">
-        <v>25.97852390912855</v>
+        <v>25.35132468976605</v>
       </c>
     </row>
     <row r="197">
@@ -4298,19 +4298,19 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003039844667308681</v>
+        <v>0.0003034675550159972</v>
       </c>
       <c r="C197" t="n">
-        <v>6.44475263921081e-06</v>
+        <v>6.438550566021186e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>143.7398260883905</v>
+        <v>146.481316902666</v>
       </c>
       <c r="E197" t="n">
-        <v>1.627202627694654e-28</v>
+        <v>4.28863026685979e-29</v>
       </c>
       <c r="F197" t="n">
-        <v>23.95663768139842</v>
+        <v>24.41355281711101</v>
       </c>
     </row>
     <row r="198">
@@ -4318,19 +4318,19 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002997412402147739</v>
+        <v>0.0002999621035499362</v>
       </c>
       <c r="C198" t="n">
-        <v>6.254500577208286e-06</v>
+        <v>6.261400917972505e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>153.3157177877327</v>
+        <v>154.1457273149011</v>
       </c>
       <c r="E198" t="n">
-        <v>1.539315790828467e-30</v>
+        <v>1.027358636059187e-30</v>
       </c>
       <c r="F198" t="n">
-        <v>25.55261963128879</v>
+        <v>25.69095455248351</v>
       </c>
     </row>
     <row r="199">
@@ -4338,19 +4338,19 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.000295503436266447</v>
+        <v>0.0002954327826127989</v>
       </c>
       <c r="C199" t="n">
-        <v>6.136814536933745e-06</v>
+        <v>6.135073172880564e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>142.6624934277899</v>
+        <v>139.9078161488683</v>
       </c>
       <c r="E199" t="n">
-        <v>2.747502353649507e-28</v>
+        <v>1.048123933049204e-27</v>
       </c>
       <c r="F199" t="n">
-        <v>23.77708223796499</v>
+        <v>23.31796935814472</v>
       </c>
     </row>
     <row r="200">
@@ -4358,19 +4358,19 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0003083152018301991</v>
+        <v>0.0003096157301888056</v>
       </c>
       <c r="C200" t="n">
-        <v>6.852036796867104e-06</v>
+        <v>6.866904161601522e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>136.436019941453</v>
+        <v>135.9921710342073</v>
       </c>
       <c r="E200" t="n">
-        <v>5.659701960002405e-27</v>
+        <v>7.020780523636908e-27</v>
       </c>
       <c r="F200" t="n">
-        <v>22.73933665690883</v>
+        <v>22.66536183903456</v>
       </c>
     </row>
     <row r="201">
@@ -4378,19 +4378,19 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002874572431500949</v>
+        <v>0.0002871318087929276</v>
       </c>
       <c r="C201" t="n">
-        <v>5.944467009409289e-06</v>
+        <v>5.941888126380498e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>165.5288751790827</v>
+        <v>164.3259131601774</v>
       </c>
       <c r="E201" t="n">
-        <v>3.990365776811281e-33</v>
+        <v>7.177512818023366e-33</v>
       </c>
       <c r="F201" t="n">
-        <v>27.58814586318045</v>
+        <v>27.38765219336289</v>
       </c>
     </row>
     <row r="202">
@@ -4398,19 +4398,19 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003561945944279973</v>
+        <v>0.0003556408304606403</v>
       </c>
       <c r="C202" t="n">
-        <v>7.937526885714002e-06</v>
+        <v>7.931421914067935e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>160.9222468509933</v>
+        <v>164.2010359391276</v>
       </c>
       <c r="E202" t="n">
-        <v>3.776715966335507e-32</v>
+        <v>7.628487431889503e-33</v>
       </c>
       <c r="F202" t="n">
-        <v>26.82037447516555</v>
+        <v>27.36683932318794</v>
       </c>
     </row>
     <row r="203">
@@ -4418,19 +4418,19 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003398312185177554</v>
+        <v>0.0003427043825052755</v>
       </c>
       <c r="C203" t="n">
-        <v>7.589515397816748e-06</v>
+        <v>7.637468675510653e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>171.3242210555383</v>
+        <v>167.2555882000029</v>
       </c>
       <c r="E203" t="n">
-        <v>2.355615695119673e-34</v>
+        <v>1.717778529081903e-33</v>
       </c>
       <c r="F203" t="n">
-        <v>28.55403684258972</v>
+        <v>27.87593136666716</v>
       </c>
     </row>
     <row r="204">
@@ -4438,19 +4438,19 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003399624317145012</v>
+        <v>0.0003383372026574175</v>
       </c>
       <c r="C204" t="n">
-        <v>7.589836385012887e-06</v>
+        <v>7.561980585782719e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>164.1990726806235</v>
+        <v>170.9756395282874</v>
       </c>
       <c r="E204" t="n">
-        <v>7.635799081259528e-33</v>
+        <v>2.79286256704402e-34</v>
       </c>
       <c r="F204" t="n">
-        <v>27.36651211343724</v>
+        <v>28.49593992138124</v>
       </c>
     </row>
     <row r="205">
@@ -4458,19 +4458,19 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0003306364014536785</v>
+        <v>0.0003317365786587811</v>
       </c>
       <c r="C205" t="n">
-        <v>7.434238057694064e-06</v>
+        <v>7.454526608383494e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>194.0649092514466</v>
+        <v>188.9501042147691</v>
       </c>
       <c r="E205" t="n">
-        <v>3.476124613398827e-39</v>
+        <v>4.254060340113615e-38</v>
       </c>
       <c r="F205" t="n">
-        <v>32.34415154190777</v>
+        <v>31.49168403579485</v>
       </c>
     </row>
     <row r="206">
@@ -4478,19 +4478,19 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0003290922261424332</v>
+        <v>0.0003293098973383601</v>
       </c>
       <c r="C206" t="n">
-        <v>7.439605830919633e-06</v>
+        <v>7.448380325630814e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>175.2295999902967</v>
+        <v>173.9357739229882</v>
       </c>
       <c r="E206" t="n">
-        <v>3.49473024854437e-35</v>
+        <v>6.576594018075661e-35</v>
       </c>
       <c r="F206" t="n">
-        <v>29.20493333171611</v>
+        <v>28.98929565383137</v>
       </c>
     </row>
     <row r="207">
@@ -4498,19 +4498,19 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003297014065332903</v>
+        <v>0.0003294309990421429</v>
       </c>
       <c r="C207" t="n">
-        <v>6.974079604156593e-06</v>
+        <v>6.981521032850489e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>175.4520308638531</v>
+        <v>179.4287365840421</v>
       </c>
       <c r="E207" t="n">
-        <v>3.134748501870791e-35</v>
+        <v>4.486625715164369e-36</v>
       </c>
       <c r="F207" t="n">
-        <v>29.24200514397552</v>
+        <v>29.90478943067369</v>
       </c>
     </row>
     <row r="208">
@@ -4518,19 +4518,19 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003285258702307172</v>
+        <v>0.0003286210796890061</v>
       </c>
       <c r="C208" t="n">
-        <v>7.259313426336835e-06</v>
+        <v>7.26559035731777e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>170.2060181919295</v>
+        <v>166.2972480195465</v>
       </c>
       <c r="E208" t="n">
-        <v>4.067223095300528e-34</v>
+        <v>2.742437790485586e-33</v>
       </c>
       <c r="F208" t="n">
-        <v>28.36766969865492</v>
+        <v>27.71620800325776</v>
       </c>
     </row>
     <row r="209">
@@ -4538,19 +4538,19 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002908479317305189</v>
+        <v>0.000291244194707851</v>
       </c>
       <c r="C209" t="n">
-        <v>6.03207049000698e-06</v>
+        <v>6.040046281927031e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>189.5192518072024</v>
+        <v>187.5719042459495</v>
       </c>
       <c r="E209" t="n">
-        <v>3.219582862366177e-38</v>
+        <v>8.351890798973373e-38</v>
       </c>
       <c r="F209" t="n">
-        <v>31.58654196786706</v>
+        <v>31.26198404099159</v>
       </c>
     </row>
     <row r="210">
@@ -4558,19 +4558,19 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002536064540960768</v>
+        <v>0.0002557319350418231</v>
       </c>
       <c r="C210" t="n">
-        <v>5.233812257992512e-06</v>
+        <v>5.257119423388702e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>156.5142269435023</v>
+        <v>148.8459044619065</v>
       </c>
       <c r="E210" t="n">
-        <v>3.239538067603233e-31</v>
+        <v>1.356987717025404e-29</v>
       </c>
       <c r="F210" t="n">
-        <v>26.08570449058371</v>
+        <v>24.80765074365108</v>
       </c>
     </row>
     <row r="211">
@@ -4578,19 +4578,19 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0002437986724122633</v>
+        <v>0.0002443956671934014</v>
       </c>
       <c r="C211" t="n">
-        <v>4.963773843763405e-06</v>
+        <v>4.97569086922156e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>149.4153996960445</v>
+        <v>150.2217290874979</v>
       </c>
       <c r="E211" t="n">
-        <v>1.028452107681201e-29</v>
+        <v>6.945512166094885e-30</v>
       </c>
       <c r="F211" t="n">
-        <v>24.90256661600742</v>
+        <v>25.03695484791631</v>
       </c>
     </row>
     <row r="212">
@@ -4598,19 +4598,19 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0002505269190298843</v>
+        <v>0.0002508150947443029</v>
       </c>
       <c r="C212" t="n">
-        <v>5.081638835891363e-06</v>
+        <v>5.083736225712611e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>166.8384748513902</v>
+        <v>163.0223839969223</v>
       </c>
       <c r="E212" t="n">
-        <v>2.105713545855102e-33</v>
+        <v>1.355809318945828e-32</v>
       </c>
       <c r="F212" t="n">
-        <v>27.8064124752317</v>
+        <v>27.17039733282038</v>
       </c>
     </row>
     <row r="213">
@@ -4618,19 +4618,19 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002433730752510813</v>
+        <v>0.0002436599951312343</v>
       </c>
       <c r="C213" t="n">
-        <v>4.899845063932935e-06</v>
+        <v>4.906680812752474e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>149.6302719374906</v>
+        <v>151.6074364875395</v>
       </c>
       <c r="E213" t="n">
-        <v>9.263106914154193e-30</v>
+        <v>3.537297381580578e-30</v>
       </c>
       <c r="F213" t="n">
-        <v>24.93837865624843</v>
+        <v>25.26790608125659</v>
       </c>
     </row>
     <row r="214">
@@ -4638,19 +4638,19 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0002393684827766842</v>
+        <v>0.0002394348023248335</v>
       </c>
       <c r="C214" t="n">
-        <v>4.793831471525397e-06</v>
+        <v>4.793898347338705e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>142.0471708379596</v>
+        <v>140.0770904510556</v>
       </c>
       <c r="E214" t="n">
-        <v>3.705543871527139e-28</v>
+        <v>9.653625813002015e-28</v>
       </c>
       <c r="F214" t="n">
-        <v>23.67452847299327</v>
+        <v>23.3461817418426</v>
       </c>
     </row>
     <row r="215">
@@ -4658,19 +4658,19 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002367072221599989</v>
+        <v>0.0002379921160908246</v>
       </c>
       <c r="C215" t="n">
-        <v>4.693923284796055e-06</v>
+        <v>4.713217965955549e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>139.5221223989171</v>
+        <v>133.5120944526232</v>
       </c>
       <c r="E215" t="n">
-        <v>1.264158342526292e-27</v>
+        <v>2.339794810684632e-26</v>
       </c>
       <c r="F215" t="n">
-        <v>23.25368706648619</v>
+        <v>22.25201574210388</v>
       </c>
     </row>
     <row r="216">
@@ -4678,19 +4678,19 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002415488612184573</v>
+        <v>0.0002438447815342112</v>
       </c>
       <c r="C216" t="n">
-        <v>4.823148301361856e-06</v>
+        <v>4.856793998316215e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>150.6475622444114</v>
+        <v>140.7593674059214</v>
       </c>
       <c r="E216" t="n">
-        <v>5.644972209512361e-30</v>
+        <v>6.929409105375665e-28</v>
       </c>
       <c r="F216" t="n">
-        <v>25.10792704073523</v>
+        <v>23.45989456765357</v>
       </c>
     </row>
     <row r="217">
@@ -4698,19 +4698,19 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0002559677334003926</v>
+        <v>0.0002566047581456573</v>
       </c>
       <c r="C217" t="n">
-        <v>5.073264378827353e-06</v>
+        <v>5.08328956539038e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>128.2517698929065</v>
+        <v>126.2949396314267</v>
       </c>
       <c r="E217" t="n">
-        <v>2.999588519634062e-25</v>
+        <v>7.741710171933324e-25</v>
       </c>
       <c r="F217" t="n">
-        <v>21.37529498215108</v>
+        <v>21.04915660523778</v>
       </c>
     </row>
     <row r="218">
@@ -4718,19 +4718,19 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0002567554529785965</v>
+        <v>0.0002562137529217341</v>
       </c>
       <c r="C218" t="n">
-        <v>5.115404615069524e-06</v>
+        <v>5.107324154137898e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>133.6001068258093</v>
+        <v>135.2947527310103</v>
       </c>
       <c r="E218" t="n">
-        <v>2.241970813763865e-26</v>
+        <v>9.849808106578597e-27</v>
       </c>
       <c r="F218" t="n">
-        <v>22.26668447096823</v>
+        <v>22.54912545516838</v>
       </c>
     </row>
     <row r="219">
@@ -4738,19 +4738,19 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0002443915715978272</v>
+        <v>0.0002442482190691783</v>
       </c>
       <c r="C219" t="n">
-        <v>4.920050564221931e-06</v>
+        <v>4.922817671592007e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>164.3863183639572</v>
+        <v>166.3124130257229</v>
       </c>
       <c r="E219" t="n">
-        <v>6.969032651173821e-33</v>
+        <v>2.722212339111131e-33</v>
       </c>
       <c r="F219" t="n">
-        <v>27.39771972732619</v>
+        <v>27.71873550428714</v>
       </c>
     </row>
     <row r="220">
@@ -4758,19 +4758,19 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0002494441329073043</v>
+        <v>0.0002497872166616134</v>
       </c>
       <c r="C220" t="n">
-        <v>5.005976070165127e-06</v>
+        <v>5.012849259617209e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>199.0113833240187</v>
+        <v>198.5659290888942</v>
       </c>
       <c r="E220" t="n">
-        <v>3.080502050855706e-40</v>
+        <v>3.831985581019319e-40</v>
       </c>
       <c r="F220" t="n">
-        <v>33.16856388733645</v>
+        <v>33.0943215148157</v>
       </c>
     </row>
     <row r="221">
@@ -4778,19 +4778,19 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0002601804371297046</v>
+        <v>0.0002611464301766206</v>
       </c>
       <c r="C221" t="n">
-        <v>5.263279198214615e-06</v>
+        <v>5.276965182858893e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>215.5435466441049</v>
+        <v>210.3197580882431</v>
       </c>
       <c r="E221" t="n">
-        <v>9.275827621094324e-44</v>
+        <v>1.203855002969324e-42</v>
       </c>
       <c r="F221" t="n">
-        <v>35.92392444068415</v>
+        <v>35.05329301470719</v>
       </c>
     </row>
   </sheetData>
